--- a/Power & Propulsion System/Power Consumption.xlsx
+++ b/Power & Propulsion System/Power Consumption.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Videos\UAS_Challenge\Power &amp; Propulsion System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77447001-8994-4916-A3DC-A9AA0EB2F7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5299C4C2-CB7A-41C7-BB70-631BD7024345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Drag &amp; Lift" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Vertical Flight Power</t>
   </si>
@@ -52,6 +53,15 @@
   </si>
   <si>
     <t>Pump</t>
+  </si>
+  <si>
+    <t>Airspeed (m/s)</t>
+  </si>
+  <si>
+    <t>Lift (N)</t>
+  </si>
+  <si>
+    <t>Drag (N)</t>
   </si>
 </sst>
 </file>
@@ -371,7 +381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -428,4 +438,91 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCE7B62-FB69-4347-8AA6-5823B55756E6}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4.8</v>
+      </c>
+      <c r="C3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>47.5</v>
+      </c>
+      <c r="C5">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>86.4</v>
+      </c>
+      <c r="C6">
+        <v>9.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Power & Propulsion System/Power Consumption.xlsx
+++ b/Power & Propulsion System/Power Consumption.xlsx
@@ -8,51 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Videos\UAS_Challenge\Power &amp; Propulsion System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5299C4C2-CB7A-41C7-BB70-631BD7024345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCCBB58-BE9F-44A7-BE8C-40F8164BB629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
     <sheet name="Drag &amp; Lift" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>Vertical Flight Power</t>
-  </si>
-  <si>
-    <t>Horizontal Flight Power</t>
-  </si>
-  <si>
-    <t>Transition Power</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Total Energy Consumption</t>
-  </si>
-  <si>
-    <t>Motors</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Propeller</t>
-  </si>
-  <si>
-    <t>Servo</t>
-  </si>
-  <si>
-    <t>Pump</t>
   </si>
   <si>
     <t>Airspeed (m/s)</t>
@@ -62,6 +48,59 @@
   </si>
   <si>
     <t>Drag (N)</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Thrust (g)</t>
+  </si>
+  <si>
+    <t>Efficiency (g/W)</t>
+  </si>
+  <si>
+    <t>Tmotors
+P17*5.8'' CF</t>
+  </si>
+  <si>
+    <t>Tmotors
+P18*6.1'' CF</t>
+  </si>
+  <si>
+    <t>MN5008
+KV170</t>
+  </si>
+  <si>
+    <t>MN5008
+KV340</t>
+  </si>
+  <si>
+    <t>MN5008
+KV400</t>
+  </si>
+  <si>
+    <t>Tmotors
+P15*5'' CF</t>
+  </si>
+  <si>
+    <t>Tmotors
+P16*5.4'' CF</t>
+  </si>
+  <si>
+    <t>EMAX GT2826/05
+KV860</t>
+  </si>
+  <si>
+    <t>P14*7''</t>
   </si>
 </sst>
 </file>
@@ -97,8 +136,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,96 +426,1786 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175D03E5-8582-4481-A4D2-A6FC07404F11}">
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" customWidth="1"/>
-    <col min="6" max="6" width="5.81640625" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" customWidth="1"/>
-    <col min="8" max="8" width="5.81640625" customWidth="1"/>
-    <col min="9" max="9" width="17.08984375" customWidth="1"/>
-    <col min="10" max="10" width="6.08984375" customWidth="1"/>
-    <col min="11" max="11" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>47.41</v>
+      </c>
+      <c r="D2">
+        <v>1.17</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>55.469699999999996</v>
+      </c>
+      <c r="F2">
+        <v>682</v>
+      </c>
+      <c r="G2">
+        <f>F2/E2</f>
+        <v>12.295000694072622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3">
+        <v>47.39</v>
+      </c>
+      <c r="D3">
+        <v>1.57</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E23" si="0">D3*C3</f>
+        <v>74.402299999999997</v>
+      </c>
+      <c r="F3">
+        <v>849</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G23" si="1">F3/E3</f>
+        <v>11.410937565102154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4">
+        <v>47.36</v>
+      </c>
+      <c r="D4">
+        <v>2.1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>99.456000000000003</v>
+      </c>
+      <c r="F4">
+        <v>1058</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>10.637870012870012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5">
+        <v>47.34</v>
+      </c>
+      <c r="D5">
+        <v>2.76</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>130.6584</v>
+      </c>
+      <c r="F5">
+        <v>1285</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>9.8348058754737551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6">
+        <v>47.31</v>
+      </c>
+      <c r="D6">
+        <v>3.46</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>163.6926</v>
+      </c>
+      <c r="F6">
+        <v>1515</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>9.2551526458740341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7">
+        <v>47.28</v>
+      </c>
+      <c r="D7">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>199.99440000000001</v>
+      </c>
+      <c r="F7">
+        <v>1739</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>8.6952434668170699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8">
+        <v>47.24</v>
+      </c>
+      <c r="D8">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>241.39640000000003</v>
+      </c>
+      <c r="F8">
+        <v>1991</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>8.2478446240291898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9">
+        <v>47.21</v>
+      </c>
+      <c r="D9">
+        <v>6.1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>287.98099999999999</v>
+      </c>
+      <c r="F9">
+        <v>2234</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>7.7574562210701403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10">
+        <v>47.17</v>
+      </c>
+      <c r="D10">
+        <v>7.2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>339.62400000000002</v>
+      </c>
+      <c r="F10">
+        <v>2509</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>7.3875815607848674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11">
+        <v>47.08</v>
+      </c>
+      <c r="D11">
+        <v>9.9</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>466.09199999999998</v>
+      </c>
+      <c r="F11">
+        <v>3116</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>6.6853754194450881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12">
+        <v>47.03</v>
+      </c>
+      <c r="D12">
+        <v>11.46</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>538.96380000000011</v>
+      </c>
+      <c r="F12">
+        <v>3449</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>6.3993166145852456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>47.39</v>
+      </c>
+      <c r="D13">
+        <v>1.51</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>71.558899999999994</v>
+      </c>
+      <c r="F13">
+        <v>868</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>12.12986784313342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14">
+        <v>47.37</v>
+      </c>
+      <c r="D14">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>97.108499999999992</v>
+      </c>
+      <c r="F14">
+        <v>1096</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>11.286344655720148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15">
+        <v>47.34</v>
+      </c>
+      <c r="D15">
+        <v>2.74</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>129.71160000000003</v>
+      </c>
+      <c r="F15">
+        <v>1343</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>10.353738601636243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16">
+        <v>47.3</v>
+      </c>
+      <c r="D16">
+        <v>3.63</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>171.69899999999998</v>
+      </c>
+      <c r="F16">
+        <v>1633</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>9.5108299990098963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17">
+        <v>47.27</v>
+      </c>
+      <c r="D17">
+        <v>4.57</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>216.02390000000003</v>
+      </c>
+      <c r="F17">
+        <v>1926</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>8.9156801631671296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18">
+        <v>47.23</v>
+      </c>
+      <c r="D18">
+        <v>5.63</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>265.9049</v>
+      </c>
+      <c r="F18">
+        <v>2229</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>8.382696219588281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19">
+        <v>47.19</v>
+      </c>
+      <c r="D19">
+        <v>6.73</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>317.58870000000002</v>
+      </c>
+      <c r="F19">
+        <v>2519</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>7.931642404153548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20">
+        <v>47.15</v>
+      </c>
+      <c r="D20">
+        <v>8.01</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>377.67149999999998</v>
+      </c>
+      <c r="F20">
+        <v>2821</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>7.4694542744157291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21">
+        <v>47.1</v>
+      </c>
+      <c r="D21">
+        <v>9.48</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>446.50800000000004</v>
+      </c>
+      <c r="F21">
+        <v>3156</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>7.0681824289822348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22">
+        <v>46.99</v>
+      </c>
+      <c r="D22">
+        <v>12.85</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>603.82150000000001</v>
+      </c>
+      <c r="F22">
+        <v>3807</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>6.3048434015681787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23">
+        <v>46.94</v>
+      </c>
+      <c r="D23">
+        <v>14.63</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>686.73220000000003</v>
+      </c>
+      <c r="F23">
+        <v>4100</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>5.9703039991426055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>23.47</v>
+      </c>
+      <c r="D24">
+        <v>2.88</v>
+      </c>
+      <c r="E24">
+        <f>D24*C24</f>
+        <v>67.593599999999995</v>
+      </c>
+      <c r="F24">
+        <v>776</v>
+      </c>
+      <c r="G24">
+        <f>F24/E24</f>
+        <v>11.480376840410928</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25">
+        <v>23.43</v>
+      </c>
+      <c r="D25">
+        <v>3.98</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:E45" si="2">D25*C25</f>
+        <v>93.251400000000004</v>
+      </c>
+      <c r="F25">
+        <v>986</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G45" si="3">F25/E25</f>
+        <v>10.57356779630118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26">
+        <v>23.38</v>
+      </c>
+      <c r="D26">
+        <v>5.33</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>124.61539999999999</v>
+      </c>
+      <c r="F26">
+        <v>1224</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>9.8222210096023446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27">
+        <v>23.33</v>
+      </c>
+      <c r="D27">
+        <v>6.86</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>160.0438</v>
+      </c>
+      <c r="F27">
+        <v>1455</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>9.0912612672280968</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28">
+        <v>23.27</v>
+      </c>
+      <c r="D28">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>198.49309999999997</v>
+      </c>
+      <c r="F28">
+        <v>1697</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>8.5494155716244062</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29">
+        <v>23.21</v>
+      </c>
+      <c r="D29">
+        <v>10.38</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>240.91980000000004</v>
+      </c>
+      <c r="F29">
+        <v>1936</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>8.0358691979654626</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30">
+        <v>23.15</v>
+      </c>
+      <c r="D30">
+        <v>12.4</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>287.06</v>
+      </c>
+      <c r="F30">
+        <v>2176</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>7.5802968020622865</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31">
+        <v>23.08</v>
+      </c>
+      <c r="D31">
+        <v>14.71</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>339.5068</v>
+      </c>
+      <c r="F31">
+        <v>2440</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>7.1868958147524582</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>17.16</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>394.68</v>
+      </c>
+      <c r="F32">
+        <v>2701</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>6.8435188000405391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33">
+        <v>22.82</v>
+      </c>
+      <c r="D33">
+        <v>23.18</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>528.96759999999995</v>
+      </c>
+      <c r="F33">
+        <v>3277</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>6.1950864287340099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34">
+        <v>22.72</v>
+      </c>
+      <c r="D34">
+        <v>26.39</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>599.58079999999995</v>
+      </c>
+      <c r="F34">
+        <v>3556</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>5.9308103261478688</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>23.44</v>
+      </c>
+      <c r="D35">
+        <v>3.76</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>88.134399999999999</v>
+      </c>
+      <c r="F35">
+        <v>996</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>11.300922227870162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36">
+        <v>23.39</v>
+      </c>
+      <c r="D36">
+        <v>5.12</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>119.7568</v>
+      </c>
+      <c r="F36">
+        <v>1238</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>10.3376175716118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37">
+        <v>23.33</v>
+      </c>
+      <c r="D37">
+        <v>6.93</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>161.67689999999999</v>
+      </c>
+      <c r="F37">
+        <v>1541</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>9.5313554379135184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38">
+        <v>23.26</v>
+      </c>
+      <c r="D38">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>208.17699999999999</v>
+      </c>
+      <c r="F38">
+        <v>1822</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>8.7521676265869903</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39">
+        <v>23.19</v>
+      </c>
+      <c r="D39">
+        <v>11.12</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>257.87279999999998</v>
+      </c>
+      <c r="F39">
+        <v>2120</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>8.2211074607325791</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40">
+        <v>23.11</v>
+      </c>
+      <c r="D40">
+        <v>13.46</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>311.06060000000002</v>
+      </c>
+      <c r="F40">
+        <v>2394</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>7.696249541086206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41">
+        <v>23.04</v>
+      </c>
+      <c r="D41">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>368.87040000000002</v>
+      </c>
+      <c r="F41">
+        <v>2675</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>7.2518694912901651</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42">
+        <v>22.95</v>
+      </c>
+      <c r="D42">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>432.14849999999996</v>
+      </c>
+      <c r="F42">
+        <v>2966</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>6.8633814533661468</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43">
+        <v>22.86</v>
+      </c>
+      <c r="D43">
+        <v>22.02</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>503.37719999999996</v>
+      </c>
+      <c r="F43">
+        <v>3262</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>6.4802299349275261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44">
+        <v>22.63</v>
+      </c>
+      <c r="D44">
+        <v>29.46</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>666.6798</v>
+      </c>
+      <c r="F44">
+        <v>3909</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>5.8633844913255206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45">
+        <v>22.51</v>
+      </c>
+      <c r="D45">
+        <v>33.5</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>754.08500000000004</v>
+      </c>
+      <c r="F45">
+        <v>4215</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>5.5895555540820991</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>23.48</v>
+      </c>
+      <c r="D46">
+        <v>2.82</v>
+      </c>
+      <c r="E46">
+        <f>D46*C46</f>
+        <v>66.2136</v>
+      </c>
+      <c r="F46">
+        <v>672</v>
+      </c>
+      <c r="G46">
+        <f>F46/E46</f>
+        <v>10.148972416542826</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47">
+        <v>23.44</v>
+      </c>
+      <c r="D47">
+        <v>3.78</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47:E67" si="4">D47*C47</f>
+        <v>88.603200000000001</v>
+      </c>
+      <c r="F47">
+        <v>845</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ref="G47:G67" si="5">F47/E47</f>
+        <v>9.5369016017480188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48">
+        <v>23.4</v>
+      </c>
+      <c r="D48">
+        <v>4.95</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="4"/>
+        <v>115.83</v>
+      </c>
+      <c r="F48">
+        <v>1033</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="5"/>
+        <v>8.9182422515755846</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49">
+        <v>23.35</v>
+      </c>
+      <c r="D49">
+        <v>6.26</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="4"/>
+        <v>146.17099999999999</v>
+      </c>
+      <c r="F49">
+        <v>1233</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="5"/>
+        <v>8.4353257486095057</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50">
+        <v>23.3</v>
+      </c>
+      <c r="D50">
+        <v>7.66</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="4"/>
+        <v>178.47800000000001</v>
+      </c>
+      <c r="F50">
+        <v>1409</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="5"/>
+        <v>7.8945304183148624</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51">
+        <v>23.25</v>
+      </c>
+      <c r="D51">
+        <v>9.26</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="4"/>
+        <v>215.29499999999999</v>
+      </c>
+      <c r="F51">
+        <v>1610</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="5"/>
+        <v>7.4781114285050752</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52">
+        <v>23.19</v>
+      </c>
+      <c r="D52">
+        <v>10.98</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="4"/>
+        <v>254.62620000000001</v>
+      </c>
+      <c r="F52">
+        <v>1811</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="5"/>
+        <v>7.1123867064740391</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53">
+        <v>23.13</v>
+      </c>
+      <c r="D53">
+        <v>13.04</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="4"/>
+        <v>301.61519999999996</v>
+      </c>
+      <c r="F53">
+        <v>2048</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="5"/>
+        <v>6.7901087213111282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54">
+        <v>23.06</v>
+      </c>
+      <c r="D54">
+        <v>15.31</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="4"/>
+        <v>353.04859999999996</v>
+      </c>
+      <c r="F54">
+        <v>2286</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="5"/>
+        <v>6.4750292169406709</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55">
+        <v>22.9</v>
+      </c>
+      <c r="D55">
+        <v>20.6</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="4"/>
+        <v>471.74</v>
+      </c>
+      <c r="F55">
+        <v>2782</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="5"/>
+        <v>5.8973163183109341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56">
+        <v>22.81</v>
+      </c>
+      <c r="D56">
+        <v>23.44</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="4"/>
+        <v>534.66639999999995</v>
+      </c>
+      <c r="F56">
+        <v>3027</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="5"/>
+        <v>5.6614741453736395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>23.46</v>
+      </c>
+      <c r="D57">
+        <v>3.22</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>75.541200000000003</v>
+      </c>
+      <c r="F57">
+        <v>803</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="5"/>
+        <v>10.629960869035704</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58">
+        <v>23.41</v>
+      </c>
+      <c r="D58">
+        <v>4.46</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="4"/>
+        <v>104.40859999999999</v>
+      </c>
+      <c r="F58">
+        <v>1021</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="5"/>
+        <v>9.7788879460121105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59">
+        <v>23.36</v>
+      </c>
+      <c r="D59">
+        <v>5.93</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="4"/>
+        <v>138.5248</v>
+      </c>
+      <c r="F59">
+        <v>1259</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="5"/>
+        <v>9.088625285869389</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+      <c r="C60">
+        <v>23.31</v>
+      </c>
+      <c r="D60">
+        <v>7.54</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="4"/>
+        <v>175.75739999999999</v>
+      </c>
+      <c r="F60">
+        <v>1492</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="5"/>
+        <v>8.4889740062153862</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61">
+        <v>23.25</v>
+      </c>
+      <c r="D61">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="4"/>
+        <v>215.76</v>
+      </c>
+      <c r="F61">
+        <v>1722</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="5"/>
+        <v>7.9810901001112349</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62">
+        <v>23.19</v>
+      </c>
+      <c r="D62">
+        <v>11.19</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="4"/>
+        <v>259.49610000000001</v>
+      </c>
+      <c r="F62">
+        <v>1956</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="5"/>
+        <v>7.5376855374705052</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63">
+        <v>23.13</v>
+      </c>
+      <c r="D63">
+        <v>13.16</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="4"/>
+        <v>304.39080000000001</v>
+      </c>
+      <c r="F63">
+        <v>2185</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="5"/>
+        <v>7.1782721422592273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64">
+        <v>23.05</v>
+      </c>
+      <c r="D64">
+        <v>15.66</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="4"/>
+        <v>360.96300000000002</v>
+      </c>
+      <c r="F64">
+        <v>2458</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="5"/>
+        <v>6.8095621988957316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+      <c r="C65">
+        <v>22.96</v>
+      </c>
+      <c r="D65">
+        <v>18.53</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="4"/>
+        <v>425.44880000000006</v>
+      </c>
+      <c r="F65">
+        <v>2750</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="5"/>
+        <v>6.4637625020919076</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66">
+        <v>22.77</v>
+      </c>
+      <c r="D66">
+        <v>24.84</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="4"/>
+        <v>565.60680000000002</v>
+      </c>
+      <c r="F66">
+        <v>3323</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="5"/>
+        <v>5.8751061691620396</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
+      <c r="C67">
+        <v>22.67</v>
+      </c>
+      <c r="D67">
+        <v>28.16</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="4"/>
+        <v>638.38720000000001</v>
+      </c>
+      <c r="F67">
+        <v>3591</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="5"/>
+        <v>5.625112784216225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>23.44</v>
+      </c>
+      <c r="D68">
+        <v>3.71</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E80" si="6">D68*C68</f>
+        <v>86.962400000000002</v>
+      </c>
+      <c r="F68">
+        <v>917</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68:G80" si="7">F68/E68</f>
+        <v>10.544787172387146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69">
+        <v>23.39</v>
+      </c>
+      <c r="D69">
+        <v>5.18</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="6"/>
+        <v>121.1602</v>
+      </c>
+      <c r="F69">
+        <v>1170</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="7"/>
+        <v>9.6566364202105976</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70">
+        <v>23.33</v>
+      </c>
+      <c r="D70">
+        <v>6.99</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="6"/>
+        <v>163.07669999999999</v>
+      </c>
+      <c r="F70">
+        <v>1447</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="7"/>
+        <v>8.8731253453129728</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2"/>
+      <c r="C71">
+        <v>23.26</v>
+      </c>
+      <c r="D71">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="6"/>
+        <v>206.54880000000003</v>
+      </c>
+      <c r="F71">
+        <v>1712</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="7"/>
+        <v>8.288598142424453</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
+      <c r="C72">
+        <v>23.2</v>
+      </c>
+      <c r="D72">
+        <v>10.92</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="6"/>
+        <v>253.34399999999999</v>
+      </c>
+      <c r="F72">
+        <v>1963</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="7"/>
+        <v>7.7483579638752058</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
+      <c r="C73">
+        <v>23.13</v>
+      </c>
+      <c r="D73">
+        <v>13.17</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="6"/>
+        <v>304.62209999999999</v>
+      </c>
+      <c r="F73">
+        <v>2230</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="7"/>
+        <v>7.3205456859499032</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
+      <c r="C74">
+        <v>23.05</v>
+      </c>
+      <c r="D74">
+        <v>15.72</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="6"/>
+        <v>362.346</v>
+      </c>
+      <c r="F74">
+        <v>2491</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="7"/>
+        <v>6.8746446766350395</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2"/>
+      <c r="C75">
+        <v>22.97</v>
+      </c>
+      <c r="D75">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="6"/>
+        <v>420.58069999999992</v>
+      </c>
+      <c r="F75">
+        <v>2757</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="7"/>
+        <v>6.5552223390184103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
+      <c r="C76">
+        <v>22.87</v>
+      </c>
+      <c r="D76">
+        <v>21.65</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="6"/>
+        <v>495.13549999999998</v>
+      </c>
+      <c r="F76">
+        <v>3090</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="7"/>
+        <v>6.2407159252366275</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="1"/>
+      <c r="B77" s="2"/>
+      <c r="C77">
+        <v>22.65</v>
+      </c>
+      <c r="D77">
+        <v>28.93</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="6"/>
+        <v>655.2645</v>
+      </c>
+      <c r="F77">
+        <v>3697</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="7"/>
+        <v>5.6419964762321166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
+      <c r="C78">
+        <v>22.53</v>
+      </c>
+      <c r="D78">
+        <v>32.83</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="6"/>
+        <v>739.65989999999999</v>
+      </c>
+      <c r="F78">
+        <v>3982</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="7"/>
+        <v>5.3835553340122937</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79">
+        <v>14.8</v>
+      </c>
+      <c r="D79">
+        <v>45</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="6"/>
+        <v>666</v>
+      </c>
+      <c r="F79">
+        <v>2950</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="7"/>
+        <v>4.4294294294294296</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="2"/>
+      <c r="B80" s="3"/>
+      <c r="C80">
+        <v>14.47</v>
+      </c>
+      <c r="D80">
+        <v>57.3</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="6"/>
+        <v>829.13099999999997</v>
+      </c>
+      <c r="F80">
+        <v>3680</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="7"/>
+        <v>4.4383818721046495</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B46:B56"/>
+    <mergeCell ref="B57:B67"/>
+    <mergeCell ref="B68:B78"/>
+    <mergeCell ref="A46:A78"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A24:A45"/>
+    <mergeCell ref="B24:B34"/>
+    <mergeCell ref="B35:B45"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCE7B62-FB69-4347-8AA6-5823B55756E6}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.1796875" customWidth="1"/>
     <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" customWidth="1"/>
+    <col min="3" max="4" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -477,49 +2215,89 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <f>0.350317*A2*A2-0.202576*A2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>0.0350823*A2*A2+0.00372739*A2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>4.8</v>
+        <v>4.8773723999999996</v>
       </c>
       <c r="C3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.56971285000000005</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">0.350317*A3*A3-0.202576*A3</f>
+        <v>4.7947679999999995</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="1">0.0350823*A3*A3+0.00372739*A3</f>
+        <v>0.57622635999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>20.819825999999999</v>
       </c>
       <c r="C4">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.273879</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>20.799679999999999</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>2.2750863199999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>12</v>
       </c>
       <c r="B5">
-        <v>47.5</v>
+        <v>47.994604000000002</v>
       </c>
       <c r="C5">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5.0977855999999999</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>48.014735999999999</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>5.0965798800000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>86.4</v>
+        <v>86.491327999999996</v>
       </c>
       <c r="C6">
-        <v>9.1</v>
+        <v>9.0368449999999996</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>86.439936000000003</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>9.0407070399999991</v>
       </c>
     </row>
   </sheetData>

--- a/Power & Propulsion System/Power Consumption.xlsx
+++ b/Power & Propulsion System/Power Consumption.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Videos\UAS_Challenge\Power &amp; Propulsion System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCCBB58-BE9F-44A7-BE8C-40F8164BB629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA2D1F0-5FC4-4C64-9DBD-368C6F6A6B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="Drag &amp; Lift" sheetId="2" r:id="rId2"/>
+    <sheet name="Power &amp; Thrust Data" sheetId="3" r:id="rId1"/>
+    <sheet name="Drag &amp; Lift Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -430,7 +430,7 @@
   <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
@@ -2154,18 +2154,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A24:A45"/>
+    <mergeCell ref="B24:B34"/>
+    <mergeCell ref="B35:B45"/>
     <mergeCell ref="A79:A80"/>
     <mergeCell ref="B79:B80"/>
     <mergeCell ref="B46:B56"/>
     <mergeCell ref="B57:B67"/>
     <mergeCell ref="B68:B78"/>
     <mergeCell ref="A46:A78"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="A24:A45"/>
-    <mergeCell ref="B24:B34"/>
-    <mergeCell ref="B35:B45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Power & Propulsion System/Power Consumption.xlsx
+++ b/Power & Propulsion System/Power Consumption.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Videos\UAS_Challenge\Power &amp; Propulsion System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA2D1F0-5FC4-4C64-9DBD-368C6F6A6B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244BC670-9B55-4402-89F9-DE6F0545D541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power &amp; Thrust Data" sheetId="3" r:id="rId1"/>
     <sheet name="Drag &amp; Lift Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Cruise Speed (Loaded)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Propeller</t>
   </si>
@@ -101,6 +102,30 @@
   </si>
   <si>
     <t>P14*7''</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Vertical Thrust</t>
+  </si>
+  <si>
+    <t>Horizontal Thrust</t>
+  </si>
+  <si>
+    <t>Total Thrust</t>
+  </si>
+  <si>
+    <t>Thrust per motor</t>
+  </si>
+  <si>
+    <t>Power per Motor</t>
+  </si>
+  <si>
+    <t>Total Power</t>
+  </si>
+  <si>
+    <t>Cruise Efficiency</t>
   </si>
 </sst>
 </file>
@@ -429,9 +454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175D03E5-8582-4481-A4D2-A6FC07404F11}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,7 +494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -704,7 +729,7 @@
         <v>6.3993166145852456</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -937,7 +962,7 @@
         <v>5.9703039991426055</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1172,7 +1197,7 @@
         <v>5.9308103261478688</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
         <v>11</v>
@@ -1440,14 +1465,14 @@
         <v>3.78</v>
       </c>
       <c r="E47">
-        <f t="shared" ref="E47:E67" si="4">D47*C47</f>
+        <f t="shared" ref="E47:E80" si="4">D47*C47</f>
         <v>88.603200000000001</v>
       </c>
       <c r="F47">
         <v>845</v>
       </c>
       <c r="G47">
-        <f t="shared" ref="G47:G67" si="5">F47/E47</f>
+        <f t="shared" ref="G47:G80" si="5">F47/E47</f>
         <v>9.5369016017480188</v>
       </c>
     </row>
@@ -1640,7 +1665,7 @@
         <v>5.6614741453736395</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>16</v>
@@ -1873,7 +1898,7 @@
         <v>5.625112784216225</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>10</v>
@@ -1885,14 +1910,14 @@
         <v>3.71</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E80" si="6">D68*C68</f>
+        <f t="shared" si="4"/>
         <v>86.962400000000002</v>
       </c>
       <c r="F68">
         <v>917</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G80" si="7">F68/E68</f>
+        <f t="shared" si="5"/>
         <v>10.544787172387146</v>
       </c>
     </row>
@@ -1906,14 +1931,14 @@
         <v>5.18</v>
       </c>
       <c r="E69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>121.1602</v>
       </c>
       <c r="F69">
         <v>1170</v>
       </c>
       <c r="G69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>9.6566364202105976</v>
       </c>
     </row>
@@ -1927,14 +1952,14 @@
         <v>6.99</v>
       </c>
       <c r="E70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>163.07669999999999</v>
       </c>
       <c r="F70">
         <v>1447</v>
       </c>
       <c r="G70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>8.8731253453129728</v>
       </c>
     </row>
@@ -1948,14 +1973,14 @@
         <v>8.8800000000000008</v>
       </c>
       <c r="E71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>206.54880000000003</v>
       </c>
       <c r="F71">
         <v>1712</v>
       </c>
       <c r="G71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>8.288598142424453</v>
       </c>
     </row>
@@ -1969,14 +1994,14 @@
         <v>10.92</v>
       </c>
       <c r="E72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>253.34399999999999</v>
       </c>
       <c r="F72">
         <v>1963</v>
       </c>
       <c r="G72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7.7483579638752058</v>
       </c>
     </row>
@@ -1990,14 +2015,14 @@
         <v>13.17</v>
       </c>
       <c r="E73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>304.62209999999999</v>
       </c>
       <c r="F73">
         <v>2230</v>
       </c>
       <c r="G73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7.3205456859499032</v>
       </c>
     </row>
@@ -2011,14 +2036,14 @@
         <v>15.72</v>
       </c>
       <c r="E74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>362.346</v>
       </c>
       <c r="F74">
         <v>2491</v>
       </c>
       <c r="G74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>6.8746446766350395</v>
       </c>
     </row>
@@ -2032,14 +2057,14 @@
         <v>18.309999999999999</v>
       </c>
       <c r="E75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>420.58069999999992</v>
       </c>
       <c r="F75">
         <v>2757</v>
       </c>
       <c r="G75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>6.5552223390184103</v>
       </c>
     </row>
@@ -2053,14 +2078,14 @@
         <v>21.65</v>
       </c>
       <c r="E76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>495.13549999999998</v>
       </c>
       <c r="F76">
         <v>3090</v>
       </c>
       <c r="G76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>6.2407159252366275</v>
       </c>
     </row>
@@ -2074,14 +2099,14 @@
         <v>28.93</v>
       </c>
       <c r="E77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>655.2645</v>
       </c>
       <c r="F77">
         <v>3697</v>
       </c>
       <c r="G77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.6419964762321166</v>
       </c>
     </row>
@@ -2095,18 +2120,18 @@
         <v>32.83</v>
       </c>
       <c r="E78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>739.65989999999999</v>
       </c>
       <c r="F78">
         <v>3982</v>
       </c>
       <c r="G78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.3835553340122937</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>17</v>
       </c>
@@ -2120,14 +2145,14 @@
         <v>45</v>
       </c>
       <c r="E79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>666</v>
       </c>
       <c r="F79">
         <v>2950</v>
       </c>
       <c r="G79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.4294294294294296</v>
       </c>
     </row>
@@ -2141,31 +2166,31 @@
         <v>57.3</v>
       </c>
       <c r="E80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>829.13099999999997</v>
       </c>
       <c r="F80">
         <v>3680</v>
       </c>
       <c r="G80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.4383818721046495</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B46:B56"/>
+    <mergeCell ref="B57:B67"/>
+    <mergeCell ref="B68:B78"/>
+    <mergeCell ref="A46:A78"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="B13:B23"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="A24:A45"/>
     <mergeCell ref="B24:B34"/>
     <mergeCell ref="B35:B45"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B46:B56"/>
-    <mergeCell ref="B57:B67"/>
-    <mergeCell ref="B68:B78"/>
-    <mergeCell ref="A46:A78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2176,7 +2201,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2303,4 +2328,1044 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC55B06D-1837-44EB-A9AC-10712F976789}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>IF(6.9-(0.350317*A2*A2-0.202576*A2)/9.8&gt;0, 6.9-(0.350317*A2*A2-0.202576*A2)/9.8, 0)</f>
+        <v>6.8849243877551025</v>
+      </c>
+      <c r="C2">
+        <f>(0.0350823*A2*A2+0.00372739*A2)/9.8</f>
+        <v>3.960172448979591E-3</v>
+      </c>
+      <c r="D2">
+        <f>SQRT(C2*C2+B2*B2)</f>
+        <v>6.8849255266902336</v>
+      </c>
+      <c r="E2">
+        <f>D2/4</f>
+        <v>1.7212313816725584</v>
+      </c>
+      <c r="F2">
+        <f>1000000*0.0000373344395*E2*E2+ 1000*0.109504955*E2</f>
+        <v>299.09177435095376</v>
+      </c>
+      <c r="G2">
+        <f>F2*4</f>
+        <v>1196.367097403815</v>
+      </c>
+      <c r="H2">
+        <f>F2/A2</f>
+        <v>299.09177435095376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B22" si="0">IF(6.9-(0.350317*A3*A3-0.202576*A3)/9.8&gt;0, 6.9-(0.350317*A3*A3-0.202576*A3)/9.8, 0)</f>
+        <v>6.7983555102040816</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C22" si="1">(0.0350823*A3*A3+0.00372739*A3)/9.8</f>
+        <v>1.5079997959183671E-2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D31" si="2">SQRT(C3*C3+B3*B3)</f>
+        <v>6.7983722352825486</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E31" si="3">D3/4</f>
+        <v>1.6995930588206372</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F31" si="4">1000000*0.0000373344395*E3*E3+ 1000*0.109504955*E3</f>
+        <v>293.95874183123203</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G31" si="5">F3*4</f>
+        <v>1175.8349673249281</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H31" si="6">F3/A3</f>
+        <v>146.97937091561602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>6.6402933673469393</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>3.3359476530612241E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>6.6403771624137553</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>1.6600942906034388</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="4"/>
+        <v>284.6790197586904</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="5"/>
+        <v>1138.7160790347616</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="6"/>
+        <v>94.893006586230129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>6.410737959183674</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>5.8798608163265292E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>6.4110076008097501</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>1.6027519002024375</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="4"/>
+        <v>271.41449264502978</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="5"/>
+        <v>1085.6579705801191</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="6"/>
+        <v>67.853623161257445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>6.1096892857142864</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>9.1397392857142851E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>6.1103728733517588</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>1.5275932183379397</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>254.40047343763285</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="5"/>
+        <v>1017.6018937505314</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="6"/>
+        <v>50.880094687526572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>5.7371473469387757</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.13115583061224487</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>5.7386463153247407</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>1.4346615788311852</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>233.94630531084411</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>935.78522124337644</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="6"/>
+        <v>38.991050885140687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>5.2931121428571437</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.1780739214285714</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>5.2961067283764862</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>1.3240266820941216</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>210.43649651945179</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="5"/>
+        <v>841.74598607780717</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="6"/>
+        <v>30.062356645635969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>4.7775836734693886</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.23215166530612241</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>4.7832206882712054</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>1.1958051720678013</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>184.33297367540058</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>737.33189470160232</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="6"/>
+        <v>23.041621709425073</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>4.1905619387755113</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.29338906224489791</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>4.2008197419740485</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>1.0502049354935121</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>156.17993273748374</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>624.71973094993496</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="6"/>
+        <v>17.353325859720414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>3.5320469387755105</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.36178611224489798</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>3.5505273930399035</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>0.88763184825997588</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>126.61552826528921</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>506.46211306115686</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="6"/>
+        <v>12.661552826528922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2.8020386734693883</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.43734281530612235</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>2.8359635868110109</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>0.70899089670275273</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>96.404847693540518</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>385.61939077416207</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="6"/>
+        <v>8.7640770630491378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2.0005371428571435</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.52005917142857139</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>2.0670293664430592</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>0.51675734161076481</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>66.557209098428785</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>266.22883639371514</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>5.5464340915357324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1.1275423469387755</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.60993518061224483</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>1.2819409770690278</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>0.32048524426725694</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>38.929372093844449</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>155.7174883753778</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>2.9945670841418806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.18305428571428628</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.70697084285714262</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>0.73028531696077947</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>0.18257132924019487</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>21.23690756686598</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>84.947630267463921</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>1.5169219690618558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.81116615816326509</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>0.81116615816326509</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>0.20279153954081627</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>23.74203515326284</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>94.968140613051361</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>1.582802343550856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.92252112653061213</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>0.92252112653061213</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>0.23063028163265303</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>27.24098964994322</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>108.96395859977288</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>1.7025618531214513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>1.0410357479591834</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>1.0410357479591834</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>0.26025893698979585</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>31.028480775866065</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>124.11392310346426</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>1.8252047515215333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>1.1667100224489795</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>1.1667100224489795</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>0.29167750561224487</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>35.116388213019121</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>140.46555285207648</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>1.95091045627884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>1.2995439499999999</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>1.2995439499999999</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>0.32488598749999997</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>39.517309313501073</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>158.06923725400429</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>2.079858384921109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>1.4395375306122449</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>1.4395375306122449</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>0.35988438265306122</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>44.244559099521553</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>176.97823639808621</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>2.2122279549760777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>1.586690764285714</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>1.586690764285714</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>0.3966726910714285</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>49.31217026340115</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>197.2486810536046</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>2.3481985839714832</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f>IF(6.9-(0.350317*A23*A23-0.202576*A23)/9.8&gt;0, 6.9-(0.350317*A23*A23-0.202576*A23)/9.8, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f>(0.0350823*A23*A23+0.00372739*A23)/9.8</f>
+        <v>1.7410036510204079</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>1.7410036510204079</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>0.43525091275510197</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>54.7348931675714</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>218.9395726702856</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>2.4879496894350637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f>IF(6.9-(0.350317*A24*A24-0.202576*A24)/9.8&gt;0, 6.9-(0.350317*A24*A24-0.202576*A24)/9.8, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f>(0.0350823*A24*A24+0.00372739*A24)/9.8</f>
+        <v>1.9024761908163261</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>1.9024761908163261</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0.47561904770408153</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>60.528195844574803</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>242.11278337829921</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>2.6316606888945566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f>IF(6.9-(0.350317*A25*A25-0.202576*A25)/9.8&gt;0, 6.9-(0.350317*A25*A25-0.202576*A25)/9.8, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f>(0.0350823*A25*A25+0.00372739*A25)/9.8</f>
+        <v>2.0711083836734692</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>2.0711083836734692</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>0.51777709591836729</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>66.708263997064805</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>266.83305598825922</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>2.7795109998777003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:B31" si="7">IF(6.9-(0.350317*A26*A26-0.202576*A26)/9.8&gt;0, 6.9-(0.350317*A26*A26-0.202576*A26)/9.8, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:C31" si="8">(0.0350823*A26*A26+0.00372739*A26)/9.8</f>
+        <v>2.2469002295918363</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>2.2469002295918363</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>0.56172505739795908</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>73.292000997805772</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>293.16800399122309</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>2.9316800399122309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="8"/>
+        <v>2.4298517285714283</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>2.4298517285714283</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>0.60746293214285707</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>80.29702788967306</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>321.18811155869224</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>3.0883472265258871</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="8"/>
+        <v>2.6199628806122446</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>2.6199628806122446</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>0.65499072015306115</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>87.741683385652948</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>350.96673354261179</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>3.2496919772464055</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="8"/>
+        <v>2.8172336857142848</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>2.8172336857142848</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>0.7043084214285712</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>95.645023868842657</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>382.58009547537063</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>3.4158937096015234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="8"/>
+        <v>3.0216641438775502</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>3.0216641438775502</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>0.75541603596938756</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>104.02682339245044</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>416.10729356980175</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>3.5871318411189805</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="8"/>
+        <v>3.23325425510204</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>3.23325425510204</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>0.80831356377551</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>112.90757367979539</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>451.63029471918156</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>3.763585789326513</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Power & Propulsion System/Power Consumption.xlsx
+++ b/Power & Propulsion System/Power Consumption.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Videos\UAS_Challenge\Power &amp; Propulsion System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244BC670-9B55-4402-89F9-DE6F0545D541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5BFEEE-8790-4938-A3B6-CA1784A9E3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power &amp; Thrust Data" sheetId="3" r:id="rId1"/>
     <sheet name="Drag &amp; Lift Data" sheetId="2" r:id="rId2"/>
     <sheet name="Cruise Speed (Loaded)" sheetId="4" r:id="rId3"/>
+    <sheet name="Cruise Speed (Empty)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Propeller</t>
   </si>
@@ -2179,18 +2180,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A24:A45"/>
+    <mergeCell ref="B24:B34"/>
+    <mergeCell ref="B35:B45"/>
     <mergeCell ref="A79:A80"/>
     <mergeCell ref="B79:B80"/>
     <mergeCell ref="B46:B56"/>
     <mergeCell ref="B57:B67"/>
     <mergeCell ref="B68:B78"/>
     <mergeCell ref="A46:A78"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="A24:A45"/>
-    <mergeCell ref="B24:B34"/>
-    <mergeCell ref="B35:B45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2334,7 +2335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC55B06D-1837-44EB-A9AC-10712F976789}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3368,4 +3369,1043 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB64D9D4-5BCC-49AE-83E3-4307C103F2F6}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="6" width="18.54296875" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>IF(3.5-(0.350317*A2*A2-0.202576*A2)/9.8&gt;0, 3.5-(0.350317*A2*A2-0.202576*A2)/9.8, 0)</f>
+        <v>3.4849243877551022</v>
+      </c>
+      <c r="C2">
+        <f>(0.0350823*A2*A2+0.00372739*A2)/9.8</f>
+        <v>3.960172448979591E-3</v>
+      </c>
+      <c r="D2">
+        <f>SQRT(C2*C2+B2*B2)</f>
+        <v>3.4849266378700281</v>
+      </c>
+      <c r="E2">
+        <f>D2/4</f>
+        <v>0.87123165946750702</v>
+      </c>
+      <c r="F2">
+        <f>1000000*0.0000373344395*E2*E2+ 1000*0.109504955*E2</f>
+        <v>123.74268852752219</v>
+      </c>
+      <c r="G2">
+        <f>F2*4</f>
+        <v>494.97075411008876</v>
+      </c>
+      <c r="H2">
+        <f>F2/A2</f>
+        <v>123.74268852752219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B31" si="0">IF(3.5-(0.350317*A3*A3-0.202576*A3)/9.8&gt;0, 3.5-(0.350317*A3*A3-0.202576*A3)/9.8, 0)</f>
+        <v>3.3983555102040817</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C22" si="1">(0.0350823*A3*A3+0.00372739*A3)/9.8</f>
+        <v>1.5079997959183671E-2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D31" si="2">SQRT(C3*C3+B3*B3)</f>
+        <v>3.398388968330861</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E31" si="3">D3/4</f>
+        <v>0.84959724208271525</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F31" si="4">1000000*0.0000373344395*E3*E3+ 1000*0.109504955*E3</f>
+        <v>119.98368389744513</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G31" si="5">F3*4</f>
+        <v>479.93473558978053</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H31" si="6">F3/A3</f>
+        <v>59.991841948722566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>3.240293367346939</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>3.3359476530612241E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>3.2404650840808271</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>0.81011627102020678</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="4"/>
+        <v>113.21390434316658</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="5"/>
+        <v>452.8556173726663</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="6"/>
+        <v>37.737968114388856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>3.0107379591836736</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>5.8798608163265292E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>3.0113120620738409</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>0.75282801551846024</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="4"/>
+        <v>103.59769233084975</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="5"/>
+        <v>414.39076932339901</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="6"/>
+        <v>25.899423082712438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2.709689285714286</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>9.1397392857142851E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>2.7112302573805644</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>0.67780756434514111</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>91.375590550704132</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="5"/>
+        <v>365.50236220281653</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="6"/>
+        <v>18.275118110140827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2.3371473469387753</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.13115583061224487</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>2.3408245498555726</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>0.58520613746389316</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>76.8687562442434</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>307.4750249769736</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="6"/>
+        <v>12.811459374040567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.8931121428571429</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.1780739214285714</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>1.9014688813983027</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>0.47536722034957568</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>60.49167848724953</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="5"/>
+        <v>241.96671394899812</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="6"/>
+        <v>8.6416683553213609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.3775836734693883</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.23215166530612241</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>1.3970079359523409</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>0.34925198398808521</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>42.798763787709234</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>171.19505515083694</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="6"/>
+        <v>5.3498454734636542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.79056193877551051</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.29338906224489791</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>0.84324689201053948</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>0.21081172300263487</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>24.744129816072579</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>98.976519264290317</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="6"/>
+        <v>2.7493477573413978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.1320469387755101</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.36178611224489798</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>0.38513060778554231</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>9.6282651946385578E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>10.889530755011682</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>43.558123020046729</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="6"/>
+        <v>1.0889530755011683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.43734281530612235</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0.43734281530612235</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>0.10933570382653059</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>12.419108273094528</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>49.676433092378112</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="6"/>
+        <v>1.1290098430085935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.52005917142857139</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0.52005917142857139</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>0.13001479285714285</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>14.8683596704634</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>59.473438681853601</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>1.2390299725386167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.60993518061224483</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>0.60993518061224483</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>0.15248379515306121</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>17.565805670233296</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>70.263222680933183</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>1.3512158207871765</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.70697084285714262</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>0.70697084285714262</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>0.17674271071428566</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>20.520455273948137</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>82.081821095792549</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>1.4657468052820097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.81116615816326509</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>0.81116615816326509</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>0.20279153954081627</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>23.74203515326284</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>94.968140613051361</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>1.582802343550856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.92252112653061213</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>0.92252112653061213</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>0.23063028163265303</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>27.24098964994322</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>108.96395859977288</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>1.7025618531214513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>1.0410357479591834</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>1.0410357479591834</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>0.26025893698979585</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>31.028480775866065</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>124.11392310346426</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>1.8252047515215333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>1.1667100224489795</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>1.1667100224489795</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>0.29167750561224487</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>35.116388213019121</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>140.46555285207648</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>1.95091045627884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>1.2995439499999999</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>1.2995439499999999</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>0.32488598749999997</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>39.517309313501073</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>158.06923725400429</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>2.079858384921109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>1.4395375306122449</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>1.4395375306122449</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>0.35988438265306122</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>44.244559099521553</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>176.97823639808621</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>2.2122279549760777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>1.586690764285714</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>1.586690764285714</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>0.3966726910714285</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>49.31217026340115</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>197.2486810536046</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>2.3481985839714832</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f>(0.0350823*A23*A23+0.00372739*A23)/9.8</f>
+        <v>1.7410036510204079</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>1.7410036510204079</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>0.43525091275510197</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>54.7348931675714</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>218.9395726702856</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>2.4879496894350637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f>(0.0350823*A24*A24+0.00372739*A24)/9.8</f>
+        <v>1.9024761908163261</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>1.9024761908163261</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0.47561904770408153</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>60.528195844574803</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>242.11278337829921</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>2.6316606888945566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f>(0.0350823*A25*A25+0.00372739*A25)/9.8</f>
+        <v>2.0711083836734692</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>2.0711083836734692</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>0.51777709591836729</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>66.708263997064805</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>266.83305598825922</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>2.7795109998777003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:C31" si="7">(0.0350823*A26*A26+0.00372739*A26)/9.8</f>
+        <v>2.2469002295918363</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>2.2469002295918363</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>0.56172505739795908</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>73.292000997805772</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>293.16800399122309</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>2.9316800399122309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="7"/>
+        <v>2.4298517285714283</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>2.4298517285714283</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>0.60746293214285707</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>80.29702788967306</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>321.18811155869224</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>3.0883472265258871</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="7"/>
+        <v>2.6199628806122446</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>2.6199628806122446</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>0.65499072015306115</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>87.741683385652948</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>350.96673354261179</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>3.2496919772464055</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="7"/>
+        <v>2.8172336857142848</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>2.8172336857142848</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>0.7043084214285712</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>95.645023868842657</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>382.58009547537063</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>3.4158937096015234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="7"/>
+        <v>3.0216641438775502</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>3.0216641438775502</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>0.75541603596938756</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>104.02682339245044</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>416.10729356980175</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>3.5871318411189805</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="7"/>
+        <v>3.23325425510204</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>3.23325425510204</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>0.80831356377551</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>112.90757367979539</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>451.63029471918156</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>3.763585789326513</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Power & Propulsion System/Power Consumption.xlsx
+++ b/Power & Propulsion System/Power Consumption.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Videos\UAS_Challenge\Power &amp; Propulsion System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5BFEEE-8790-4938-A3B6-CA1784A9E3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3717961D-DEBA-44ED-A83C-DE9DBB173B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power &amp; Thrust Data" sheetId="3" r:id="rId1"/>
     <sheet name="Drag &amp; Lift Data" sheetId="2" r:id="rId2"/>
     <sheet name="Cruise Speed (Loaded)" sheetId="4" r:id="rId3"/>
     <sheet name="Cruise Speed (Empty)" sheetId="5" r:id="rId4"/>
+    <sheet name="Flight Data" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Propeller</t>
   </si>
@@ -127,6 +128,42 @@
   </si>
   <si>
     <t>Cruise Efficiency</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Time (s)</t>
+  </si>
+  <si>
+    <t>Average Vertical Thrust (kgf)</t>
+  </si>
+  <si>
+    <t>Average Horizontal Thrust (kgf)</t>
+  </si>
+  <si>
+    <t>Average Total Thrust (kgf)</t>
+  </si>
+  <si>
+    <t>Average Power Consumed (W)</t>
+  </si>
+  <si>
+    <t>Total Energy Consumed (Wh)</t>
+  </si>
+  <si>
+    <t>Take-off</t>
+  </si>
+  <si>
+    <t>Cruise to SZ</t>
+  </si>
+  <si>
+    <t>Spray Zone</t>
+  </si>
+  <si>
+    <t>Cruise to Landing</t>
+  </si>
+  <si>
+    <t>Landing</t>
   </si>
 </sst>
 </file>
@@ -2180,18 +2217,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B46:B56"/>
+    <mergeCell ref="B57:B67"/>
+    <mergeCell ref="B68:B78"/>
+    <mergeCell ref="A46:A78"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="B13:B23"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="A24:A45"/>
     <mergeCell ref="B24:B34"/>
     <mergeCell ref="B35:B45"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B46:B56"/>
-    <mergeCell ref="B57:B67"/>
-    <mergeCell ref="B68:B78"/>
-    <mergeCell ref="A46:A78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3375,7 +3412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB64D9D4-5BCC-49AE-83E3-4307C103F2F6}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -4408,4 +4445,140 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893ADDC9-523C-47B1-8967-17603EEDB938}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.90625" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2">
+        <f>SQRT(D2*D2+C2*C2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>B2*F2/3600</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>134</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3.23</v>
+      </c>
+      <c r="E3">
+        <f>SQRT(D3*D3+C3*C3)</f>
+        <v>3.23</v>
+      </c>
+      <c r="F3">
+        <v>451</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="0">B3*F3/3600</f>
+        <v>16.787222222222223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E6" si="1">SQRT(D4*D4+C4*C4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3.23</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>3.23</v>
+      </c>
+      <c r="F5">
+        <v>451</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2.1297222222222221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Power & Propulsion System/Power Consumption.xlsx
+++ b/Power & Propulsion System/Power Consumption.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Videos\UAS_Challenge\Power &amp; Propulsion System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E7E8E4-9FF2-4DDA-A1B0-195BC0F99F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3B06D6-868D-4BBD-BDC8-3E2E7F07DBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="806" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2478,18 +2478,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B46:B56"/>
+    <mergeCell ref="B57:B67"/>
+    <mergeCell ref="B68:B78"/>
+    <mergeCell ref="A46:A78"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="B13:B23"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="A24:A45"/>
     <mergeCell ref="B24:B34"/>
     <mergeCell ref="B35:B45"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B46:B56"/>
-    <mergeCell ref="B57:B67"/>
-    <mergeCell ref="B68:B78"/>
-    <mergeCell ref="A46:A78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2634,8 +2634,8 @@
   <dimension ref="A1:K306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B2">
         <f>IF($K$4-(0.350317*A2*A2-0.202576*A2)/9.8&gt;0, $K$4-(0.350317*A2*A2-0.202576*A2)/9.8, 0)</f>
-        <v>4</v>
+        <v>6.9</v>
       </c>
       <c r="C2">
         <f>(0.0350823*A2*A2+0.00372739*A2)/9.8</f>
@@ -2689,19 +2689,19 @@
       </c>
       <c r="D2">
         <f>SQRT(C2*C2+B2*B2)</f>
-        <v>4</v>
+        <v>6.9</v>
       </c>
       <c r="E2">
         <f>D2/4</f>
-        <v>1</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="F2">
         <f>1000000*0.0000373344395*E2*E2+ 1000*0.109504955*E2</f>
-        <v>146.8393945</v>
+        <v>299.98933891218752</v>
       </c>
       <c r="G2">
         <f>F2*4</f>
-        <v>587.35757799999999</v>
+        <v>1199.9573556487501</v>
       </c>
       <c r="H2" t="e">
         <f>F2/A2</f>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" si="0">IF($K$4-(0.350317*A3*A3-0.202576*A3)/9.8&gt;0, $K$4-(0.350317*A3*A3-0.202576*A3)/9.8, 0)</f>
-        <v>4.0017096357142856</v>
+        <v>6.901709635714286</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="1">(0.0350823*A3*A3+0.00372739*A3)/9.8</f>
@@ -2722,23 +2722,23 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" si="2">SQRT(C3*C3+B3*B3)</f>
-        <v>4.0017096363954057</v>
+        <v>6.9017096361092092</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="3">D3/4</f>
-        <v>1.0004274090988514</v>
+        <v>1.7254274090273023</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="4">1000000*0.0000373344395*E3*E3+ 1000*0.109504955*E3</f>
-        <v>146.91811889262277</v>
+        <v>300.09120105251429</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="5">F3*4</f>
-        <v>587.67247557049109</v>
+        <v>1200.3648042100572</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" si="6">F3/A3</f>
-        <v>1469.1811889262276</v>
+        <v>3000.9120105251427</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>4.0027043387755104</v>
+        <v>6.9027043387755107</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
@@ -2755,29 +2755,29 @@
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>4.0027043447809412</v>
+        <v>6.9027043422579091</v>
       </c>
       <c r="E4">
         <f t="shared" si="3"/>
-        <v>1.0006760861952353</v>
+        <v>1.7256760855644773</v>
       </c>
       <c r="F4">
         <f t="shared" si="4"/>
-        <v>146.96392895198485</v>
+        <v>300.15047309759689</v>
       </c>
       <c r="G4">
         <f t="shared" si="5"/>
-        <v>587.85571580793942</v>
+        <v>1200.6018923903875</v>
       </c>
       <c r="H4">
         <f t="shared" si="6"/>
-        <v>734.81964475992424</v>
+        <v>1500.7523654879844</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>4.0029841091836733</v>
+        <v>6.9029841091836737</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
@@ -2794,23 +2794,23 @@
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>4.0029841329593561</v>
+        <v>6.9029841229709978</v>
       </c>
       <c r="E5">
         <f t="shared" si="3"/>
-        <v>1.000746033239839</v>
+        <v>1.7257460307427495</v>
       </c>
       <c r="F5">
         <f t="shared" si="4"/>
-        <v>146.97681508113712</v>
+        <v>300.16714536075091</v>
       </c>
       <c r="G5">
         <f t="shared" si="5"/>
-        <v>587.90726032454847</v>
+        <v>1200.6685814430036</v>
       </c>
       <c r="H5">
         <f t="shared" si="6"/>
-        <v>489.92271693712377</v>
+        <v>1000.5571512025031</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>4.0025489469387754</v>
+        <v>6.9025489469387757</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -2827,23 +2827,23 @@
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>4.0025490125838674</v>
+        <v>6.9025489850040902</v>
       </c>
       <c r="E6">
         <f t="shared" si="3"/>
-        <v>1.0006372531459669</v>
+        <v>1.7256372462510225</v>
       </c>
       <c r="F6">
         <f t="shared" si="4"/>
-        <v>146.9567750163225</v>
+        <v>300.14121544414138</v>
       </c>
       <c r="G6">
         <f t="shared" si="5"/>
-        <v>587.82710006528998</v>
+        <v>1200.5648617765655</v>
       </c>
       <c r="H6">
         <f t="shared" si="6"/>
-        <v>367.39193754080623</v>
+        <v>750.35303861035345</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>4.0013988520408166</v>
+        <v>6.9013988520408169</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -2860,23 +2860,23 @@
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>4.0013989991776366</v>
+        <v>6.9013989373500593</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>1.0003497497944092</v>
+        <v>1.7253497343375148</v>
       </c>
       <c r="F7">
         <f t="shared" si="4"/>
-        <v>146.90381382750931</v>
+        <v>300.07268823896192</v>
       </c>
       <c r="G7">
         <f t="shared" si="5"/>
-        <v>587.61525531003724</v>
+        <v>1200.2907529558477</v>
       </c>
       <c r="H7">
         <f t="shared" si="6"/>
-        <v>293.80762765501862</v>
+        <v>600.14537647792383</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>3.999533824489796</v>
+        <v>6.8995338244897964</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -2893,23 +2893,23 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>3.9995341121636176</v>
+        <v>6.8995339912490641</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>0.99988352804090441</v>
+        <v>1.724883497812266</v>
       </c>
       <c r="F8">
         <f t="shared" si="4"/>
-        <v>146.81794391920832</v>
+        <v>299.9615759257091</v>
       </c>
       <c r="G8">
         <f t="shared" si="5"/>
-        <v>587.27177567683327</v>
+        <v>1199.8463037028364</v>
       </c>
       <c r="H8">
         <f t="shared" si="6"/>
-        <v>244.69657319868054</v>
+        <v>499.93595987618187</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>3.9969538642857141</v>
+        <v>6.8969538642857149</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -2926,23 +2926,23 @@
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>3.9969543749049081</v>
+        <v>6.8969541602020703</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>0.99923859372622703</v>
+        <v>1.7242385400505176</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>146.69918503157737</v>
+        <v>299.80789797455276</v>
       </c>
       <c r="G9">
         <f t="shared" si="5"/>
-        <v>586.79674012630949</v>
+        <v>1199.231591898211</v>
       </c>
       <c r="H9">
         <f t="shared" si="6"/>
-        <v>209.57026433082484</v>
+        <v>428.29699710650397</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>3.9936589714285713</v>
+        <v>6.8936589714285716</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -2959,23 +2959,23 @@
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>3.9936598147557718</v>
+        <v>6.8936594599879113</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>0.99841495368894295</v>
+        <v>1.7234148649969778</v>
       </c>
       <c r="F10">
         <f t="shared" si="4"/>
-        <v>146.54756424181832</v>
+        <v>299.61168114580283</v>
       </c>
       <c r="G10">
         <f t="shared" si="5"/>
-        <v>586.19025696727329</v>
+        <v>1198.4467245832113</v>
       </c>
       <c r="H10">
         <f t="shared" si="6"/>
-        <v>183.18445530227288</v>
+        <v>374.51460143225353</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>3.9896491459183672</v>
+        <v>6.8896491459183675</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -2992,23 +2992,23 @@
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>3.9896504631235468</v>
+        <v>6.8896499086839285</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>0.99741261578088669</v>
+        <v>1.7224124771709821</v>
       </c>
       <c r="F11">
         <f t="shared" si="4"/>
-        <v>146.36311596587171</v>
+        <v>299.3729594904749</v>
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
-        <v>585.45246386348686</v>
+        <v>1197.4918379618996</v>
       </c>
       <c r="H11">
         <f t="shared" si="6"/>
-        <v>162.62568440652413</v>
+        <v>332.63662165608321</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>3.9849243877551022</v>
+        <v>6.8849243877551025</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -3025,23 +3025,23 @@
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>3.9849263555417433</v>
+        <v>6.8849255266902336</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>0.99623158888543584</v>
+        <v>1.7212313816725584</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>146.14588196041802</v>
+        <v>299.09177435095376</v>
       </c>
       <c r="G12">
         <f t="shared" si="5"/>
-        <v>584.58352784167209</v>
+        <v>1196.367097403815</v>
       </c>
       <c r="H12">
         <f t="shared" si="6"/>
-        <v>146.14588196041802</v>
+        <v>299.09177435095376</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>3.9794846969387754</v>
+        <v>6.8794846969387757</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -3058,23 +3058,23 @@
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>3.9794875317546499</v>
+        <v>6.8794863367576813</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>0.99487188293866247</v>
+        <v>1.7198715841894203</v>
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
-        <v>145.89591132519371</v>
+        <v>298.76817436175963</v>
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
-        <v>583.58364530077483</v>
+        <v>1195.0726974470385</v>
       </c>
       <c r="H13">
         <f t="shared" si="6"/>
-        <v>132.63264665926701</v>
+        <v>271.60743123796328</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>3.9733300734693877</v>
+        <v>6.8733300734693881</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -3091,23 +3091,23 @@
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>3.9733340358138589</v>
+        <v>6.8733323640196025</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
-        <v>0.99333350895346473</v>
+        <v>1.7183330910049006</v>
       </c>
       <c r="F14">
         <f t="shared" si="4"/>
-        <v>145.61326050563389</v>
+        <v>298.4022154504168</v>
       </c>
       <c r="G14">
         <f t="shared" si="5"/>
-        <v>582.45304202253556</v>
+        <v>1193.6088618016672</v>
       </c>
       <c r="H14">
         <f t="shared" si="6"/>
-        <v>121.34438375469492</v>
+        <v>248.66851287534735</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>3.9664605173469387</v>
+        <v>6.8664605173469395</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -3124,23 +3124,23 @@
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>3.9664659161871723</v>
+        <v>6.8664636360274134</v>
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
-        <v>0.99161647904679306</v>
+        <v>1.7166159090068533</v>
       </c>
       <c r="F15">
         <f t="shared" si="4"/>
-        <v>145.29799329585376</v>
+        <v>297.99396083842851</v>
       </c>
       <c r="G15">
         <f t="shared" si="5"/>
-        <v>581.19197318341503</v>
+        <v>1191.975843353714</v>
       </c>
       <c r="H15">
         <f t="shared" si="6"/>
-        <v>111.76768715065673</v>
+        <v>229.22612372186808</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>3.9588760285714284</v>
+        <v>6.8588760285714292</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -3157,23 +3157,23 @@
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>3.9588832258804141</v>
+        <v>6.8588801827901626</v>
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>0.98972080647010352</v>
+        <v>1.7147200456975407</v>
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>144.95018084198321</v>
+        <v>297.5434810423593</v>
       </c>
       <c r="G16">
         <f t="shared" si="5"/>
-        <v>579.80072336793285</v>
+        <v>1190.1739241694372</v>
       </c>
       <c r="H16">
         <f t="shared" si="6"/>
-        <v>103.53584345855944</v>
+        <v>212.53105788739953</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>3.9505766071428572</v>
+        <v>6.8505766071428571</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -3190,23 +3190,23 @@
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>3.9505860225727578</v>
+        <v>6.8505820368181718</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>0.98764650564318945</v>
+        <v>1.7126455092045429</v>
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>144.56990164587171</v>
+        <v>297.05085387503027</v>
       </c>
       <c r="G17">
         <f t="shared" si="5"/>
-        <v>578.27960658348684</v>
+        <v>1188.2034155001211</v>
       </c>
       <c r="H17">
         <f t="shared" si="6"/>
-        <v>96.379934430581145</v>
+        <v>198.03390258335352</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -3215,7 +3215,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>3.9415622530612247</v>
+        <v>6.841562253061225</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -3223,23 +3223,23 @@
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>3.9415743687662395</v>
+        <v>6.8415692331708575</v>
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
-        <v>0.98539359219155986</v>
+        <v>1.7103923082927144</v>
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>144.15724156918137</v>
+        <v>296.51616444682782</v>
       </c>
       <c r="G18">
         <f t="shared" si="5"/>
-        <v>576.62896627672546</v>
+        <v>1186.0646577873113</v>
       </c>
       <c r="H18">
         <f t="shared" si="6"/>
-        <v>90.09827598073835</v>
+        <v>185.32260277926738</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>3.9318329663265308</v>
+        <v>6.8318329663265311</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -3256,23 +3256,23 @@
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>3.9318483319502224</v>
+        <v>6.8318418095088846</v>
       </c>
       <c r="E19">
         <f t="shared" si="3"/>
-        <v>0.98296208298755561</v>
+        <v>1.7079604523772212</v>
       </c>
       <c r="F19">
         <f t="shared" si="4"/>
-        <v>143.71229383788932</v>
+        <v>295.93950516713153</v>
       </c>
       <c r="G19">
         <f t="shared" si="5"/>
-        <v>574.84917535155728</v>
+        <v>1183.7580206685261</v>
       </c>
       <c r="H19">
         <f t="shared" si="6"/>
-        <v>84.53664343405255</v>
+        <v>174.08206186301854</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>3.9213887469387756</v>
+        <v>6.8213887469387755</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -3289,23 +3289,23 @@
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>3.9214079847816561</v>
+        <v>6.8213998061508043</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
-        <v>0.98035199619541402</v>
+        <v>1.7053499515377011</v>
       </c>
       <c r="F20">
         <f t="shared" si="4"/>
-        <v>143.23515904722274</v>
+        <v>295.32097574586476</v>
       </c>
       <c r="G20">
         <f t="shared" si="5"/>
-        <v>572.94063618889095</v>
+        <v>1181.283902983459</v>
       </c>
       <c r="H20">
         <f t="shared" si="6"/>
-        <v>79.575088359568184</v>
+        <v>164.06720874770264</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>3.9102295948979591</v>
+        <v>6.8102295948979599</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -3322,23 +3322,23 @@
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>3.910253405282079</v>
+        <v>6.8102432661343499</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
-        <v>0.97756335132051975</v>
+        <v>1.7025608165335875</v>
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
-        <v>142.72594516705166</v>
+        <v>294.66068319517262</v>
       </c>
       <c r="G21">
         <f t="shared" si="5"/>
-        <v>570.90378066820665</v>
+        <v>1178.6427327806905</v>
       </c>
       <c r="H21">
         <f t="shared" si="6"/>
-        <v>75.118918508974559</v>
+        <v>155.08457010272244</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>3.8983555102040817</v>
+        <v>6.7983555102040816</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -3355,23 +3355,23 @@
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>3.898384677052404</v>
+        <v>6.7983722352825486</v>
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>0.974596169263101</v>
+        <v>1.6995930588206372</v>
       </c>
       <c r="F22">
         <f t="shared" si="4"/>
-        <v>142.18476754776941</v>
+        <v>293.95874183123203</v>
       </c>
       <c r="G22">
         <f t="shared" si="5"/>
-        <v>568.73907019107764</v>
+        <v>1175.8349673249281</v>
       </c>
       <c r="H22">
         <f t="shared" si="6"/>
-        <v>71.092383773884706</v>
+        <v>146.97937091561602</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>3.8857664928571429</v>
+        <v>6.7857664928571433</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -3388,23 +3388,23 @@
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>3.8858018895066522</v>
+        <v>6.7857867622748724</v>
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
-        <v>0.97145047237666304</v>
+        <v>1.6964466905687181</v>
       </c>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>141.61174892669106</v>
+        <v>293.21527327619924</v>
       </c>
       <c r="G23">
         <f t="shared" si="5"/>
-        <v>566.44699570676426</v>
+        <v>1172.861093104797</v>
       </c>
       <c r="H23">
         <f t="shared" si="6"/>
-        <v>67.434166155567169</v>
+        <v>139.62632060771392</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>3.8724625428571429</v>
+        <v>6.7724625428571432</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -3421,23 +3421,23 @@
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>3.8725051381259186</v>
+        <v>6.7724868987236198</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>0.96812628453147964</v>
+        <v>1.6931217246809049</v>
       </c>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>141.00701943500621</v>
+        <v>292.4304064603013</v>
       </c>
       <c r="G24">
         <f t="shared" si="5"/>
-        <v>564.02807774002486</v>
+        <v>1169.7216258412052</v>
       </c>
       <c r="H24">
         <f t="shared" si="6"/>
-        <v>64.094099743184643</v>
+        <v>132.92291202740967</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>3.8584436602040819</v>
+        <v>6.7584436602040823</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -3454,23 +3454,23 @@
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>3.8584945247339841</v>
+        <v>6.7584726992557878</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>0.96462363118349603</v>
+        <v>1.6896181748139469</v>
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>140.37071660532408</v>
+        <v>291.60427762407699</v>
       </c>
       <c r="G25">
         <f t="shared" si="5"/>
-        <v>561.48286642129631</v>
+        <v>1166.4171104963079</v>
       </c>
       <c r="H25">
         <f t="shared" si="6"/>
-        <v>61.030746350140909</v>
+        <v>126.7844685322074</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>3.8437098448979592</v>
+        <v>6.7437098448979595</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -3487,23 +3487,23 @@
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>3.843770157796139</v>
+        <v>6.7437442216006627</v>
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>0.96094253944903474</v>
+        <v>1.6859360554001657</v>
       </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>139.70298537985431</v>
+        <v>290.73703032077492</v>
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
-        <v>558.81194151941725</v>
+        <v>1162.9481212830997</v>
       </c>
       <c r="H26">
         <f t="shared" si="6"/>
-        <v>58.209577241605963</v>
+        <v>121.14042930032289</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>3.8282610969387756</v>
+        <v>6.7282610969387759</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -3520,23 +3520,23 @@
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>3.8283321527429521</v>
+        <v>6.7283015266834161</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>0.95708303818573803</v>
+        <v>1.682075381670854</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>139.00397811927047</v>
+        <v>289.82881541891595</v>
       </c>
       <c r="G27">
         <f t="shared" si="5"/>
-        <v>556.01591247708188</v>
+        <v>1159.3152616756638</v>
       </c>
       <c r="H27">
         <f t="shared" si="6"/>
-        <v>55.601591247708186</v>
+        <v>115.93152616756637</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>3.8120974163265307</v>
+        <v>6.7120974163265306</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -3553,23 +3553,23 @@
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>3.8121806323208864</v>
+        <v>6.7121446787250019</v>
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
-        <v>0.95304515808022161</v>
+        <v>1.6780361696812505</v>
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>138.27385461230861</v>
+        <v>288.87979110502783</v>
       </c>
       <c r="G28">
         <f t="shared" si="5"/>
-        <v>553.09541844923444</v>
+        <v>1155.5191644201113</v>
       </c>
       <c r="H28">
         <f t="shared" si="6"/>
-        <v>53.18225177396485</v>
+        <v>111.10761196347224</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>3.7952188030612244</v>
+        <v>6.6952188030612252</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -3586,23 +3586,23 @@
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>3.7953157269718729</v>
+        <v>6.6952737453486657</v>
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>0.94882893174296823</v>
+        <v>1.6738184363371664</v>
       </c>
       <c r="F29">
         <f t="shared" si="4"/>
-        <v>137.51278208615855</v>
+        <v>287.89012288656102</v>
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>550.05112834463421</v>
+        <v>1151.5604915462441</v>
       </c>
       <c r="H29">
         <f t="shared" si="6"/>
-        <v>50.93066003191057</v>
+        <v>106.62597143946704</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>3.7776252571428572</v>
+        <v>6.6776252571428572</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -3619,23 +3619,23 @@
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>3.7777375752441653</v>
+        <v>6.6776887976934232</v>
       </c>
       <c r="E30">
         <f t="shared" si="3"/>
-        <v>0.94443439381104133</v>
+        <v>1.6694221994233558</v>
       </c>
       <c r="F30">
         <f t="shared" si="4"/>
-        <v>136.72093521771154</v>
+        <v>286.85998359499536</v>
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>546.88374087084617</v>
+        <v>1147.4399343799814</v>
       </c>
       <c r="H30">
         <f t="shared" si="6"/>
-        <v>48.828905434896981</v>
+        <v>102.44999414106978</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>3.7593167785714288</v>
+        <v>6.6593167785714291</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -3652,23 +3652,23 @@
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>3.7594463242370426</v>
+        <v>6.6593899105348759</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>0.93986158105926065</v>
+        <v>1.664847477633719</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>135.89849614573455</v>
+        <v>285.78955338914761</v>
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>543.59398458293822</v>
+        <v>1143.1582135565905</v>
       </c>
       <c r="H31">
         <f t="shared" si="6"/>
-        <v>46.861550395080883</v>
+        <v>98.548121858326766</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>3.740293367346939</v>
+        <v>6.6402933673469393</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -3685,23 +3685,23 @@
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
-        <v>3.7404421300822048</v>
+        <v>6.6403771624137553</v>
       </c>
       <c r="E32">
         <f t="shared" si="3"/>
-        <v>0.93511053252055121</v>
+        <v>1.6600942906034388</v>
       </c>
       <c r="F32">
         <f t="shared" si="4"/>
-        <v>135.04565448404912</v>
+        <v>284.6790197586904</v>
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>540.18261793619649</v>
+        <v>1138.7160790347616</v>
       </c>
       <c r="H32">
         <f t="shared" si="6"/>
-        <v>45.015218161349708</v>
+        <v>94.893006586230129</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>3.7205550234693878</v>
+        <v>6.6205550234693877</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -3718,23 +3718,23 @@
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
-        <v>3.7207251584649912</v>
+        <v>6.6206506357726491</v>
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
-        <v>0.9301812896162478</v>
+        <v>1.6551626589431623</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>134.16260733580026</v>
+        <v>283.52857752789527</v>
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>536.65042934320104</v>
+        <v>1134.1143101115811</v>
       </c>
       <c r="H33">
         <f t="shared" si="6"/>
-        <v>43.278260430903309</v>
+        <v>91.460831460611374</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>3.7001017469387754</v>
+        <v>6.6001017469387762</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -3751,23 +3751,23 @@
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
-        <v>3.7002955851889014</v>
+        <v>6.6002104171013656</v>
       </c>
       <c r="E34">
         <f t="shared" si="3"/>
-        <v>0.92507389629722536</v>
+        <v>1.6500526042753414</v>
       </c>
       <c r="F34">
         <f t="shared" si="4"/>
-        <v>133.24955930891099</v>
+        <v>282.33842885961235</v>
       </c>
       <c r="G34">
         <f t="shared" si="5"/>
-        <v>532.99823723564396</v>
+        <v>1129.3537154384494</v>
       </c>
       <c r="H34">
         <f t="shared" si="6"/>
-        <v>41.640487284034684</v>
+        <v>88.230759018628859</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>3.678933537755102</v>
+        <v>6.5789335377551028</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
@@ -3784,23 +3784,23 @@
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
-        <v>3.6791535967872644</v>
+        <v>6.5790565970914301</v>
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
-        <v>0.9197883991968161</v>
+        <v>1.6447641492728575</v>
       </c>
       <c r="F35">
         <f t="shared" si="4"/>
-        <v>132.30672253282748</v>
+        <v>281.10878325949972</v>
       </c>
       <c r="G35">
         <f t="shared" si="5"/>
-        <v>529.22689013130991</v>
+        <v>1124.4351330379989</v>
       </c>
       <c r="H35">
         <f t="shared" si="6"/>
-        <v>40.092946222068932</v>
+        <v>85.184479775605979</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>3.6570503959183673</v>
+        <v>6.5570503959183677</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -3817,23 +3817,23 @@
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
-        <v>3.6572993911863168</v>
+        <v>6.5571892708002819</v>
       </c>
       <c r="E36">
         <f t="shared" si="3"/>
-        <v>0.91432484779657919</v>
+        <v>1.6392973177000705</v>
       </c>
       <c r="F36">
         <f t="shared" si="4"/>
-        <v>131.3343166766717</v>
+        <v>279.83985758051853</v>
       </c>
       <c r="G36">
         <f t="shared" si="5"/>
-        <v>525.33726670668682</v>
+        <v>1119.3594303220741</v>
       </c>
       <c r="H36">
         <f t="shared" si="6"/>
-        <v>38.62774019902109</v>
+        <v>82.305840464858392</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>3.6344523214285713</v>
+        <v>6.5344523214285717</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -3850,23 +3850,23 @@
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
-        <v>3.634733178424431</v>
+        <v>6.5346085378257426</v>
       </c>
       <c r="E37">
         <f t="shared" si="3"/>
-        <v>0.90868329460610775</v>
+        <v>1.6336521344564356</v>
       </c>
       <c r="F37">
         <f t="shared" si="4"/>
-        <v>130.33256896893118</v>
+        <v>278.53187602770953</v>
       </c>
       <c r="G37">
         <f t="shared" si="5"/>
-        <v>521.33027587572474</v>
+        <v>1114.1275041108381</v>
       </c>
       <c r="H37">
         <f t="shared" si="6"/>
-        <v>37.237876848266055</v>
+        <v>79.580536007917004</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>3.6111393142857144</v>
+        <v>6.5111393142857148</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
@@ -3883,23 +3883,23 @@
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
-        <v>3.6114551814327425</v>
+        <v>6.5113145024913788</v>
       </c>
       <c r="E38">
         <f t="shared" si="3"/>
-        <v>0.90286379535818562</v>
+        <v>1.6278286256228447</v>
       </c>
       <c r="F38">
         <f t="shared" si="4"/>
-        <v>129.30171421882955</v>
+        <v>277.18507016326714</v>
       </c>
       <c r="G38">
         <f t="shared" si="5"/>
-        <v>517.20685687531818</v>
+        <v>1108.7402806530686</v>
       </c>
       <c r="H38">
         <f t="shared" si="6"/>
-        <v>35.917142838563763</v>
+        <v>76.995852823129766</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>3.5871113744897958</v>
+        <v>6.4871113744897961</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -3916,23 +3916,23 @@
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
-        <v>3.587465636883024</v>
+        <v>6.4873072740434718</v>
       </c>
       <c r="E39">
         <f t="shared" si="3"/>
-        <v>0.896866409220756</v>
+        <v>1.621826818510868</v>
       </c>
       <c r="F39">
         <f t="shared" si="4"/>
-        <v>128.24199483953828</v>
+        <v>275.79967891193212</v>
       </c>
       <c r="G39">
         <f t="shared" si="5"/>
-        <v>512.96797935815312</v>
+        <v>1103.1987156477285</v>
       </c>
       <c r="H39">
         <f t="shared" si="6"/>
-        <v>34.659998605280613</v>
+        <v>74.540453759981645</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>3.5623685020408162</v>
+        <v>6.4623685020408166</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
@@ -3949,23 +3949,23 @@
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
-        <v>3.5627647961093238</v>
+        <v>6.4625869668603029</v>
       </c>
       <c r="E40">
         <f t="shared" si="3"/>
-        <v>0.89069119902733096</v>
+        <v>1.6156467417150757</v>
       </c>
       <c r="F40">
         <f t="shared" si="4"/>
-        <v>127.1536608734076</v>
+        <v>274.37594856672098</v>
       </c>
       <c r="G40">
         <f t="shared" si="5"/>
-        <v>508.61464349363041</v>
+        <v>1097.5037942668839</v>
       </c>
       <c r="H40">
         <f t="shared" si="6"/>
-        <v>33.461489703528315</v>
+        <v>72.20419699124237</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>3.5369106969387754</v>
+        <v>6.4369106969387762</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
@@ -3982,23 +3982,23 @@
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
-        <v>3.5373529261106138</v>
+        <v>6.4371537006745632</v>
       </c>
       <c r="E41">
         <f t="shared" si="3"/>
-        <v>0.88433823152765345</v>
+        <v>1.6092884251686408</v>
       </c>
       <c r="F41">
         <f t="shared" si="4"/>
-        <v>126.03697001941519</v>
+        <v>272.91413279501455</v>
       </c>
       <c r="G41">
         <f t="shared" si="5"/>
-        <v>504.14788007766077</v>
+        <v>1091.6565311800582</v>
       </c>
       <c r="H41">
         <f t="shared" si="6"/>
-        <v>32.317171799850051</v>
+        <v>69.977982767952454</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>3.5107379591836736</v>
+        <v>6.410737959183674</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
@@ -4015,23 +4015,23 @@
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
-        <v>3.5112303106425649</v>
+        <v>6.4110076008097501</v>
       </c>
       <c r="E42">
         <f t="shared" si="3"/>
-        <v>0.87780757766064121</v>
+        <v>1.6027519002024375</v>
       </c>
       <c r="F42">
         <f t="shared" si="4"/>
-        <v>124.892187663055</v>
+        <v>271.41449264502978</v>
       </c>
       <c r="G42">
         <f t="shared" si="5"/>
-        <v>499.56875065221999</v>
+        <v>1085.6579705801191</v>
       </c>
       <c r="H42">
         <f t="shared" si="6"/>
-        <v>31.223046915763749</v>
+        <v>67.853623161257445</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>3.4838502887755105</v>
+        <v>6.3838502887755109</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
@@ -4048,23 +4048,23 @@
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
-        <v>3.4843972514074912</v>
+        <v>6.3841487984314753</v>
       </c>
       <c r="E43">
         <f t="shared" si="3"/>
-        <v>0.87109931285187281</v>
+        <v>1.5960371996078688</v>
       </c>
       <c r="F43">
         <f t="shared" si="4"/>
-        <v>123.71958690891331</v>
+        <v>269.87729655269948</v>
       </c>
       <c r="G43">
         <f t="shared" si="5"/>
-        <v>494.87834763565326</v>
+        <v>1079.5091862107979</v>
       </c>
       <c r="H43">
         <f t="shared" si="6"/>
-        <v>30.175509002173982</v>
+        <v>65.823730866512079</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>3.4562476857142856</v>
+        <v>6.356247685714286</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
@@ -4081,23 +4081,23 @@
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
-        <v>3.4568540693526217</v>
+        <v>6.3565774308146867</v>
       </c>
       <c r="E44">
         <f t="shared" si="3"/>
-        <v>0.86421351733815543</v>
+        <v>1.5891443577036717</v>
       </c>
       <c r="F44">
         <f t="shared" si="4"/>
-        <v>122.51944861621067</v>
+        <v>268.30282034898789</v>
       </c>
       <c r="G44">
         <f t="shared" si="5"/>
-        <v>490.07779446484267</v>
+        <v>1073.2112813959516</v>
       </c>
       <c r="H44">
         <f t="shared" si="6"/>
-        <v>29.171297289573968</v>
+        <v>63.881623892616162</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>3.4279301499999999</v>
+        <v>6.3279301500000003</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
@@ -4114,23 +4114,23 @@
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
-        <v>3.4286011060880517</v>
+        <v>6.3282936416279085</v>
       </c>
       <c r="E45">
         <f t="shared" si="3"/>
-        <v>0.85715027652201292</v>
+        <v>1.5820734104069771</v>
       </c>
       <c r="F45">
         <f t="shared" si="4"/>
-        <v>121.29206143761994</v>
+        <v>266.69134726767226</v>
       </c>
       <c r="G45">
         <f t="shared" si="5"/>
-        <v>485.16824575047974</v>
+        <v>1066.765389070689</v>
       </c>
       <c r="H45">
         <f t="shared" si="6"/>
-        <v>28.207456148283708</v>
+        <v>62.021243550621456</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>3.3988976816326528</v>
+        <v>6.2988976816326536</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
@@ -4147,23 +4147,23 @@
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
-        <v>3.3996387254371578</v>
+        <v>6.2992975812356553</v>
       </c>
       <c r="E46">
         <f t="shared" si="3"/>
-        <v>0.84990968135928946</v>
+        <v>1.5748243953089138</v>
       </c>
       <c r="F46">
         <f t="shared" si="4"/>
-        <v>120.03772186171093</v>
+        <v>265.04316795362155</v>
       </c>
       <c r="G46">
         <f t="shared" si="5"/>
-        <v>480.15088744684374</v>
+        <v>1060.1726718144862</v>
       </c>
       <c r="H46">
         <f t="shared" si="6"/>
-        <v>27.281300423116118</v>
+        <v>60.237083625823075</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>3.3691502806122449</v>
+        <v>6.2691502806122452</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
@@ -4180,23 +4180,23 @@
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
-        <v>3.3699673151338221</v>
+        <v>6.2695894070203106</v>
       </c>
       <c r="E47">
         <f t="shared" si="3"/>
-        <v>0.84249182878345552</v>
+        <v>1.5673973517550777</v>
       </c>
       <c r="F47">
         <f t="shared" si="4"/>
-        <v>118.75673425941396</v>
+        <v>263.35858047160855</v>
       </c>
       <c r="G47">
         <f t="shared" si="5"/>
-        <v>475.02693703765584</v>
+        <v>1053.4343218864342</v>
       </c>
       <c r="H47">
         <f t="shared" si="6"/>
-        <v>26.390385390980882</v>
+        <v>58.524128993690788</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>3.3386879469387756</v>
+        <v>6.2386879469387759</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
@@ -4213,23 +4213,23 @@
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
-        <v>3.3395872886826585</v>
+        <v>6.2391692837248529</v>
       </c>
       <c r="E48">
         <f t="shared" si="3"/>
-        <v>0.83489682217066463</v>
+        <v>1.5597923209312132</v>
       </c>
       <c r="F48">
         <f t="shared" si="4"/>
-        <v>117.44941093494585</v>
+        <v>261.63789031569206</v>
       </c>
       <c r="G48">
         <f t="shared" si="5"/>
-        <v>469.79764373978338</v>
+        <v>1046.5515612627682</v>
       </c>
       <c r="H48">
         <f t="shared" si="6"/>
-        <v>25.532480638031707</v>
+        <v>56.877802242541755</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>3.307510680612245</v>
+        <v>6.2075106806122449</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
@@ -4246,23 +4246,23 @@
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
-        <v>3.3084990874004907</v>
+        <v>6.2080373838179241</v>
       </c>
       <c r="E49">
         <f t="shared" si="3"/>
-        <v>0.82712477185012268</v>
+        <v>1.552009345954481</v>
       </c>
       <c r="F49">
         <f t="shared" si="4"/>
-        <v>116.11607218169792</v>
+        <v>259.88141041921142</v>
       </c>
       <c r="G49">
         <f t="shared" si="5"/>
-        <v>464.46428872679166</v>
+        <v>1039.5256416768457</v>
       </c>
       <c r="H49">
         <f t="shared" si="6"/>
-        <v>24.705547272701683</v>
+        <v>55.29391711047051</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>3.275618481632653</v>
+        <v>6.1756184816326538</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
@@ -4279,23 +4279,23 @@
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
-        <v>3.2767031826597308</v>
+        <v>6.176193887882877</v>
       </c>
       <c r="E50">
         <f t="shared" si="3"/>
-        <v>0.8191757956649327</v>
+        <v>1.5440484719707193</v>
       </c>
       <c r="F50">
         <f t="shared" si="4"/>
-        <v>114.7570463436513</v>
+        <v>258.08946116543711</v>
       </c>
       <c r="G50">
         <f t="shared" si="5"/>
-        <v>459.02818537460519</v>
+        <v>1032.3578446617485</v>
       </c>
       <c r="H50">
         <f t="shared" si="6"/>
-        <v>23.907717988260689</v>
+        <v>53.768637742799399</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>3.2430113499999997</v>
+        <v>6.1430113500000001</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
@@ -4312,23 +4312,23 @@
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
-        <v>3.2442000783570411</v>
+        <v>6.1436389850325543</v>
       </c>
       <c r="E51">
         <f t="shared" si="3"/>
-        <v>0.81105001958926026</v>
+        <v>1.5359097462581386</v>
       </c>
       <c r="F51">
         <f t="shared" si="4"/>
-        <v>113.37266988295954</v>
+        <v>256.26237039892561</v>
       </c>
       <c r="G51">
         <f t="shared" si="5"/>
-        <v>453.49067953183817</v>
+        <v>1025.0494815957024</v>
       </c>
       <c r="H51">
         <f t="shared" si="6"/>
-        <v>23.137279567950927</v>
+        <v>52.298442938556242</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>3.209689285714286</v>
+        <v>6.1096892857142864</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
@@ -4345,23 +4345,23 @@
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
-        <v>3.210990313633812</v>
+        <v>6.1103728733517588</v>
       </c>
       <c r="E52">
         <f t="shared" si="3"/>
-        <v>0.80274757840845301</v>
+        <v>1.5275932183379397</v>
       </c>
       <c r="F52">
         <f t="shared" si="4"/>
-        <v>111.9632874544251</v>
+        <v>254.40047343763285</v>
       </c>
       <c r="G52">
         <f t="shared" si="5"/>
-        <v>447.8531498177004</v>
+        <v>1017.6018937505314</v>
       </c>
       <c r="H52">
         <f t="shared" si="6"/>
-        <v>22.392657490885021</v>
+        <v>50.880094687526572</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>3.1756522887755105</v>
+        <v>6.0756522887755109</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
@@ -4378,23 +4378,23 @@
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
-        <v>3.1770744658786332</v>
+        <v>6.0763957603694614</v>
       </c>
       <c r="E53">
         <f t="shared" si="3"/>
-        <v>0.7942686164696583</v>
+        <v>1.5190989400923653</v>
       </c>
       <c r="F53">
         <f t="shared" si="4"/>
-        <v>110.52925198769572</v>
+        <v>252.50411308584131</v>
       </c>
       <c r="G53">
         <f t="shared" si="5"/>
-        <v>442.11700795078286</v>
+        <v>1010.0164523433652</v>
       </c>
       <c r="H53">
         <f t="shared" si="6"/>
-        <v>21.672402350528575</v>
+        <v>49.510610408988498</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>3.1409003591836737</v>
+        <v>6.0409003591836736</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
@@ -4411,23 +4411,23 @@
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
-        <v>3.1424531540461338</v>
+        <v>6.041707863563067</v>
       </c>
       <c r="E54">
         <f t="shared" si="3"/>
-        <v>0.78561328851153345</v>
+        <v>1.5104269658907667</v>
       </c>
       <c r="F54">
         <f t="shared" si="4"/>
-        <v>109.07092477812176</v>
+        <v>250.57363964796502</v>
       </c>
       <c r="G54">
         <f t="shared" si="5"/>
-        <v>436.28369911248706</v>
+        <v>1002.2945585918601</v>
       </c>
       <c r="H54">
         <f t="shared" si="6"/>
-        <v>20.975177841946493</v>
+        <v>48.187238393839429</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>3.1054334969387756</v>
+        <v>6.0054334969387764</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
@@ -4444,23 +4444,23 @@
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
-        <v>3.1071270423314492</v>
+        <v>6.0063094108972015</v>
       </c>
       <c r="E55">
         <f t="shared" si="3"/>
-        <v>0.7767817605828623</v>
+        <v>1.5015773527243004</v>
       </c>
       <c r="F55">
         <f t="shared" si="4"/>
-        <v>107.58867558734931</v>
+        <v>248.60941094329951</v>
       </c>
       <c r="G55">
         <f t="shared" si="5"/>
-        <v>430.35470234939726</v>
+        <v>994.43764377319803</v>
       </c>
       <c r="H55">
         <f t="shared" si="6"/>
-        <v>20.299750110820625</v>
+        <v>46.907436027037647</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>3.0692517020408161</v>
+        <v>5.9692517020408165</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
@@ -4477,23 +4477,23 @@
       </c>
       <c r="D56">
         <f t="shared" si="2"/>
-        <v>3.0710968442452198</v>
+        <v>5.9702006413997246</v>
       </c>
       <c r="E56">
         <f t="shared" si="3"/>
-        <v>0.76777421106130495</v>
+        <v>1.4925501603499312</v>
       </c>
       <c r="F56">
         <f t="shared" si="4"/>
-        <v>106.0828827548783</v>
+        <v>246.61179232179074</v>
       </c>
       <c r="G56">
         <f t="shared" si="5"/>
-        <v>424.33153101951319</v>
+        <v>986.44716928716298</v>
       </c>
       <c r="H56">
         <f t="shared" si="6"/>
-        <v>19.644978287940425</v>
+        <v>45.668850429961246</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>3.0323549744897962</v>
+        <v>5.9323549744897965</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
@@ -4510,23 +4510,23 @@
       </c>
       <c r="D57">
         <f t="shared" si="2"/>
-        <v>3.0343633271406505</v>
+        <v>5.9333818057779579</v>
       </c>
       <c r="E57">
         <f t="shared" si="3"/>
-        <v>0.75859083178516262</v>
+        <v>1.4833454514444895</v>
       </c>
       <c r="F57">
         <f t="shared" si="4"/>
-        <v>104.55393332199637</v>
+        <v>244.58115668090539</v>
       </c>
       <c r="G57">
         <f t="shared" si="5"/>
-        <v>418.21573328798547</v>
+        <v>978.32462672362158</v>
       </c>
       <c r="H57">
         <f t="shared" si="6"/>
-        <v>19.009806058544793</v>
+        <v>44.469301214710072</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>2.9947433142857145</v>
+        <v>5.8947433142857149</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
@@ -4543,23 +4543,23 @@
       </c>
       <c r="D58">
         <f t="shared" si="2"/>
-        <v>2.9969273172518212</v>
+        <v>5.895853167078311</v>
       </c>
       <c r="E58">
         <f t="shared" si="3"/>
-        <v>0.74923182931295529</v>
+        <v>1.4739632917695777</v>
       </c>
       <c r="F58">
         <f t="shared" si="4"/>
-        <v>103.00222316970883</v>
+        <v>242.51788448368865</v>
       </c>
       <c r="G58">
         <f t="shared" si="5"/>
-        <v>412.00889267883531</v>
+        <v>970.07153793475459</v>
       </c>
       <c r="H58">
         <f t="shared" si="6"/>
-        <v>18.393254137448007</v>
+        <v>43.306765086372977</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>2.9564167214285719</v>
+        <v>5.8564167214285723</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
@@ -4576,23 +4576,23 @@
       </c>
       <c r="D59">
         <f t="shared" si="2"/>
-        <v>2.958789705311502</v>
+        <v>5.8576150013928912</v>
       </c>
       <c r="E59">
         <f t="shared" si="3"/>
-        <v>0.7396974263278755</v>
+        <v>1.4644037503482228</v>
       </c>
       <c r="F59">
         <f t="shared" si="4"/>
-        <v>101.42815717253342</v>
+        <v>240.42236377810869</v>
       </c>
       <c r="G59">
         <f t="shared" si="5"/>
-        <v>405.71262869013367</v>
+        <v>961.68945511243476</v>
       </c>
       <c r="H59">
         <f t="shared" si="6"/>
-        <v>17.794413539040949</v>
+        <v>42.179362066334853</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>2.9173751959183676</v>
+        <v>5.8173751959183679</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
@@ -4609,23 +4609,23 @@
       </c>
       <c r="D60">
         <f t="shared" si="2"/>
-        <v>2.9199514528272599</v>
+        <v>5.8186675986169343</v>
       </c>
       <c r="E60">
         <f t="shared" si="3"/>
-        <v>0.72998786320681497</v>
+        <v>1.4546668996542336</v>
       </c>
       <c r="F60">
         <f t="shared" si="4"/>
-        <v>99.832149370316358</v>
+        <v>238.29499021779219</v>
       </c>
       <c r="G60">
         <f t="shared" si="5"/>
-        <v>399.32859748126543</v>
+        <v>953.17996087116876</v>
       </c>
       <c r="H60">
         <f t="shared" si="6"/>
-        <v>17.212439546606269</v>
+        <v>41.085343140998653</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>2.8776187377551019</v>
+        <v>5.7776187377551018</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
@@ -4642,23 +4642,23 @@
       </c>
       <c r="D61">
         <f t="shared" si="2"/>
-        <v>2.8804135991071576</v>
+        <v>5.7790112632613067</v>
       </c>
       <c r="E61">
         <f t="shared" si="3"/>
-        <v>0.72010339977678939</v>
+        <v>1.4447528158153267</v>
       </c>
       <c r="F61">
         <f t="shared" si="4"/>
-        <v>98.214623160569644</v>
+        <v>236.13616708426773</v>
       </c>
       <c r="G61">
         <f t="shared" si="5"/>
-        <v>392.85849264227858</v>
+        <v>944.5446683370709</v>
       </c>
       <c r="H61">
         <f t="shared" si="6"/>
-        <v>16.646546298401635</v>
+        <v>40.023079166825035</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>2.8371473469387753</v>
+        <v>5.7371473469387757</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
@@ -4675,23 +4675,23 @@
       </c>
       <c r="D62">
         <f t="shared" si="2"/>
-        <v>2.8401772691410163</v>
+        <v>5.7386463153247407</v>
       </c>
       <c r="E62">
         <f t="shared" si="3"/>
-        <v>0.71004431728525408</v>
+        <v>1.4346615788311852</v>
       </c>
       <c r="F62">
         <f t="shared" si="4"/>
-        <v>96.576011514230387</v>
+        <v>233.94630531084411</v>
       </c>
       <c r="G62">
         <f t="shared" si="5"/>
-        <v>386.30404605692155</v>
+        <v>935.78522124337644</v>
       </c>
       <c r="H62">
         <f t="shared" si="6"/>
-        <v>16.096001919038397</v>
+        <v>38.991050885140687</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>2.7959610234693884</v>
+        <v>5.6959610234693887</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
@@ -4708,23 +4708,23 @@
       </c>
       <c r="D63">
         <f t="shared" si="2"/>
-        <v>2.799243682460661</v>
+        <v>5.6975730912308951</v>
       </c>
       <c r="E63">
         <f t="shared" si="3"/>
-        <v>0.69981092061516526</v>
+        <v>1.4243932728077238</v>
       </c>
       <c r="F63">
         <f t="shared" si="4"/>
-        <v>94.916757218220965</v>
+        <v>231.72582350826377</v>
       </c>
       <c r="G63">
         <f t="shared" si="5"/>
-        <v>379.66702887288386</v>
+        <v>926.90329403305509</v>
       </c>
       <c r="H63">
         <f t="shared" si="6"/>
-        <v>15.560124134134586</v>
+        <v>37.987839919387504</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>2.7540597673469387</v>
+        <v>5.654059767346939</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
@@ -4741,23 +4741,23 @@
       </c>
       <c r="D64">
         <f t="shared" si="2"/>
-        <v>2.7576141631232782</v>
+        <v>5.6557919448358733</v>
       </c>
       <c r="E64">
         <f t="shared" si="3"/>
-        <v>0.68940354078081956</v>
+        <v>1.4139479862089683</v>
       </c>
       <c r="F64">
         <f t="shared" si="4"/>
-        <v>93.237313148755774</v>
+        <v>229.47514799228458</v>
       </c>
       <c r="G64">
         <f t="shared" si="5"/>
-        <v>372.9492525950231</v>
+        <v>917.9005919691383</v>
       </c>
       <c r="H64">
         <f t="shared" si="6"/>
-        <v>15.038276314315446</v>
+        <v>37.012120643916866</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>2.711443578571429</v>
+        <v>5.6114435785714294</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
@@ -4774,23 +4774,23 @@
       </c>
       <c r="D65">
         <f t="shared" si="2"/>
-        <v>2.7152901509866849</v>
+        <v>5.6133032485123753</v>
       </c>
       <c r="E65">
         <f t="shared" si="3"/>
-        <v>0.67882253774667123</v>
+        <v>1.4033258121280938</v>
       </c>
       <c r="F65">
         <f t="shared" si="4"/>
-        <v>91.538142580015815</v>
+        <v>227.19471281336007</v>
       </c>
       <c r="G65">
         <f t="shared" si="5"/>
-        <v>366.15257032006326</v>
+        <v>908.77885125344028</v>
       </c>
       <c r="H65">
         <f t="shared" si="6"/>
-        <v>14.529863901589813</v>
+        <v>36.062652827517475</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>2.6681124571428572</v>
+        <v>5.568112457142858</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
@@ -4807,23 +4807,23 @@
       </c>
       <c r="D66">
         <f t="shared" si="2"/>
-        <v>2.6722732144748012</v>
+        <v>5.5701073943172821</v>
       </c>
       <c r="E66">
         <f t="shared" si="3"/>
-        <v>0.66806830361870029</v>
+        <v>1.3925268485793205</v>
       </c>
       <c r="F66">
         <f t="shared" si="4"/>
-        <v>89.819719533619136</v>
+        <v>224.88495978860351</v>
       </c>
       <c r="G66">
         <f t="shared" si="5"/>
-        <v>359.27887813447654</v>
+        <v>899.53983915441404</v>
       </c>
       <c r="H66">
         <f t="shared" si="6"/>
-        <v>14.034331177127989</v>
+        <v>35.138274966969298</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B130" si="7">IF($K$4-(0.350317*A67*A67-0.202576*A67)/9.8&gt;0, $K$4-(0.350317*A67*A67-0.202576*A67)/9.8, 0)</f>
-        <v>2.6240664030612244</v>
+        <v>5.5240664030612248</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C130" si="8">(0.0350823*A67*A67+0.00372739*A67)/9.8</f>
@@ -4840,23 +4840,23 @@
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D130" si="9">SQRT(C67*C67+B67*B67)</f>
-        <v>2.6285650650671082</v>
+        <v>5.5262047952502042</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" si="10">D67/4</f>
-        <v>0.65714126626677705</v>
+        <v>1.3815511988125511</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F130" si="11">1000000*0.0000373344395*E67*E67+ 1000*0.109504955*E67</f>
-        <v>88.082529175287874</v>
+        <v>222.54633853624193</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G130" si="12">F67*4</f>
-        <v>352.3301167011515</v>
+        <v>890.18535414496773</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H130" si="13">F67/A67</f>
-        <v>13.551158334659673</v>
+        <v>34.237898236344911</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="B68">
         <f t="shared" si="7"/>
-        <v>2.5793054163265312</v>
+        <v>5.4793054163265316</v>
       </c>
       <c r="C68">
         <f t="shared" si="8"/>
@@ -4873,23 +4873,23 @@
       </c>
       <c r="D68">
         <f t="shared" si="9"/>
-        <v>2.5841675737884575</v>
+        <v>5.4815958866112711</v>
       </c>
       <c r="E68">
         <f t="shared" si="10"/>
-        <v>0.64604189344711438</v>
+        <v>1.3703989716528178</v>
       </c>
       <c r="F68">
         <f t="shared" si="11"/>
-        <v>86.327068266277095</v>
+        <v>220.17930651278778</v>
       </c>
       <c r="G68">
         <f t="shared" si="12"/>
-        <v>345.30827306510838</v>
+        <v>880.7172260511511</v>
       </c>
       <c r="H68">
         <f t="shared" si="13"/>
-        <v>13.079858828223802</v>
+        <v>33.360500986786029</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="7"/>
-        <v>2.5338294969387753</v>
+        <v>5.4338294969387757</v>
       </c>
       <c r="C69">
         <f t="shared" si="8"/>
@@ -4906,23 +4906,23 @@
       </c>
       <c r="D69">
         <f t="shared" si="9"/>
-        <v>2.5390827900272557</v>
+        <v>5.4362811274673328</v>
       </c>
       <c r="E69">
         <f t="shared" si="10"/>
-        <v>0.63477069750681392</v>
+        <v>1.3590702818668332</v>
       </c>
       <c r="F69">
         <f t="shared" si="11"/>
-        <v>84.553845678545898</v>
+        <v>217.78432905317737</v>
       </c>
       <c r="G69">
         <f t="shared" si="12"/>
-        <v>338.21538271418359</v>
+        <v>871.13731621270949</v>
       </c>
       <c r="H69">
         <f t="shared" si="13"/>
-        <v>12.619976966947149</v>
+        <v>32.505123739280201</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="7"/>
-        <v>2.4876386448979595</v>
+        <v>5.3876386448979598</v>
       </c>
       <c r="C70">
         <f t="shared" si="8"/>
@@ -4939,23 +4939,23 @@
       </c>
       <c r="D70">
         <f t="shared" si="9"/>
-        <v>2.4933129630726572</v>
+        <v>5.3902610022367492</v>
       </c>
       <c r="E70">
         <f t="shared" si="10"/>
-        <v>0.62332824076816429</v>
+        <v>1.3475652505591873</v>
       </c>
       <c r="F70">
         <f t="shared" si="11"/>
-        <v>82.763382984364924</v>
+        <v>215.36187941415722</v>
       </c>
       <c r="G70">
         <f t="shared" si="12"/>
-        <v>331.0535319374597</v>
+        <v>861.44751765662886</v>
       </c>
       <c r="H70">
         <f t="shared" si="13"/>
-        <v>12.171085732994841</v>
+        <v>31.670864619729002</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="7"/>
-        <v>2.4407328602040819</v>
+        <v>5.3407328602040822</v>
       </c>
       <c r="C71">
         <f t="shared" si="8"/>
@@ -4972,23 +4972,23 @@
       </c>
       <c r="D71">
         <f t="shared" si="9"/>
-        <v>2.4468605668376848</v>
+        <v>5.3435360224039767</v>
       </c>
       <c r="E71">
         <f t="shared" si="10"/>
-        <v>0.61171514170942121</v>
+        <v>1.3358840056009942</v>
       </c>
       <c r="F71">
         <f t="shared" si="11"/>
-        <v>80.956215133142109</v>
+        <v>212.91243882122228</v>
       </c>
       <c r="G71">
         <f t="shared" si="12"/>
-        <v>323.82486053256844</v>
+        <v>851.64975528488912</v>
       </c>
       <c r="H71">
         <f t="shared" si="13"/>
-        <v>11.732784801904653</v>
+        <v>30.856875191481489</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B72">
         <f t="shared" si="7"/>
-        <v>2.3931121428571429</v>
+        <v>5.2931121428571437</v>
       </c>
       <c r="C72">
         <f t="shared" si="8"/>
@@ -5005,23 +5005,23 @@
       </c>
       <c r="D72">
         <f t="shared" si="9"/>
-        <v>2.3997283283286999</v>
+        <v>5.2961067283764862</v>
       </c>
       <c r="E72">
         <f t="shared" si="10"/>
-        <v>0.59993208208217497</v>
+        <v>1.3240266820941216</v>
       </c>
       <c r="F72">
         <f t="shared" si="11"/>
-        <v>79.132891230810003</v>
+        <v>210.43649651945179</v>
       </c>
       <c r="G72">
         <f t="shared" si="12"/>
-        <v>316.53156492324001</v>
+        <v>841.74598607780717</v>
       </c>
       <c r="H72">
         <f t="shared" si="13"/>
-        <v>11.304698747258572</v>
+        <v>30.062356645635969</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
@@ -5030,7 +5030,7 @@
       </c>
       <c r="B73">
         <f t="shared" si="7"/>
-        <v>2.3447764928571435</v>
+        <v>5.2447764928571434</v>
       </c>
       <c r="C73">
         <f t="shared" si="8"/>
@@ -5038,23 +5038,23 @@
       </c>
       <c r="D73">
         <f t="shared" si="9"/>
-        <v>2.3519192605364236</v>
+        <v>5.2479736914978554</v>
       </c>
       <c r="E73">
         <f t="shared" si="10"/>
-        <v>0.58797981513410591</v>
+        <v>1.3119934228744639</v>
       </c>
       <c r="F73">
         <f t="shared" si="11"/>
-        <v>77.293975440257981</v>
+        <v>207.93454982861999</v>
       </c>
       <c r="G73">
         <f t="shared" si="12"/>
-        <v>309.17590176103192</v>
+        <v>831.73819931447997</v>
       </c>
       <c r="H73">
         <f t="shared" si="13"/>
-        <v>10.886475414120843</v>
+        <v>29.286556313890141</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="B74">
         <f t="shared" si="7"/>
-        <v>2.2957259102040819</v>
+        <v>5.1957259102040823</v>
       </c>
       <c r="C74">
         <f t="shared" si="8"/>
@@ -5071,23 +5071,23 @@
       </c>
       <c r="D74">
         <f t="shared" si="9"/>
-        <v>2.3034367005656158</v>
+        <v>5.1991375162325033</v>
       </c>
       <c r="E74">
         <f t="shared" si="10"/>
-        <v>0.57585917514140395</v>
+        <v>1.2997843790581258</v>
       </c>
       <c r="F74">
         <f t="shared" si="11"/>
-        <v>75.440048025179564</v>
+        <v>205.40710420300607</v>
       </c>
       <c r="G74">
         <f t="shared" si="12"/>
-        <v>301.76019210071826</v>
+        <v>821.62841681202428</v>
       </c>
       <c r="H74">
         <f t="shared" si="13"/>
-        <v>10.477784447941605</v>
+        <v>28.528764472639732</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="B75">
         <f t="shared" si="7"/>
-        <v>2.2459603948979598</v>
+        <v>5.1459603948979602</v>
       </c>
       <c r="C75">
         <f t="shared" si="8"/>
@@ -5104,23 +5104,23 @@
       </c>
       <c r="D75">
         <f t="shared" si="9"/>
-        <v>2.2542843539965451</v>
+        <v>5.1495988425392705</v>
       </c>
       <c r="E75">
         <f t="shared" si="10"/>
-        <v>0.56357108849913629</v>
+        <v>1.2873997106348176</v>
       </c>
       <c r="F75">
         <f t="shared" si="11"/>
-        <v>73.571706564522643</v>
+        <v>202.85467329637379</v>
       </c>
       <c r="G75">
         <f t="shared" si="12"/>
-        <v>294.28682625809057</v>
+        <v>811.41869318549516</v>
       </c>
       <c r="H75">
         <f t="shared" si="13"/>
-        <v>10.078315967742828</v>
+        <v>27.788311410462164</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
@@ -5129,7 +5129,7 @@
       </c>
       <c r="B76">
         <f t="shared" si="7"/>
-        <v>2.1954799469387756</v>
+        <v>5.0954799469387755</v>
       </c>
       <c r="C76">
         <f t="shared" si="8"/>
@@ -5137,23 +5137,23 @@
       </c>
       <c r="D76">
         <f t="shared" si="9"/>
-        <v>2.2044663466909431</v>
+        <v>5.0993583484530491</v>
       </c>
       <c r="E76">
         <f t="shared" si="10"/>
-        <v>0.55111658667273578</v>
+        <v>1.2748395871132623</v>
       </c>
       <c r="F76">
         <f t="shared" si="11"/>
-        <v>71.689567370741514</v>
+        <v>200.27777903264658</v>
       </c>
       <c r="G76">
         <f t="shared" si="12"/>
-        <v>286.75826948296606</v>
+        <v>801.11111613058631</v>
       </c>
       <c r="H76">
         <f t="shared" si="13"/>
-        <v>9.6877793744245277</v>
+        <v>27.064564734141427</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="B77">
         <f t="shared" si="7"/>
-        <v>2.1442845663265313</v>
+        <v>5.0442845663265317</v>
       </c>
       <c r="C77">
         <f t="shared" si="8"/>
@@ -5170,23 +5170,23 @@
       </c>
       <c r="D77">
         <f t="shared" si="9"/>
-        <v>2.1539872855304321</v>
+        <v>5.0484167528959656</v>
       </c>
       <c r="E77">
         <f t="shared" si="10"/>
-        <v>0.53849682138260802</v>
+        <v>1.2621041882239914</v>
       </c>
       <c r="F77">
         <f t="shared" si="11"/>
-        <v>69.794267152586698</v>
+        <v>197.67695168286772</v>
       </c>
       <c r="G77">
         <f t="shared" si="12"/>
-        <v>279.17706861034679</v>
+        <v>790.7078067314709</v>
       </c>
       <c r="H77">
         <f t="shared" si="13"/>
-        <v>9.3059022870115591</v>
+        <v>26.356926891049032</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="7"/>
-        <v>2.0923742530612248</v>
+        <v>4.9923742530612252</v>
       </c>
       <c r="C78">
         <f t="shared" si="8"/>
@@ -5203,23 +5203,23 @@
       </c>
       <c r="D78">
         <f t="shared" si="9"/>
-        <v>2.1028523299223791</v>
+        <v>4.9967748187420939</v>
       </c>
       <c r="E78">
         <f t="shared" si="10"/>
-        <v>0.52571308248059478</v>
+        <v>1.2491937046855235</v>
       </c>
       <c r="F78">
         <f t="shared" si="11"/>
-        <v>67.886464972666204</v>
+        <v>195.05272994910001</v>
       </c>
       <c r="G78">
         <f t="shared" si="12"/>
-        <v>271.54585989066481</v>
+        <v>780.21091979640005</v>
       </c>
       <c r="H78">
         <f t="shared" si="13"/>
-        <v>8.9324296016666054</v>
+        <v>25.664832888039477</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="7"/>
-        <v>2.039749007142857</v>
+        <v>4.9397490071428578</v>
       </c>
       <c r="C79">
         <f t="shared" si="8"/>
@@ -5236,23 +5236,23 @@
       </c>
       <c r="D79">
         <f t="shared" si="9"/>
-        <v>2.0510672763480913</v>
+        <v>4.9444333561627216</v>
       </c>
       <c r="E79">
         <f t="shared" si="10"/>
-        <v>0.51276681908702282</v>
+        <v>1.2361083390406804</v>
       </c>
       <c r="F79">
         <f t="shared" si="11"/>
-        <v>65.96684456205719</v>
+        <v>192.40566105600709</v>
       </c>
       <c r="G79">
         <f t="shared" si="12"/>
-        <v>263.86737824822876</v>
+        <v>769.62264422402836</v>
       </c>
       <c r="H79">
         <f t="shared" si="13"/>
-        <v>8.5671226703970369</v>
+        <v>24.987748189091828</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="7"/>
-        <v>1.9864088285714288</v>
+        <v>4.8864088285714296</v>
       </c>
       <c r="C80">
         <f t="shared" si="8"/>
@@ -5269,23 +5269,23 @@
       </c>
       <c r="D80">
         <f t="shared" si="9"/>
-        <v>1.9986386587892091</v>
+        <v>4.8913932262823669</v>
       </c>
       <c r="E80">
         <f t="shared" si="10"/>
-        <v>0.49965966469730227</v>
+        <v>1.2228483065705917</v>
       </c>
       <c r="F80">
         <f t="shared" si="11"/>
-        <v>64.036117069602767</v>
+        <v>189.73630085094106</v>
       </c>
       <c r="G80">
         <f t="shared" si="12"/>
-        <v>256.14446827841107</v>
+        <v>758.94520340376425</v>
       </c>
       <c r="H80">
         <f t="shared" si="13"/>
-        <v>8.2097585986670207</v>
+        <v>24.325166775761677</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="7"/>
-        <v>1.9323537173469387</v>
+        <v>4.8323537173469386</v>
       </c>
       <c r="C81">
         <f t="shared" si="8"/>
@@ -5302,23 +5302,23 @@
       </c>
       <c r="D81">
         <f t="shared" si="9"/>
-        <v>1.9455738685880748</v>
+        <v>4.837655345179626</v>
       </c>
       <c r="E81">
         <f t="shared" si="10"/>
-        <v>0.4863934671470187</v>
+        <v>1.2094138362949065</v>
       </c>
       <c r="F81">
         <f t="shared" si="11"/>
-        <v>62.095024343238151</v>
+        <v>187.04521391347086</v>
       </c>
       <c r="G81">
         <f t="shared" si="12"/>
-        <v>248.3800973729526</v>
+        <v>748.18085565388344</v>
       </c>
       <c r="H81">
         <f t="shared" si="13"/>
-        <v>7.8601296637010316</v>
+        <v>23.67660935613555</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="7"/>
-        <v>1.8775836734693883</v>
+        <v>4.7775836734693886</v>
       </c>
       <c r="C82">
         <f t="shared" si="8"/>
@@ -5335,23 +5335,23 @@
       </c>
       <c r="D82">
         <f t="shared" si="9"/>
-        <v>1.8918812982275628</v>
+        <v>4.7832206882712054</v>
       </c>
       <c r="E82">
         <f t="shared" si="10"/>
-        <v>0.4729703245568907</v>
+        <v>1.1958051720678013</v>
       </c>
       <c r="F82">
         <f t="shared" si="11"/>
-        <v>60.144342866141614</v>
+        <v>184.33297367540058</v>
       </c>
       <c r="G82">
         <f t="shared" si="12"/>
-        <v>240.57737146456645</v>
+        <v>737.33189470160232</v>
       </c>
       <c r="H82">
         <f t="shared" si="13"/>
-        <v>7.5180428582677017</v>
+        <v>23.041621709425073</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="B83">
         <f t="shared" si="7"/>
-        <v>1.822098696938776</v>
+        <v>4.7220986969387759</v>
       </c>
       <c r="C83">
         <f t="shared" si="8"/>
@@ -5368,23 +5368,23 @@
       </c>
       <c r="D83">
         <f t="shared" si="9"/>
-        <v>1.8375705147247343</v>
+        <v>4.7280902951224002</v>
       </c>
       <c r="E83">
         <f t="shared" si="10"/>
-        <v>0.45939262868118358</v>
+        <v>1.1820225737806</v>
       </c>
       <c r="F83">
         <f t="shared" si="11"/>
-        <v>58.18488850360054</v>
+        <v>181.60016255246208</v>
       </c>
       <c r="G83">
         <f t="shared" si="12"/>
-        <v>232.73955401440216</v>
+        <v>726.40065020984832</v>
       </c>
       <c r="H83">
         <f t="shared" si="13"/>
-        <v>7.1833195683457456</v>
+        <v>22.419773154624949</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="B84">
         <f t="shared" si="7"/>
-        <v>1.7658987877551029</v>
+        <v>4.6658987877551032</v>
       </c>
       <c r="C84">
         <f t="shared" si="8"/>
@@ -5401,23 +5401,23 @@
       </c>
       <c r="D84">
         <f t="shared" si="9"/>
-        <v>1.7826524699157069</v>
+        <v>4.6722652747330358</v>
       </c>
       <c r="E84">
         <f t="shared" si="10"/>
-        <v>0.44566311747892673</v>
+        <v>1.1680663186832589</v>
       </c>
       <c r="F84">
         <f t="shared" si="11"/>
-        <v>56.217522259820242</v>
+        <v>178.84737208902433</v>
       </c>
       <c r="G84">
         <f t="shared" si="12"/>
-        <v>224.87008903928097</v>
+        <v>715.38948835609733</v>
       </c>
       <c r="H84">
         <f t="shared" si="13"/>
-        <v>6.8557953975390546</v>
+        <v>21.810655132807849</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="7"/>
-        <v>1.7089839459183671</v>
+        <v>4.6089839459183679</v>
       </c>
       <c r="C85">
         <f t="shared" si="8"/>
@@ -5434,23 +5434,23 @@
       </c>
       <c r="D85">
         <f t="shared" si="9"/>
-        <v>1.7271397569972606</v>
+        <v>4.6157468113542679</v>
       </c>
       <c r="E85">
         <f t="shared" si="10"/>
-        <v>0.43178493924931516</v>
+        <v>1.153936702838567</v>
       </c>
       <c r="F85">
         <f t="shared" si="11"/>
-        <v>54.243157301068202</v>
+        <v>176.07520311733555</v>
       </c>
       <c r="G85">
         <f t="shared" si="12"/>
-        <v>216.97262920427281</v>
+        <v>704.30081246934219</v>
       </c>
       <c r="H85">
         <f t="shared" si="13"/>
-        <v>6.5353201567552048</v>
+        <v>21.213879893654884</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="7"/>
-        <v>1.6513541714285713</v>
+        <v>4.5513541714285717</v>
       </c>
       <c r="C86">
         <f t="shared" si="8"/>
@@ -5467,23 +5467,23 @@
       </c>
       <c r="D86">
         <f t="shared" si="9"/>
-        <v>1.6710469254665112</v>
+        <v>4.5585361708992505</v>
       </c>
       <c r="E86">
         <f t="shared" si="10"/>
-        <v>0.41776173136662781</v>
+        <v>1.1396340427248126</v>
       </c>
       <c r="F86">
         <f t="shared" si="11"/>
-        <v>52.262767577537794</v>
+        <v>173.28426593302314</v>
       </c>
       <c r="G86">
         <f t="shared" si="12"/>
-        <v>209.05107031015118</v>
+        <v>693.13706373209254</v>
       </c>
       <c r="H86">
         <f t="shared" si="13"/>
-        <v>6.2217580449449752</v>
+        <v>20.62907927774085</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
@@ -5492,7 +5492,7 @@
       </c>
       <c r="B87">
         <f t="shared" si="7"/>
-        <v>1.5930094642857147</v>
+        <v>4.4930094642857146</v>
       </c>
       <c r="C87">
         <f t="shared" si="8"/>
@@ -5500,23 +5500,23 @@
       </c>
       <c r="D87">
         <f t="shared" si="9"/>
-        <v>1.6143908703192349</v>
+        <v>4.5006347080192191</v>
       </c>
       <c r="E87">
         <f t="shared" si="10"/>
-        <v>0.40359771757980872</v>
+        <v>1.1251586770048048</v>
       </c>
       <c r="F87">
         <f t="shared" si="11"/>
-        <v>50.277398478134508</v>
+        <v>170.47518048881017</v>
       </c>
       <c r="G87">
         <f t="shared" si="12"/>
-        <v>201.10959391253803</v>
+        <v>681.90072195524067</v>
       </c>
       <c r="H87">
         <f t="shared" si="13"/>
-        <v>5.9149880562511186</v>
+        <v>20.055903586918845</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B88">
         <f t="shared" si="7"/>
-        <v>1.5339498244897958</v>
+        <v>4.4339498244897957</v>
       </c>
       <c r="C88">
         <f t="shared" si="8"/>
@@ -5533,23 +5533,23 @@
       </c>
       <c r="D88">
         <f t="shared" si="9"/>
-        <v>1.5571913163924749</v>
+        <v>4.4420438739266119</v>
       </c>
       <c r="E88">
         <f t="shared" si="10"/>
-        <v>0.38929782909811872</v>
+        <v>1.110510968481653</v>
       </c>
       <c r="F88">
         <f t="shared" si="11"/>
-        <v>48.288180089954793</v>
+        <v>167.64857660868302</v>
       </c>
       <c r="G88">
         <f t="shared" si="12"/>
-        <v>193.15272035981917</v>
+        <v>670.59430643473206</v>
       </c>
       <c r="H88">
         <f t="shared" si="13"/>
-        <v>5.6149046616226501</v>
+        <v>19.494020535893373</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="7"/>
-        <v>1.4741752520408169</v>
+        <v>4.3741752520408177</v>
       </c>
       <c r="C89">
         <f t="shared" si="8"/>
@@ -5566,23 +5566,23 @@
       </c>
       <c r="D89">
         <f t="shared" si="9"/>
-        <v>1.4994714255844563</v>
+        <v>4.3827652250583791</v>
       </c>
       <c r="E89">
         <f t="shared" si="10"/>
-        <v>0.37486785639611409</v>
+        <v>1.0956913062645948</v>
       </c>
       <c r="F89">
         <f t="shared" si="11"/>
-        <v>46.296343821683429</v>
+        <v>164.8050942250604</v>
       </c>
       <c r="G89">
         <f t="shared" si="12"/>
-        <v>185.18537528673372</v>
+        <v>659.2203769002416</v>
       </c>
       <c r="H89">
         <f t="shared" si="13"/>
-        <v>5.3214188300785557</v>
+        <v>18.943114278742577</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="B90">
         <f t="shared" si="7"/>
-        <v>1.4136857469387749</v>
+        <v>4.3136857469387753</v>
       </c>
       <c r="C90">
         <f t="shared" si="8"/>
@@ -5599,23 +5599,23 @@
       </c>
       <c r="D90">
         <f t="shared" si="9"/>
-        <v>1.4412585640981328</v>
+        <v>4.3228004326860967</v>
       </c>
       <c r="E90">
         <f t="shared" si="10"/>
-        <v>0.3603146410245332</v>
+        <v>1.0807001081715242</v>
       </c>
       <c r="F90">
         <f t="shared" si="11"/>
-        <v>44.303243407836021</v>
+        <v>161.94538364188176</v>
       </c>
       <c r="G90">
         <f t="shared" si="12"/>
-        <v>177.21297363134408</v>
+        <v>647.78153456752705</v>
       </c>
       <c r="H90">
         <f t="shared" si="13"/>
-        <v>5.0344594781631837</v>
+        <v>18.402884504759289</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="7"/>
-        <v>1.3524813091836734</v>
+        <v>4.2524813091836737</v>
       </c>
       <c r="C91">
         <f t="shared" si="8"/>
@@ -5632,23 +5632,23 @@
       </c>
       <c r="D91">
         <f t="shared" si="9"/>
-        <v>1.3825852799122975</v>
+        <v>4.2621512935952284</v>
       </c>
       <c r="E91">
         <f t="shared" si="10"/>
-        <v>0.34564631997807438</v>
+        <v>1.0655378233988071</v>
       </c>
       <c r="F91">
         <f t="shared" si="11"/>
-        <v>42.310381668241561</v>
+        <v>159.07010582696574</v>
       </c>
       <c r="G91">
         <f t="shared" si="12"/>
-        <v>169.24152667296624</v>
+        <v>636.28042330786297</v>
       </c>
       <c r="H91">
         <f t="shared" si="13"/>
-        <v>4.7539754683417481</v>
+        <v>17.873045598535477</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="7"/>
-        <v>1.2905619387755105</v>
+        <v>4.1905619387755113</v>
       </c>
       <c r="C92">
         <f t="shared" si="8"/>
@@ -5665,23 +5665,23 @@
       </c>
       <c r="D92">
         <f t="shared" si="9"/>
-        <v>1.3234905589617725</v>
+        <v>4.2008197419740485</v>
       </c>
       <c r="E92">
         <f t="shared" si="10"/>
-        <v>0.33087263974044312</v>
+        <v>1.0502049354935121</v>
       </c>
       <c r="F92">
         <f t="shared" si="11"/>
-        <v>40.319444897531085</v>
+        <v>156.17993273748374</v>
       </c>
       <c r="G92">
         <f t="shared" si="12"/>
-        <v>161.27777959012434</v>
+        <v>624.71973094993496</v>
       </c>
       <c r="H92">
         <f t="shared" si="13"/>
-        <v>4.4799383219478983</v>
+        <v>17.353325859720414</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
@@ -5690,7 +5690,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="7"/>
-        <v>1.2279276357142863</v>
+        <v>4.1279276357142862</v>
       </c>
       <c r="C93">
         <f t="shared" si="8"/>
@@ -5698,23 +5698,23 @@
       </c>
       <c r="D93">
         <f t="shared" si="9"/>
-        <v>1.2640214543242236</v>
+        <v>4.1388078626743212</v>
       </c>
       <c r="E93">
         <f t="shared" si="10"/>
-        <v>0.31600536358105591</v>
+        <v>1.0347019656685803</v>
       </c>
       <c r="F93">
         <f t="shared" si="11"/>
-        <v>38.332347466145023</v>
+        <v>153.27554768298776</v>
       </c>
       <c r="G93">
         <f t="shared" si="12"/>
-        <v>153.32938986458009</v>
+        <v>613.10219073195105</v>
       </c>
       <c r="H93">
         <f t="shared" si="13"/>
-        <v>4.2123458754005521</v>
+        <v>16.843466778350304</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="7"/>
-        <v>1.1645784000000008</v>
+        <v>4.0645784000000011</v>
       </c>
       <c r="C94">
         <f t="shared" si="8"/>
@@ -5731,23 +5731,23 @@
       </c>
       <c r="D94">
         <f t="shared" si="9"/>
-        <v>1.2042352194920443</v>
+        <v>4.0761179060308184</v>
       </c>
       <c r="E94">
         <f t="shared" si="10"/>
-        <v>0.30105880487301107</v>
+        <v>1.0190294765077046</v>
       </c>
       <c r="F94">
         <f t="shared" si="11"/>
-        <v>36.351290221293532</v>
+        <v>150.35764573111288</v>
       </c>
       <c r="G94">
         <f t="shared" si="12"/>
-        <v>145.40516088517413</v>
+        <v>601.43058292445153</v>
       </c>
       <c r="H94">
         <f t="shared" si="13"/>
-        <v>3.9512271979666886</v>
+        <v>16.343222362077487</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="7"/>
-        <v>1.1005142316326531</v>
+        <v>4.0005142316326534</v>
       </c>
       <c r="C95">
         <f t="shared" si="8"/>
@@ -5764,23 +5764,23 @@
       </c>
       <c r="D95">
         <f t="shared" si="9"/>
-        <v>1.1442021296304414</v>
+        <v>4.0127523044564093</v>
       </c>
       <c r="E95">
         <f t="shared" si="10"/>
-        <v>0.28605053240761036</v>
+        <v>1.0031880761141023</v>
       </c>
       <c r="F95">
         <f t="shared" si="11"/>
-        <v>34.378837722391424</v>
+        <v>147.42693416188848</v>
       </c>
       <c r="G95">
         <f t="shared" si="12"/>
-        <v>137.5153508895657</v>
+        <v>589.70773664755393</v>
       </c>
       <c r="H95">
         <f t="shared" si="13"/>
-        <v>3.6966492174614429</v>
+        <v>15.852358512031019</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="7"/>
-        <v>1.0357351306122453</v>
+        <v>3.9357351306122457</v>
       </c>
       <c r="C96">
         <f t="shared" si="8"/>
@@ -5797,23 +5797,23 @@
       </c>
       <c r="D96">
         <f t="shared" si="9"/>
-        <v>1.0840092510898478</v>
+        <v>3.9487136910643952</v>
       </c>
       <c r="E96">
         <f t="shared" si="10"/>
-        <v>0.27100231277246195</v>
+        <v>0.9871784227660988</v>
       </c>
       <c r="F96">
         <f t="shared" si="11"/>
-        <v>32.418021436130019</v>
+        <v>144.48413297754774</v>
       </c>
       <c r="G96">
         <f t="shared" si="12"/>
-        <v>129.67208574452007</v>
+        <v>577.93653191019098</v>
       </c>
       <c r="H96">
         <f t="shared" si="13"/>
-        <v>3.4487256846946828</v>
+        <v>15.370652444419973</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="7"/>
-        <v>0.97024109693877625</v>
+        <v>3.8702410969387766</v>
       </c>
       <c r="C97">
         <f t="shared" si="8"/>
@@ -5830,23 +5830,23 @@
       </c>
       <c r="D97">
         <f t="shared" si="9"/>
-        <v>1.0237655303267972</v>
+        <v>3.8840049206109684</v>
       </c>
       <c r="E97">
         <f t="shared" si="10"/>
-        <v>0.25594138258169929</v>
+        <v>0.97100123015274209</v>
       </c>
       <c r="F97">
         <f t="shared" si="11"/>
-        <v>30.472479051989879</v>
+        <v>141.52997547585323</v>
       </c>
       <c r="G97">
         <f t="shared" si="12"/>
-        <v>121.88991620795952</v>
+        <v>566.11990190341294</v>
       </c>
       <c r="H97">
         <f t="shared" si="13"/>
-        <v>3.2076293738936714</v>
+        <v>14.897892155352972</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="7"/>
-        <v>0.90403213061224497</v>
+        <v>3.8040321306122453</v>
       </c>
       <c r="C98">
         <f t="shared" si="8"/>
@@ -5863,23 +5863,23 @@
       </c>
       <c r="D98">
         <f t="shared" si="9"/>
-        <v>0.9636087344549481</v>
+        <v>3.8186290930998901</v>
       </c>
       <c r="E98">
         <f t="shared" si="10"/>
-        <v>0.24090218361373703</v>
+        <v>0.95465727327497252</v>
       </c>
       <c r="F98">
         <f t="shared" si="11"/>
-        <v>28.546644488422789</v>
+        <v>138.56520889630445</v>
       </c>
       <c r="G98">
         <f t="shared" si="12"/>
-        <v>114.18657795369116</v>
+        <v>554.26083558521782</v>
       </c>
       <c r="H98">
         <f t="shared" si="13"/>
-        <v>2.9736088008773738</v>
+        <v>14.433875926698381</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="7"/>
-        <v>0.83710823163265369</v>
+        <v>3.737108231632654</v>
       </c>
       <c r="C99">
         <f t="shared" si="8"/>
@@ -5896,23 +5896,23 @@
       </c>
       <c r="D99">
         <f t="shared" si="9"/>
-        <v>0.90371500808100225</v>
+        <v>3.752589580449778</v>
       </c>
       <c r="E99">
         <f t="shared" si="10"/>
-        <v>0.22592875202025056</v>
+        <v>0.93814739511244449</v>
       </c>
       <c r="F99">
         <f t="shared" si="11"/>
-        <v>26.646009523073531</v>
+        <v>135.59059515018777</v>
       </c>
       <c r="G99">
         <f t="shared" si="12"/>
-        <v>106.58403809229412</v>
+        <v>542.36238060075107</v>
       </c>
       <c r="H99">
         <f t="shared" si="13"/>
-        <v>2.7470112910385085</v>
+        <v>13.978411871153378</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="7"/>
-        <v>0.76946939999999975</v>
+        <v>3.6694694000000001</v>
       </c>
       <c r="C100">
         <f t="shared" si="8"/>
@@ -5929,23 +5929,23 @@
       </c>
       <c r="D100">
         <f t="shared" si="9"/>
-        <v>0.84431214016950185</v>
+        <v>3.6858900566942587</v>
       </c>
       <c r="E100">
         <f t="shared" si="10"/>
-        <v>0.21107803504237546</v>
+        <v>0.92147251417356468</v>
       </c>
       <c r="F100">
         <f t="shared" si="11"/>
-        <v>24.777486989638</v>
+        <v>132.60691164734277</v>
       </c>
       <c r="G100">
         <f t="shared" si="12"/>
-        <v>99.109947958551999</v>
+        <v>530.42764658937108</v>
       </c>
       <c r="H100">
         <f t="shared" si="13"/>
-        <v>2.528314998942653</v>
+        <v>13.531317515034976</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="B101">
         <f t="shared" si="7"/>
-        <v>0.70111563571428537</v>
+        <v>3.6011156357142857</v>
       </c>
       <c r="C101">
         <f t="shared" si="8"/>
@@ -5962,23 +5962,23 @@
       </c>
       <c r="D101">
         <f t="shared" si="9"/>
-        <v>0.78569808074099234</v>
+        <v>3.6185345322689595</v>
       </c>
       <c r="E101">
         <f t="shared" si="10"/>
-        <v>0.19642452018524809</v>
+        <v>0.90463363306723987</v>
       </c>
       <c r="F101">
         <f t="shared" si="11"/>
-        <v>22.949917695413028</v>
+        <v>129.6149522348116</v>
       </c>
       <c r="G101">
         <f t="shared" si="12"/>
-        <v>91.799670781652111</v>
+        <v>518.45980893924639</v>
       </c>
       <c r="H101">
         <f t="shared" si="13"/>
-        <v>2.3181735045871745</v>
+        <v>13.092419417657737</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
@@ -5987,7 +5987,7 @@
       </c>
       <c r="B102">
         <f t="shared" si="7"/>
-        <v>0.6320469387755101</v>
+        <v>3.5320469387755105</v>
       </c>
       <c r="C102">
         <f t="shared" si="8"/>
@@ -5995,23 +5995,23 @@
       </c>
       <c r="D102">
         <f t="shared" si="9"/>
-        <v>0.7282667944021417</v>
+        <v>3.5505273930399035</v>
       </c>
       <c r="E102">
         <f t="shared" si="10"/>
-        <v>0.18206669860053543</v>
+        <v>0.88763184825997588</v>
       </c>
       <c r="F102">
         <f t="shared" si="11"/>
-        <v>21.174778193709418</v>
+        <v>126.61552826528921</v>
       </c>
       <c r="G102">
         <f t="shared" si="12"/>
-        <v>84.699112774837673</v>
+        <v>506.46211306115686</v>
       </c>
       <c r="H102">
         <f t="shared" si="13"/>
-        <v>2.1174778193709418</v>
+        <v>12.661552826528922</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
@@ -6020,7 +6020,7 @@
       </c>
       <c r="B103">
         <f t="shared" si="7"/>
-        <v>0.56226330918367395</v>
+        <v>3.4622633091836743</v>
       </c>
       <c r="C103">
         <f t="shared" si="8"/>
@@ -6028,23 +6028,23 @@
       </c>
       <c r="D103">
         <f t="shared" si="9"/>
-        <v>0.67254404516191613</v>
+        <v>3.4818734448494912</v>
       </c>
       <c r="E103">
         <f t="shared" si="10"/>
-        <v>0.16813601129047903</v>
+        <v>0.87046836121237281</v>
       </c>
       <c r="F103">
         <f t="shared" si="11"/>
-        <v>19.467160437523209</v>
+        <v>123.60946981662497</v>
       </c>
       <c r="G103">
         <f t="shared" si="12"/>
-        <v>77.868641750092834</v>
+        <v>494.43787926649986</v>
       </c>
       <c r="H103">
         <f t="shared" si="13"/>
-        <v>1.9274416274775454</v>
+        <v>12.238561367982671</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="B104">
         <f t="shared" si="7"/>
-        <v>0.49176474693877692</v>
+        <v>3.3917647469387773</v>
       </c>
       <c r="C104">
         <f t="shared" si="8"/>
@@ -6061,23 +6061,23 @@
       </c>
       <c r="D104">
         <f t="shared" si="9"/>
-        <v>0.61923568337884671</v>
+        <v>3.4125779645034595</v>
       </c>
       <c r="E104">
         <f t="shared" si="10"/>
-        <v>0.15480892084471168</v>
+        <v>0.85314449112586488</v>
       </c>
       <c r="F104">
         <f t="shared" si="11"/>
-        <v>17.84709369453255</v>
+        <v>120.59762708765379</v>
       </c>
       <c r="G104">
         <f t="shared" si="12"/>
-        <v>71.388374778130199</v>
+        <v>482.39050835061516</v>
       </c>
       <c r="H104">
         <f t="shared" si="13"/>
-        <v>1.7497150680914266</v>
+        <v>11.823296773299392</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B105">
         <f t="shared" si="7"/>
-        <v>0.42055125204081589</v>
+        <v>3.3205512520408162</v>
       </c>
       <c r="C105">
         <f t="shared" si="8"/>
@@ -6094,23 +6094,23 @@
       </c>
       <c r="D105">
         <f t="shared" si="9"/>
-        <v>0.56928910840250746</v>
+        <v>3.3426467583013402</v>
       </c>
       <c r="E105">
         <f t="shared" si="10"/>
-        <v>0.14232227710062686</v>
+        <v>0.83566168957533504</v>
       </c>
       <c r="F105">
         <f t="shared" si="11"/>
-        <v>16.34122716304503</v>
+        <v>117.58087200053996</v>
       </c>
       <c r="G105">
         <f t="shared" si="12"/>
-        <v>65.364908652180119</v>
+        <v>470.32348800215982</v>
       </c>
       <c r="H105">
         <f t="shared" si="13"/>
-        <v>1.5865269090334979</v>
+        <v>11.415618640829122</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="B106">
         <f t="shared" si="7"/>
-        <v>0.34862282448979665</v>
+        <v>3.248622824489797</v>
       </c>
       <c r="C106">
         <f t="shared" si="8"/>
@@ -6127,23 +6127,23 @@
       </c>
       <c r="D106">
         <f t="shared" si="9"/>
-        <v>0.52396174554608776</v>
+        <v>3.2720862294316948</v>
       </c>
       <c r="E106">
         <f t="shared" si="10"/>
-        <v>0.13099043638652194</v>
+        <v>0.8180215573579237</v>
       </c>
       <c r="F106">
         <f t="shared" si="11"/>
-        <v>14.984704613947672</v>
+        <v>114.56010004580519</v>
       </c>
       <c r="G106">
         <f t="shared" si="12"/>
-        <v>59.938818455790688</v>
+        <v>458.24040018322074</v>
       </c>
       <c r="H106">
         <f t="shared" si="13"/>
-        <v>1.440836982110353</v>
+        <v>11.015394235173575</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="B107">
         <f t="shared" si="7"/>
-        <v>0.27597946428571429</v>
+        <v>3.1759794642857146</v>
       </c>
       <c r="C107">
         <f t="shared" si="8"/>
@@ -6160,23 +6160,23 @@
       </c>
       <c r="D107">
         <f t="shared" si="9"/>
-        <v>0.48487322119597248</v>
+        <v>3.2009034558215128</v>
       </c>
       <c r="E107">
         <f t="shared" si="10"/>
-        <v>0.12121830529899312</v>
+        <v>0.8002258639553782</v>
       </c>
       <c r="F107">
         <f t="shared" si="11"/>
-        <v>13.82259274896361</v>
+        <v>111.53623241355223</v>
       </c>
       <c r="G107">
         <f t="shared" si="12"/>
-        <v>55.290370995854438</v>
+        <v>446.14492965420891</v>
       </c>
       <c r="H107">
         <f t="shared" si="13"/>
-        <v>1.3164374046632008</v>
+        <v>10.622498325100212</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
@@ -6185,7 +6185,7 @@
       </c>
       <c r="B108">
         <f t="shared" si="7"/>
-        <v>0.20262117142857239</v>
+        <v>3.1026211714285727</v>
       </c>
       <c r="C108">
         <f t="shared" si="8"/>
@@ -6193,23 +6193,23 @@
       </c>
       <c r="D108">
         <f t="shared" si="9"/>
-        <v>0.45398603447618335</v>
+        <v>3.1291062803594785</v>
       </c>
       <c r="E108">
         <f t="shared" si="10"/>
-        <v>0.11349650861904584</v>
+        <v>0.78227657008986962</v>
       </c>
       <c r="F108">
         <f t="shared" si="11"/>
-        <v>12.909352063523221</v>
+        <v>108.51021846343869</v>
       </c>
       <c r="G108">
         <f t="shared" si="12"/>
-        <v>51.637408254092882</v>
+        <v>434.04087385375476</v>
       </c>
       <c r="H108">
         <f t="shared" si="13"/>
-        <v>1.2178634022191719</v>
+        <v>10.236813062588556</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="B109">
         <f t="shared" si="7"/>
-        <v>0.12854794591836871</v>
+        <v>3.0285479459183691</v>
       </c>
       <c r="C109">
         <f t="shared" si="8"/>
@@ -6226,23 +6226,23 @@
       </c>
       <c r="D109">
         <f t="shared" si="9"/>
-        <v>0.43342552528150408</v>
+        <v>3.056703415821052</v>
       </c>
       <c r="E109">
         <f t="shared" si="10"/>
-        <v>0.10835638132037602</v>
+        <v>0.764175853955263</v>
       </c>
       <c r="F109">
         <f t="shared" si="11"/>
-        <v>12.303908248656287</v>
+        <v>105.48303859713107</v>
       </c>
       <c r="G109">
         <f t="shared" si="12"/>
-        <v>49.215632994625146</v>
+        <v>421.93215438852428</v>
       </c>
       <c r="H109">
         <f t="shared" si="13"/>
-        <v>1.1498979671641389</v>
+        <v>9.8582279062739318</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
@@ -6251,7 +6251,7 @@
       </c>
       <c r="B110">
         <f t="shared" si="7"/>
-        <v>5.3759787755101485E-2</v>
+        <v>2.9537597877551018</v>
       </c>
       <c r="C110">
         <f t="shared" si="8"/>
@@ -6259,23 +6259,23 @@
       </c>
       <c r="D110">
         <f t="shared" si="9"/>
-        <v>0.42507196582511847</v>
+        <v>2.9837045673306903</v>
       </c>
       <c r="E110">
         <f t="shared" si="10"/>
-        <v>0.10626799145627962</v>
+        <v>0.74592614183267258</v>
       </c>
       <c r="F110">
         <f t="shared" si="11"/>
-        <v>12.058485191812029</v>
+        <v>102.4557076108596</v>
       </c>
       <c r="G110">
         <f t="shared" si="12"/>
-        <v>48.233940767248114</v>
+        <v>409.82283044343842</v>
       </c>
       <c r="H110">
         <f t="shared" si="13"/>
-        <v>1.1165264066492617</v>
+        <v>9.4866395935981114</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
@@ -6284,7 +6284,7 @@
       </c>
       <c r="B111">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.8782566969387755</v>
       </c>
       <c r="C111">
         <f t="shared" si="8"/>
@@ -6292,23 +6292,23 @@
       </c>
       <c r="D111">
         <f t="shared" si="9"/>
-        <v>0.42946496061224482</v>
+        <v>2.9101205758295627</v>
       </c>
       <c r="E111">
         <f t="shared" si="10"/>
-        <v>0.1073662401530612</v>
+        <v>0.72753014395739068</v>
       </c>
       <c r="F111">
         <f t="shared" si="11"/>
-        <v>12.187508403412192</v>
+        <v>99.429278623025027</v>
       </c>
       <c r="G111">
         <f t="shared" si="12"/>
-        <v>48.750033613648768</v>
+        <v>397.71711449210011</v>
       </c>
       <c r="H111">
         <f t="shared" si="13"/>
-        <v>1.1181200370102928</v>
+        <v>9.1219521672500026</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="B112">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.8020386734693883</v>
       </c>
       <c r="C112">
         <f t="shared" si="8"/>
@@ -6325,23 +6325,23 @@
       </c>
       <c r="D112">
         <f t="shared" si="9"/>
-        <v>0.43734281530612235</v>
+        <v>2.8359635868110109</v>
       </c>
       <c r="E112">
         <f t="shared" si="10"/>
-        <v>0.10933570382653059</v>
+        <v>0.70899089670275273</v>
       </c>
       <c r="F112">
         <f t="shared" si="11"/>
-        <v>12.419108273094528</v>
+        <v>96.404847693540518</v>
       </c>
       <c r="G112">
         <f t="shared" si="12"/>
-        <v>49.676433092378112</v>
+        <v>385.61939077416207</v>
       </c>
       <c r="H112">
         <f t="shared" si="13"/>
-        <v>1.1290098430085935</v>
+        <v>8.7640770630491378</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="B113">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.7251057173469393</v>
       </c>
       <c r="C113">
         <f t="shared" si="8"/>
@@ -6358,23 +6358,23 @@
       </c>
       <c r="D113">
         <f t="shared" si="9"/>
-        <v>0.44529226653061216</v>
+        <v>2.7612472495864884</v>
       </c>
       <c r="E113">
         <f t="shared" si="10"/>
-        <v>0.11132306663265304</v>
+        <v>0.69031181239662209</v>
       </c>
       <c r="F113">
         <f t="shared" si="11"/>
-        <v>12.653106583408704</v>
+        <v>93.383559278983697</v>
       </c>
       <c r="G113">
         <f t="shared" si="12"/>
-        <v>50.612426333634815</v>
+        <v>373.53423711593479</v>
       </c>
       <c r="H113">
         <f t="shared" si="13"/>
-        <v>1.1399195120188022</v>
+        <v>8.4129332683769107</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="B114">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.6474578285714303</v>
       </c>
       <c r="C114">
         <f t="shared" si="8"/>
@@ -6391,23 +6391,23 @@
       </c>
       <c r="D114">
         <f t="shared" si="9"/>
-        <v>0.45331331428571425</v>
+        <v>2.6859869536118102</v>
       </c>
       <c r="E114">
         <f t="shared" si="10"/>
-        <v>0.11332832857142856</v>
+        <v>0.67149673840295254</v>
       </c>
       <c r="F114">
         <f t="shared" si="11"/>
-        <v>12.889511302734604</v>
+        <v>90.366612702320595</v>
       </c>
       <c r="G114">
         <f t="shared" si="12"/>
-        <v>51.558045210938417</v>
+        <v>361.46645080928238</v>
       </c>
       <c r="H114">
         <f t="shared" si="13"/>
-        <v>1.1508492234584469</v>
+        <v>8.0684475627071972</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B115">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.5690950071428578</v>
       </c>
       <c r="C115">
         <f t="shared" si="8"/>
@@ -6424,23 +6424,23 @@
       </c>
       <c r="D115">
         <f t="shared" si="9"/>
-        <v>0.46140595857142852</v>
+        <v>2.6102001100167742</v>
       </c>
       <c r="E115">
         <f t="shared" si="10"/>
-        <v>0.11535148964285713</v>
+        <v>0.65255002750419355</v>
       </c>
       <c r="F115">
         <f t="shared" si="11"/>
-        <v>13.128330471219115</v>
+        <v>87.355269860127549</v>
       </c>
       <c r="G115">
         <f t="shared" si="12"/>
-        <v>52.513321884876461</v>
+        <v>349.4210794405102</v>
       </c>
       <c r="H115">
         <f t="shared" si="13"/>
-        <v>1.1617991567450543</v>
+        <v>7.7305548548785437</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B116">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.4900172530612252</v>
       </c>
       <c r="C116">
         <f t="shared" si="8"/>
@@ -6457,23 +6457,23 @@
       </c>
       <c r="D116">
         <f t="shared" si="9"/>
-        <v>0.46957019938775502</v>
+        <v>2.533906488546021</v>
       </c>
       <c r="E116">
         <f t="shared" si="10"/>
-        <v>0.11739254984693875</v>
+        <v>0.63347662213650524</v>
       </c>
       <c r="F116">
         <f t="shared" si="11"/>
-        <v>13.369572200776151</v>
+        <v>84.350864446764888</v>
       </c>
       <c r="G116">
         <f t="shared" si="12"/>
-        <v>53.478288803104604</v>
+        <v>337.40345778705955</v>
       </c>
       <c r="H116">
         <f t="shared" si="13"/>
-        <v>1.1727694912961535</v>
+        <v>7.3991986356811301</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="B117">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.4102245663265318</v>
       </c>
       <c r="C117">
         <f t="shared" si="8"/>
@@ -6490,23 +6490,23 @@
       </c>
       <c r="D117">
         <f t="shared" si="9"/>
-        <v>0.47780603673469374</v>
+        <v>2.4571286227757865</v>
       </c>
       <c r="E117">
         <f t="shared" si="10"/>
-        <v>0.11945150918367343</v>
+        <v>0.61428215569394662</v>
       </c>
       <c r="F117">
         <f t="shared" si="11"/>
-        <v>13.613244675086621</v>
+        <v>81.35481304768733</v>
       </c>
       <c r="G117">
         <f t="shared" si="12"/>
-        <v>54.452978700346485</v>
+        <v>325.41925219074932</v>
       </c>
       <c r="H117">
         <f t="shared" si="13"/>
-        <v>1.1837604065292715</v>
+        <v>7.0743315693641158</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
@@ -6515,7 +6515,7 @@
       </c>
       <c r="B118">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.3297169469387766</v>
       </c>
       <c r="C118">
         <f t="shared" si="8"/>
@@ -6523,23 +6523,23 @@
       </c>
       <c r="D118">
         <f t="shared" si="9"/>
-        <v>0.4861134706122448</v>
+        <v>2.379892299908636</v>
       </c>
       <c r="E118">
         <f t="shared" si="10"/>
-        <v>0.1215283676530612</v>
+        <v>0.59497307497715901</v>
       </c>
       <c r="F118">
         <f t="shared" si="11"/>
-        <v>13.859356149598462</v>
+        <v>78.36862854818159</v>
       </c>
       <c r="G118">
         <f t="shared" si="12"/>
-        <v>55.437424598393847</v>
+        <v>313.47451419272636</v>
       </c>
       <c r="H118">
         <f t="shared" si="13"/>
-        <v>1.1947720818619363</v>
+        <v>6.7559162541535853</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="B119">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.2484943948979614</v>
       </c>
       <c r="C119">
         <f t="shared" si="8"/>
@@ -6556,23 +6556,23 @@
       </c>
       <c r="D119">
         <f t="shared" si="9"/>
-        <v>0.49449250102040809</v>
+        <v>2.3022271559194518</v>
       </c>
       <c r="E119">
         <f t="shared" si="10"/>
-        <v>0.12362312525510202</v>
+        <v>0.57555678897986295</v>
       </c>
       <c r="F119">
         <f t="shared" si="11"/>
-        <v>14.107914951526602</v>
+        <v>75.393936426225025</v>
       </c>
       <c r="G119">
         <f t="shared" si="12"/>
-        <v>56.43165980610641</v>
+        <v>301.5757457049001</v>
       </c>
       <c r="H119">
         <f t="shared" si="13"/>
-        <v>1.2058046967116756</v>
+        <v>6.4439261902756435</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="B120">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.1665569102040809</v>
       </c>
       <c r="C120">
         <f t="shared" si="8"/>
@@ -6589,23 +6589,23 @@
       </c>
       <c r="D120">
         <f t="shared" si="9"/>
-        <v>0.50294312795918361</v>
+        <v>2.2241674026732841</v>
       </c>
       <c r="E120">
         <f t="shared" si="10"/>
-        <v>0.1257357819897959</v>
+        <v>0.55604185066832101</v>
       </c>
       <c r="F120">
         <f t="shared" si="11"/>
-        <v>14.358929479852998</v>
+        <v>72.432494658237516</v>
       </c>
       <c r="G120">
         <f t="shared" si="12"/>
-        <v>57.435717919411992</v>
+        <v>289.72997863295006</v>
       </c>
       <c r="H120">
         <f t="shared" si="13"/>
-        <v>1.2168584304960166</v>
+        <v>6.1383470049353823</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="B121">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.083904492857144</v>
       </c>
       <c r="C121">
         <f t="shared" si="8"/>
@@ -6622,23 +6622,23 @@
       </c>
       <c r="D121">
         <f t="shared" si="9"/>
-        <v>0.5114653514285713</v>
+        <v>2.14575272132232</v>
       </c>
       <c r="E121">
         <f t="shared" si="10"/>
-        <v>0.12786633785714283</v>
+        <v>0.53643818033057999</v>
       </c>
       <c r="F121">
         <f t="shared" si="11"/>
-        <v>14.612408205326604</v>
+        <v>69.486218176930336</v>
       </c>
       <c r="G121">
         <f t="shared" si="12"/>
-        <v>58.449632821306416</v>
+        <v>277.94487270772134</v>
       </c>
       <c r="H121">
         <f t="shared" si="13"/>
-        <v>1.2279334626324876</v>
+        <v>5.8391779980613725</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
@@ -6647,7 +6647,7 @@
       </c>
       <c r="B122">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.0005371428571435</v>
       </c>
       <c r="C122">
         <f t="shared" si="8"/>
@@ -6655,23 +6655,23 @@
       </c>
       <c r="D122">
         <f t="shared" si="9"/>
-        <v>0.52005917142857139</v>
+        <v>2.0670293664430592</v>
       </c>
       <c r="E122">
         <f t="shared" si="10"/>
-        <v>0.13001479285714285</v>
+        <v>0.51675734161076481</v>
       </c>
       <c r="F122">
         <f t="shared" si="11"/>
-        <v>14.8683596704634</v>
+        <v>66.557209098428785</v>
       </c>
       <c r="G122">
         <f t="shared" si="12"/>
-        <v>59.473438681853601</v>
+        <v>266.22883639371514</v>
       </c>
       <c r="H122">
         <f t="shared" si="13"/>
-        <v>1.2390299725386167</v>
+        <v>5.5464340915357324</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
@@ -6680,7 +6680,7 @@
       </c>
       <c r="B123">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.9164548602040821</v>
       </c>
       <c r="C123">
         <f t="shared" si="8"/>
@@ -6688,23 +6688,23 @@
       </c>
       <c r="D123">
         <f t="shared" si="9"/>
-        <v>0.52872458795918353</v>
+        <v>1.9880515388471336</v>
       </c>
       <c r="E123">
         <f t="shared" si="10"/>
-        <v>0.13218114698979588</v>
+        <v>0.4970128847117834</v>
       </c>
       <c r="F123">
         <f t="shared" si="11"/>
-        <v>15.126792489546361</v>
+        <v>63.647794304669226</v>
       </c>
       <c r="G123">
         <f t="shared" si="12"/>
-        <v>60.507169958185443</v>
+        <v>254.5911772186769</v>
       </c>
       <c r="H123">
         <f t="shared" si="13"/>
-        <v>1.2501481396319307</v>
+        <v>5.2601482896420846</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="B124">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.8316576448979616</v>
       </c>
       <c r="C124">
         <f t="shared" si="8"/>
@@ -6721,23 +6721,23 @@
       </c>
       <c r="D124">
         <f t="shared" si="9"/>
-        <v>0.53746160102040808</v>
+        <v>1.9088831029386182</v>
       </c>
       <c r="E124">
         <f t="shared" si="10"/>
-        <v>0.13436540025510202</v>
+        <v>0.47722077573465455</v>
       </c>
       <c r="F124">
         <f t="shared" si="11"/>
-        <v>15.387715348625488</v>
+        <v>60.760572458182722</v>
       </c>
       <c r="G124">
         <f t="shared" si="12"/>
-        <v>61.55086139450195</v>
+        <v>243.04228983273089</v>
       </c>
       <c r="H124">
         <f t="shared" si="13"/>
-        <v>1.2612881433299581</v>
+        <v>4.980374791654322</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
@@ -6746,7 +6746,7 @@
       </c>
       <c r="B125">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.7461454969387757</v>
       </c>
       <c r="C125">
         <f t="shared" si="8"/>
@@ -6754,23 +6754,23 @@
       </c>
       <c r="D125">
         <f t="shared" si="9"/>
-        <v>0.54627021061224479</v>
+        <v>1.8295997484373214</v>
       </c>
       <c r="E125">
         <f t="shared" si="10"/>
-        <v>0.1365675526530612</v>
+        <v>0.45739993710933036</v>
       </c>
       <c r="F125">
         <f t="shared" si="11"/>
-        <v>15.651137005517782</v>
+        <v>57.898473181947885</v>
       </c>
       <c r="G125">
         <f t="shared" si="12"/>
-        <v>62.604548022071128</v>
+        <v>231.59389272779154</v>
       </c>
       <c r="H125">
         <f t="shared" si="13"/>
-        <v>1.2724501630502261</v>
+        <v>4.7071929416217788</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="B126">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.6599184163265317</v>
       </c>
       <c r="C126">
         <f t="shared" si="8"/>
@@ -6787,23 +6787,23 @@
       </c>
       <c r="D126">
         <f t="shared" si="9"/>
-        <v>0.55515041673469379</v>
+        <v>1.7502917282729429</v>
       </c>
       <c r="E126">
         <f t="shared" si="10"/>
-        <v>0.13878760418367345</v>
+        <v>0.43757293206823572</v>
       </c>
       <c r="F126">
         <f t="shared" si="11"/>
-        <v>15.917066289807259</v>
+        <v>55.064832012635208</v>
       </c>
       <c r="G126">
         <f t="shared" si="12"/>
-        <v>63.668265159229037</v>
+        <v>220.25932805054083</v>
       </c>
       <c r="H126">
         <f t="shared" si="13"/>
-        <v>1.2836343782102628</v>
+        <v>4.440712259083484</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="B127">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.572976403061225</v>
       </c>
       <c r="C127">
         <f t="shared" si="8"/>
@@ -6820,23 +6820,23 @@
       </c>
       <c r="D127">
         <f t="shared" si="9"/>
-        <v>0.56410221938775507</v>
+        <v>1.6710673470885666</v>
       </c>
       <c r="E127">
         <f t="shared" si="10"/>
-        <v>0.14102555484693877</v>
+        <v>0.41776683677214166</v>
       </c>
       <c r="F127">
         <f t="shared" si="11"/>
-        <v>16.18551210284495</v>
+        <v>52.263485902711366</v>
       </c>
       <c r="G127">
         <f t="shared" si="12"/>
-        <v>64.742048411379798</v>
+        <v>209.05394361084547</v>
       </c>
       <c r="H127">
         <f t="shared" si="13"/>
-        <v>1.2948409682275959</v>
+        <v>4.1810788722169097</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="B128">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.4853194571428583</v>
       </c>
       <c r="C128">
         <f t="shared" si="8"/>
@@ -6853,23 +6853,23 @@
       </c>
       <c r="D128">
         <f t="shared" si="9"/>
-        <v>0.57312561857142841</v>
+        <v>1.5920574312599522</v>
       </c>
       <c r="E128">
         <f t="shared" si="10"/>
-        <v>0.1432814046428571</v>
+        <v>0.39801435781498806</v>
       </c>
       <c r="F128">
         <f t="shared" si="11"/>
-        <v>16.456483417748881</v>
+        <v>49.498895592754657</v>
       </c>
       <c r="G128">
         <f t="shared" si="12"/>
-        <v>65.825933670995525</v>
+        <v>197.99558237101863</v>
       </c>
       <c r="H128">
         <f t="shared" si="13"/>
-        <v>1.3060701125197525</v>
+        <v>3.9284837772027505</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="B129">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.3969475785714298</v>
       </c>
       <c r="C129">
         <f t="shared" si="8"/>
@@ -6886,23 +6886,23 @@
       </c>
       <c r="D129">
         <f t="shared" si="9"/>
-        <v>0.58222061428571414</v>
+        <v>1.5134210851497396</v>
       </c>
       <c r="E129">
         <f t="shared" si="10"/>
-        <v>0.14555515357142854</v>
+        <v>0.3783552712874349</v>
       </c>
       <c r="F129">
         <f t="shared" si="11"/>
-        <v>16.729989279404123</v>
+        <v>46.77630319604441</v>
       </c>
       <c r="G129">
         <f t="shared" si="12"/>
-        <v>66.919957117616491</v>
+        <v>187.10521278417764</v>
       </c>
       <c r="H129">
         <f t="shared" si="13"/>
-        <v>1.3173219905042617</v>
+        <v>3.683173480003497</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
@@ -6911,7 +6911,7 @@
       </c>
       <c r="B130">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.3078607673469396</v>
       </c>
       <c r="C130">
         <f t="shared" si="8"/>
@@ -6919,23 +6919,23 @@
       </c>
       <c r="D130">
         <f t="shared" si="9"/>
-        <v>0.59138720653061216</v>
+        <v>1.4353531324428168</v>
       </c>
       <c r="E130">
         <f t="shared" si="10"/>
-        <v>0.14784680163265304</v>
+        <v>0.3588382831107042</v>
       </c>
       <c r="F130">
         <f t="shared" si="11"/>
-        <v>17.006038804462719</v>
+        <v>44.101935914334604</v>
       </c>
       <c r="G130">
         <f t="shared" si="12"/>
-        <v>68.024155217850875</v>
+        <v>176.40774365733841</v>
       </c>
       <c r="H130">
         <f t="shared" si="13"/>
-        <v>1.3285967815986499</v>
+        <v>3.4454637433073909</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B131">
         <f t="shared" ref="B131:B194" si="14">IF($K$4-(0.350317*A131*A131-0.202576*A131)/9.8&gt;0, $K$4-(0.350317*A131*A131-0.202576*A131)/9.8, 0)</f>
-        <v>0</v>
+        <v>1.2180590234693884</v>
       </c>
       <c r="C131">
         <f t="shared" ref="C131:C194" si="15">(0.0350823*A131*A131+0.00372739*A131)/9.8</f>
@@ -6952,23 +6952,23 @@
       </c>
       <c r="D131">
         <f t="shared" ref="D131:D194" si="16">SQRT(C131*C131+B131*B131)</f>
-        <v>0.60062539530612236</v>
+        <v>1.3580937560204878</v>
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E194" si="17">D131/4</f>
-        <v>0.15015634882653059</v>
+        <v>0.33952343900512194</v>
       </c>
       <c r="F131">
         <f t="shared" ref="F131:F194" si="18">1000000*0.0000373344395*E131*E131+ 1000*0.109504955*E131</f>
-        <v>17.284641181343748</v>
+        <v>41.483269941350628</v>
       </c>
       <c r="G131">
         <f t="shared" ref="G131:G194" si="19">F131*4</f>
-        <v>69.138564725374991</v>
+        <v>165.93307976540251</v>
       </c>
       <c r="H131">
         <f t="shared" ref="H131:H194" si="20">F131/A131</f>
-        <v>1.3398946652204455</v>
+        <v>3.2157573597946221</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="B132">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.1275423469387755</v>
       </c>
       <c r="C132">
         <f t="shared" si="15"/>
@@ -6985,23 +6985,23 @@
       </c>
       <c r="D132">
         <f t="shared" si="16"/>
-        <v>0.60993518061224483</v>
+        <v>1.2819409770690278</v>
       </c>
       <c r="E132">
         <f t="shared" si="17"/>
-        <v>0.15248379515306121</v>
+        <v>0.32048524426725694</v>
       </c>
       <c r="F132">
         <f t="shared" si="18"/>
-        <v>17.565805670233296</v>
+        <v>38.929372093844449</v>
       </c>
       <c r="G132">
         <f t="shared" si="19"/>
-        <v>70.263222680933183</v>
+        <v>155.7174883753778</v>
       </c>
       <c r="H132">
         <f t="shared" si="20"/>
-        <v>1.3512158207871765</v>
+        <v>2.9945670841418806</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="B133">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.0363107377551035</v>
       </c>
       <c r="C133">
         <f t="shared" si="15"/>
@@ -7018,23 +7018,23 @@
       </c>
       <c r="D133">
         <f t="shared" si="16"/>
-        <v>0.61931656244897948</v>
+        <v>1.2072667268297208</v>
       </c>
       <c r="E133">
         <f t="shared" si="17"/>
-        <v>0.15482914061224487</v>
+        <v>0.3018166817074302</v>
       </c>
       <c r="F133">
         <f t="shared" si="18"/>
-        <v>17.849541603084443</v>
+        <v>36.451339795660843</v>
       </c>
       <c r="G133">
         <f t="shared" si="19"/>
-        <v>71.398166412337773</v>
+        <v>145.80535918264337</v>
       </c>
       <c r="H133">
         <f t="shared" si="20"/>
-        <v>1.3625604277163696</v>
+        <v>2.7825450225695301</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="B134">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.94436419591836884</v>
       </c>
       <c r="C134">
         <f t="shared" si="15"/>
@@ -7051,23 +7051,23 @@
       </c>
       <c r="D134">
         <f t="shared" si="16"/>
-        <v>0.6287695408163263</v>
+        <v>1.1345372933451421</v>
       </c>
       <c r="E134">
         <f t="shared" si="17"/>
-        <v>0.15719238520408158</v>
+        <v>0.28363432333628552</v>
       </c>
       <c r="F134">
         <f t="shared" si="18"/>
-        <v>18.135858383617304</v>
+        <v>34.062860832745166</v>
       </c>
       <c r="G134">
         <f t="shared" si="19"/>
-        <v>72.543433534469216</v>
+        <v>136.25144333098066</v>
       </c>
       <c r="H134">
         <f t="shared" si="20"/>
-        <v>1.3739286654255534</v>
+        <v>2.5805197600564522</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="B135">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.8517027214285724</v>
       </c>
       <c r="C135">
         <f t="shared" si="15"/>
@@ -7084,23 +7084,23 @@
       </c>
       <c r="D135">
         <f t="shared" si="16"/>
-        <v>0.63829411571428574</v>
+        <v>1.0643387166895313</v>
       </c>
       <c r="E135">
         <f t="shared" si="17"/>
-        <v>0.15957352892857143</v>
+        <v>0.26608467917238282</v>
       </c>
       <c r="F135">
         <f t="shared" si="18"/>
-        <v>18.424765487319004</v>
+        <v>31.78090857903328</v>
       </c>
       <c r="G135">
         <f t="shared" si="19"/>
-        <v>73.699061949276015</v>
+        <v>127.12363431613312</v>
       </c>
       <c r="H135">
         <f t="shared" si="20"/>
-        <v>1.3853207133322558</v>
+        <v>2.3895419984235549</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
@@ -7109,7 +7109,7 @@
       </c>
       <c r="B136">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.75832631428571418</v>
       </c>
       <c r="C136">
         <f t="shared" si="15"/>
@@ -7117,23 +7117,23 @@
       </c>
       <c r="D136">
         <f t="shared" si="16"/>
-        <v>0.64789028714285712</v>
+        <v>0.99740694960091869</v>
       </c>
       <c r="E136">
         <f t="shared" si="17"/>
-        <v>0.16197257178571428</v>
+        <v>0.24935173740022967</v>
       </c>
       <c r="F136">
         <f t="shared" si="18"/>
-        <v>18.716272461443651</v>
+        <v>29.626567681117407</v>
       </c>
       <c r="G136">
         <f t="shared" si="19"/>
-        <v>74.865089845774605</v>
+        <v>118.50627072446963</v>
       </c>
       <c r="H136">
         <f t="shared" si="20"/>
-        <v>1.3967367508540038</v>
+        <v>2.2109378866505529</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="B137">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.66423497448979685</v>
       </c>
       <c r="C137">
         <f t="shared" si="15"/>
@@ -7150,23 +7150,23 @@
       </c>
       <c r="D137">
         <f t="shared" si="16"/>
-        <v>0.65755805510204079</v>
+        <v>0.93466073907329583</v>
       </c>
       <c r="E137">
         <f t="shared" si="17"/>
-        <v>0.1643895137755102</v>
+        <v>0.23366518476832396</v>
       </c>
       <c r="F137">
         <f t="shared" si="18"/>
-        <v>19.010388925012393</v>
+        <v>27.625934232563935</v>
       </c>
       <c r="G137">
         <f t="shared" si="19"/>
-        <v>76.041555700049571</v>
+        <v>110.50373693025574</v>
       </c>
       <c r="H137">
         <f t="shared" si="20"/>
-        <v>1.4081769574083254</v>
+        <v>2.0463654987084396</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="B138">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.56942870204081775</v>
       </c>
       <c r="C138">
         <f t="shared" si="15"/>
@@ -7183,23 +7183,23 @@
       </c>
       <c r="D138">
         <f t="shared" si="16"/>
-        <v>0.66729741959183653</v>
+        <v>0.87723137934174122</v>
       </c>
       <c r="E138">
         <f t="shared" si="17"/>
-        <v>0.16682435489795913</v>
+        <v>0.21930784483543531</v>
       </c>
       <c r="F138">
         <f t="shared" si="18"/>
-        <v>19.307124568813375</v>
+        <v>25.810930298737684</v>
       </c>
       <c r="G138">
         <f t="shared" si="19"/>
-        <v>77.2284982752535</v>
+        <v>103.24372119495074</v>
       </c>
       <c r="H138">
         <f t="shared" si="20"/>
-        <v>1.4196415124127482</v>
+        <v>1.8978625219660064</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B139">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.47390749693877776</v>
       </c>
       <c r="C139">
         <f t="shared" si="15"/>
@@ -7216,23 +7216,23 @@
       </c>
       <c r="D139">
         <f t="shared" si="16"/>
-        <v>0.67710838061224465</v>
+        <v>0.82647690515229399</v>
       </c>
       <c r="E139">
         <f t="shared" si="17"/>
-        <v>0.16927709515306116</v>
+        <v>0.2066192262880735</v>
       </c>
       <c r="F139">
         <f t="shared" si="18"/>
-        <v>19.606489155401768</v>
+        <v>24.219692475146655</v>
       </c>
       <c r="G139">
         <f t="shared" si="19"/>
-        <v>78.425956621607071</v>
+        <v>96.878769900586619</v>
       </c>
       <c r="H139">
         <f t="shared" si="20"/>
-        <v>1.4311305952848006</v>
+        <v>1.767860764609245</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B140">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.37767135918367423</v>
       </c>
       <c r="C140">
         <f t="shared" si="15"/>
@@ -7249,23 +7249,23 @@
       </c>
       <c r="D140">
         <f t="shared" si="16"/>
-        <v>0.68699093816326529</v>
+        <v>0.78395931314455802</v>
       </c>
       <c r="E140">
         <f t="shared" si="17"/>
-        <v>0.17174773454081632</v>
+        <v>0.19598982828613951</v>
       </c>
       <c r="F140">
         <f t="shared" si="18"/>
-        <v>19.908492519099742</v>
+        <v>22.895948294573785</v>
       </c>
       <c r="G140">
         <f t="shared" si="19"/>
-        <v>79.633970076398967</v>
+        <v>91.583793178295139</v>
       </c>
       <c r="H140">
         <f t="shared" si="20"/>
-        <v>1.4426443854420101</v>
+        <v>1.659126688012593</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
@@ -7274,7 +7274,7 @@
       </c>
       <c r="B141">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.2807202887755107</v>
       </c>
       <c r="C141">
         <f t="shared" si="15"/>
@@ -7282,23 +7282,23 @@
       </c>
       <c r="D141">
         <f t="shared" si="16"/>
-        <v>0.69694509224489787</v>
+        <v>0.75135633499322763</v>
       </c>
       <c r="E141">
         <f t="shared" si="17"/>
-        <v>0.17423627306122447</v>
+        <v>0.18783908374830691</v>
       </c>
       <c r="F141">
         <f t="shared" si="18"/>
-        <v>20.213144565996465</v>
+        <v>21.886600907535211</v>
       </c>
       <c r="G141">
         <f t="shared" si="19"/>
-        <v>80.852578263985862</v>
+        <v>87.546403630140844</v>
       </c>
       <c r="H141">
         <f t="shared" si="20"/>
-        <v>1.4541830623019039</v>
+        <v>1.5745756048586483</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
@@ -7307,7 +7307,7 @@
       </c>
       <c r="B142">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.18305428571428628</v>
       </c>
       <c r="C142">
         <f t="shared" si="15"/>
@@ -7315,23 +7315,23 @@
       </c>
       <c r="D142">
         <f t="shared" si="16"/>
-        <v>0.70697084285714262</v>
+        <v>0.73028531696077947</v>
       </c>
       <c r="E142">
         <f t="shared" si="17"/>
-        <v>0.17674271071428566</v>
+        <v>0.18257132924019487</v>
       </c>
       <c r="F142">
         <f t="shared" si="18"/>
-        <v>20.520455273948137</v>
+        <v>21.23690756686598</v>
       </c>
       <c r="G142">
         <f t="shared" si="19"/>
-        <v>82.081821095792549</v>
+        <v>84.947630267463921</v>
       </c>
       <c r="H142">
         <f t="shared" si="20"/>
-        <v>1.4657468052820097</v>
+        <v>1.5169219690618558</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
@@ -7340,7 +7340,7 @@
       </c>
       <c r="B143">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>8.4673350000000092E-2</v>
       </c>
       <c r="C143">
         <f t="shared" si="15"/>
@@ -7348,23 +7348,23 @@
       </c>
       <c r="D143">
         <f t="shared" si="16"/>
-        <v>0.71706818999999988</v>
+        <v>0.72205011274155928</v>
       </c>
       <c r="E143">
         <f t="shared" si="17"/>
-        <v>0.17926704749999997</v>
+        <v>0.18051252818538982</v>
       </c>
       <c r="F143">
         <f t="shared" si="18"/>
-        <v>20.830434692577978</v>
+        <v>20.983550505790454</v>
       </c>
       <c r="G143">
         <f t="shared" si="19"/>
-        <v>83.32173877031191</v>
+        <v>83.934202023161816</v>
       </c>
       <c r="H143">
         <f t="shared" si="20"/>
-        <v>1.4773357937998566</v>
+        <v>1.4881950713326564</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
@@ -40694,19 +40694,19 @@
         <v>#NUM!</v>
       </c>
       <c r="C963" t="e">
-        <f t="shared" ref="C963:C1026" si="90">0.350317*B963*B963-0.202576*B963</f>
+        <f t="shared" ref="C963:C1001" si="90">0.350317*B963*B963-0.202576*B963</f>
         <v>#NUM!</v>
       </c>
       <c r="D963" t="e">
-        <f t="shared" ref="D963:D1002" si="91">0.0350823*B963*B963+0.00372739*B963</f>
+        <f t="shared" ref="D963:D1001" si="91">0.0350823*B963*B963+0.00372739*B963</f>
         <v>#NUM!</v>
       </c>
       <c r="E963" t="e">
-        <f t="shared" ref="E963:E1002" si="92">SQRT($M$7*$M$7-($M$8-C963)*($M$8-C963))</f>
+        <f t="shared" ref="E963:E1001" si="92">SQRT($M$7*$M$7-($M$8-C963)*($M$8-C963))</f>
         <v>#NUM!</v>
       </c>
       <c r="F963" t="e">
-        <f t="shared" ref="F963:F1026" si="93">9.8*(E963/$M$8)</f>
+        <f t="shared" ref="F963:F1001" si="93">9.8*(E963/$M$8)</f>
         <v>#NUM!</v>
       </c>
       <c r="G963" t="e">
@@ -40719,7 +40719,7 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="B964" t="e">
-        <f t="shared" ref="B964:B1002" si="94">B963+F963/1000</f>
+        <f t="shared" ref="B964:B1001" si="94">B963+F963/1000</f>
         <v>#NUM!</v>
       </c>
       <c r="C964" t="e">
@@ -40739,7 +40739,7 @@
         <v>#NUM!</v>
       </c>
       <c r="G964" t="e">
-        <f t="shared" ref="G964:G1002" si="95">G963+B964/1000+F964/2000000</f>
+        <f t="shared" ref="G964:G1001" si="95">G963+B964/1000+F964/2000000</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -43218,7 +43218,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -43260,24 +43260,23 @@
         <v>28</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>8.4</v>
+        <v>10.02</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <f>SQRT(D2*D2+C2*C2)</f>
-        <v>8.4</v>
+        <v>10.02</v>
       </c>
       <c r="F2">
-        <v>3320</v>
+        <v>2100</v>
       </c>
       <c r="G2">
         <f>B2*F2/3600</f>
-        <v>1.8444444444444446</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -43300,7 +43299,7 @@
         <v>3320</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G10" si="0">B3*F3/3600</f>
+        <f t="shared" ref="G3:G6" si="0">B3*F3/3600</f>
         <v>0.73777777777777775</v>
       </c>
     </row>
@@ -43309,7 +43308,7 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>134</v>
+        <v>270</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -43322,11 +43321,11 @@
         <v>3.23</v>
       </c>
       <c r="F4">
-        <v>451</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>16.787222222222223</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -43352,18 +43351,18 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E10" si="1">SQRT(D6*D6+C6*C6)</f>
+        <f t="shared" ref="E6" si="1">SQRT(D6*D6+C6*C6)</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>31.138888888888889</v>
+        <v>27.222222222222221</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -43452,13 +43451,13 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G12">
         <f>SUM(G2:G10)</f>
-        <v>55.545833333333334</v>
+        <v>42.247499999999995</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13">
         <f>SUM(B2:B10)</f>
-        <v>279.20000000000005</v>
+        <v>438.20000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/Power & Propulsion System/Power Consumption.xlsx
+++ b/Power & Propulsion System/Power Consumption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Videos\UAS_Challenge\Power &amp; Propulsion System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3B06D6-868D-4BBD-BDC8-3E2E7F07DBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17157551-241B-4668-AF78-23B31047DCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="806" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="806" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Motors" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="119">
   <si>
     <t>Propeller</t>
   </si>
@@ -55,15 +55,6 @@
   </si>
   <si>
     <t>Motor</t>
-  </si>
-  <si>
-    <t>Voltage</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Power</t>
   </si>
   <si>
     <t>Thrust (g)</t>
@@ -119,15 +110,6 @@
     <t>Time (s)</t>
   </si>
   <si>
-    <t>Average Vertical Thrust (kgf)</t>
-  </si>
-  <si>
-    <t>Average Horizontal Thrust (kgf)</t>
-  </si>
-  <si>
-    <t>Average Total Thrust (kgf)</t>
-  </si>
-  <si>
     <t>Average Power Consumed (W)</t>
   </si>
   <si>
@@ -180,9 +162,6 @@
   </si>
   <si>
     <t>Transition to Vertical Flight</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Mass</t>
@@ -409,12 +388,30 @@
   <si>
     <t>Average Power</t>
   </si>
+  <si>
+    <t>Voltage (V)</t>
+  </si>
+  <si>
+    <t>Current (A)</t>
+  </si>
+  <si>
+    <t>Power (W)</t>
+  </si>
+  <si>
+    <t>Total Mission Time</t>
+  </si>
+  <si>
+    <t>Total Energy Consumed</t>
+  </si>
+  <si>
+    <t>Calculation for Optimum Energy Consumption</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +421,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -449,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -457,9 +469,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,11 +764,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175D03E5-8582-4481-A4D2-A6FC07404F11}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -778,27 +791,27 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>47.41</v>
@@ -1031,7 +1044,7 @@
     <row r="13" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>47.39</v>
@@ -1263,10 +1276,10 @@
     </row>
     <row r="24" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>23.47</v>
@@ -1499,7 +1512,7 @@
     <row r="35" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C35">
         <v>23.44</v>
@@ -1731,10 +1744,10 @@
     </row>
     <row r="46" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C46">
         <v>23.48</v>
@@ -1764,14 +1777,14 @@
         <v>3.78</v>
       </c>
       <c r="E47">
-        <f t="shared" ref="E47:E80" si="4">D47*C47</f>
+        <f t="shared" ref="E47:E82" si="4">D47*C47</f>
         <v>88.603200000000001</v>
       </c>
       <c r="F47">
         <v>845</v>
       </c>
       <c r="G47">
-        <f t="shared" ref="G47:G80" si="5">F47/E47</f>
+        <f t="shared" ref="G47:G82" si="5">F47/E47</f>
         <v>9.5369016017480188</v>
       </c>
     </row>
@@ -1967,7 +1980,7 @@
     <row r="57" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C57">
         <v>23.46</v>
@@ -2200,7 +2213,7 @@
     <row r="68" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C68">
         <v>23.44</v>
@@ -2432,58 +2445,142 @@
     </row>
     <row r="79" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>14.8</v>
+        <v>15.6</v>
       </c>
       <c r="D79">
-        <v>45</v>
+        <v>7.06</v>
       </c>
       <c r="E79">
         <f t="shared" si="4"/>
-        <v>666</v>
+        <v>110.136</v>
       </c>
       <c r="F79">
-        <v>2950</v>
+        <v>795</v>
       </c>
       <c r="G79">
         <f t="shared" si="5"/>
-        <v>4.4294294294294296</v>
+        <v>7.2183482240139467</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
-      <c r="B80" s="3"/>
+      <c r="A80" s="1"/>
+      <c r="B80" s="2"/>
       <c r="C80">
-        <v>14.47</v>
+        <v>15.43</v>
       </c>
       <c r="D80">
-        <v>57.3</v>
+        <v>13.8</v>
       </c>
       <c r="E80">
         <f t="shared" si="4"/>
-        <v>829.13099999999997</v>
+        <v>212.934</v>
       </c>
       <c r="F80">
-        <v>3680</v>
+        <v>1283</v>
       </c>
       <c r="G80">
         <f t="shared" si="5"/>
+        <v>6.0253411855316674</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
+      <c r="C81">
+        <v>15.21</v>
+      </c>
+      <c r="D81">
+        <v>24.9</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="4"/>
+        <v>378.72899999999998</v>
+      </c>
+      <c r="F81">
+        <v>2021</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="5"/>
+        <v>5.3362694697263748</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+      <c r="C82">
+        <v>14.93</v>
+      </c>
+      <c r="D82">
+        <v>33.049999999999997</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="4"/>
+        <v>493.43649999999997</v>
+      </c>
+      <c r="F82">
+        <v>2487</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="5"/>
+        <v>5.0401622093217675</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="C83">
+        <v>14.68</v>
+      </c>
+      <c r="D83">
+        <v>41</v>
+      </c>
+      <c r="E83">
+        <f>D83*C83</f>
+        <v>601.88</v>
+      </c>
+      <c r="F83">
+        <v>2852</v>
+      </c>
+      <c r="G83">
+        <f>F83/E83</f>
+        <v>4.7384860769588624</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="1"/>
+      <c r="B84" s="2"/>
+      <c r="C84">
+        <v>14.47</v>
+      </c>
+      <c r="D84">
+        <v>57.3</v>
+      </c>
+      <c r="E84">
+        <f>D84*C84</f>
+        <v>829.13099999999997</v>
+      </c>
+      <c r="F84">
+        <v>3680</v>
+      </c>
+      <c r="G84">
+        <f>F84/E84</f>
         <v>4.4383818721046495</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
     <mergeCell ref="B46:B56"/>
     <mergeCell ref="B57:B67"/>
     <mergeCell ref="B68:B78"/>
     <mergeCell ref="A46:A78"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="B79:B84"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="B13:B23"/>
     <mergeCell ref="A2:A23"/>
@@ -2633,9 +2730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC55B06D-1837-44EB-A9AC-10712F976789}">
   <dimension ref="A1:K306"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2651,28 +2748,28 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2681,7 +2778,7 @@
       </c>
       <c r="B2">
         <f>IF($K$4-(0.350317*A2*A2-0.202576*A2)/9.8&gt;0, $K$4-(0.350317*A2*A2-0.202576*A2)/9.8, 0)</f>
-        <v>6.9</v>
+        <v>3.9</v>
       </c>
       <c r="C2">
         <f>(0.0350823*A2*A2+0.00372739*A2)/9.8</f>
@@ -2689,19 +2786,19 @@
       </c>
       <c r="D2">
         <f>SQRT(C2*C2+B2*B2)</f>
-        <v>6.9</v>
+        <v>3.9</v>
       </c>
       <c r="E2">
         <f>D2/4</f>
-        <v>1.7250000000000001</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="F2">
         <f>1000000*0.0000373344395*E2*E2+ 1000*0.109504955*E2</f>
-        <v>299.98933891218752</v>
+        <v>142.25838267468748</v>
       </c>
       <c r="G2">
         <f>F2*4</f>
-        <v>1199.9573556487501</v>
+        <v>569.03353069874993</v>
       </c>
       <c r="H2" t="e">
         <f>F2/A2</f>
@@ -2714,7 +2811,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" si="0">IF($K$4-(0.350317*A3*A3-0.202576*A3)/9.8&gt;0, $K$4-(0.350317*A3*A3-0.202576*A3)/9.8, 0)</f>
-        <v>6.901709635714286</v>
+        <v>3.9017096357142855</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="1">(0.0350823*A3*A3+0.00372739*A3)/9.8</f>
@@ -2722,23 +2819,23 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" si="2">SQRT(C3*C3+B3*B3)</f>
-        <v>6.9017096361092092</v>
+        <v>3.9017096364128627</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="3">D3/4</f>
-        <v>1.7254274090273023</v>
+        <v>0.97542740910321568</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="4">1000000*0.0000373344395*E3*E3+ 1000*0.109504955*E3</f>
-        <v>300.09120105251429</v>
+        <v>142.33630921414888</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="5">F3*4</f>
-        <v>1200.3648042100572</v>
+        <v>569.34523685659553</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" si="6">F3/A3</f>
-        <v>3000.9120105251427</v>
+        <v>1423.3630921414888</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -2747,7 +2844,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>6.9027043387755107</v>
+        <v>3.9027043387755103</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
@@ -2755,29 +2852,29 @@
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>6.9027043422579091</v>
+        <v>3.9027043449348202</v>
       </c>
       <c r="E4">
         <f t="shared" si="3"/>
-        <v>1.7256760855644773</v>
+        <v>0.97567608623370505</v>
       </c>
       <c r="F4">
         <f t="shared" si="4"/>
-        <v>300.15047309759689</v>
+        <v>142.38165506872997</v>
       </c>
       <c r="G4">
         <f t="shared" si="5"/>
-        <v>1200.6018923903875</v>
+        <v>569.52662027491988</v>
       </c>
       <c r="H4">
         <f t="shared" si="6"/>
-        <v>1500.7523654879844</v>
+        <v>711.90827534364985</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>6.9</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -2786,7 +2883,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>6.9029841091836737</v>
+        <v>3.9029841091836732</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
@@ -2794,23 +2891,23 @@
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>6.9029841229709978</v>
+        <v>3.9029841335685225</v>
       </c>
       <c r="E5">
         <f t="shared" si="3"/>
-        <v>1.7257460307427495</v>
+        <v>0.97574603339213062</v>
       </c>
       <c r="F5">
         <f t="shared" si="4"/>
-        <v>300.16714536075091</v>
+        <v>142.39441064695404</v>
       </c>
       <c r="G5">
         <f t="shared" si="5"/>
-        <v>1200.6685814430036</v>
+        <v>569.57764258781617</v>
       </c>
       <c r="H5">
         <f t="shared" si="6"/>
-        <v>1000.5571512025031</v>
+        <v>474.64803548984685</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -2819,7 +2916,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>6.9025489469387757</v>
+        <v>3.9025489469387753</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -2827,23 +2924,23 @@
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>6.9025489850040902</v>
+        <v>3.902549014265976</v>
       </c>
       <c r="E6">
         <f t="shared" si="3"/>
-        <v>1.7256372462510225</v>
+        <v>0.975637253566494</v>
       </c>
       <c r="F6">
         <f t="shared" si="4"/>
-        <v>300.14121544414138</v>
+        <v>142.37457369324389</v>
       </c>
       <c r="G6">
         <f t="shared" si="5"/>
-        <v>1200.5648617765655</v>
+        <v>569.49829477297556</v>
       </c>
       <c r="H6">
         <f t="shared" si="6"/>
-        <v>750.35303861035345</v>
+        <v>355.93643423310971</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -2852,7 +2949,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>6.9013988520408169</v>
+        <v>3.901398852040816</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -2860,23 +2957,23 @@
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>6.9013989373500593</v>
+        <v>3.9013990029490229</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>1.7253497343375148</v>
+        <v>0.97534975073725572</v>
       </c>
       <c r="F7">
         <f t="shared" si="4"/>
-        <v>300.07268823896192</v>
+        <v>142.32214928848208</v>
       </c>
       <c r="G7">
         <f t="shared" si="5"/>
-        <v>1200.2907529558477</v>
+        <v>569.28859715392832</v>
       </c>
       <c r="H7">
         <f t="shared" si="6"/>
-        <v>600.14537647792383</v>
+        <v>284.64429857696416</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -2885,7 +2982,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>6.8995338244897964</v>
+        <v>3.8995338244897959</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -2893,23 +2990,23 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>6.8995339912490641</v>
+        <v>3.8995341195407507</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>1.724883497812266</v>
+        <v>0.97488352988518767</v>
       </c>
       <c r="F8">
         <f t="shared" si="4"/>
-        <v>299.9615759257091</v>
+        <v>142.23714985087125</v>
       </c>
       <c r="G8">
         <f t="shared" si="5"/>
-        <v>1199.8463037028364</v>
+        <v>568.94859940348499</v>
       </c>
       <c r="H8">
         <f t="shared" si="6"/>
-        <v>499.93595987618187</v>
+        <v>237.06191641811876</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -2918,7 +3015,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>6.8969538642857149</v>
+        <v>3.896953864285714</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -2926,23 +3023,23 @@
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>6.8969541602020703</v>
+        <v>3.8969543880079409</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>1.7242385400505176</v>
+        <v>0.97423859700198523</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>299.80789797455276</v>
+        <v>142.11959513709581</v>
       </c>
       <c r="G9">
         <f t="shared" si="5"/>
-        <v>1199.231591898211</v>
+        <v>568.47838054838326</v>
       </c>
       <c r="H9">
         <f t="shared" si="6"/>
-        <v>428.29699710650397</v>
+        <v>203.02799305299402</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -2951,7 +3048,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>6.8936589714285716</v>
+        <v>3.8936589714285712</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -2959,23 +3056,23 @@
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>6.8936594599879113</v>
+        <v>3.8936598364147565</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>1.7234148649969778</v>
+        <v>0.97341495910368914</v>
       </c>
       <c r="F10">
         <f t="shared" si="4"/>
-        <v>299.61168114580283</v>
+        <v>141.96951224379194</v>
       </c>
       <c r="G10">
         <f t="shared" si="5"/>
-        <v>1198.4467245832113</v>
+        <v>567.87804897516776</v>
       </c>
       <c r="H10">
         <f t="shared" si="6"/>
-        <v>374.51460143225353</v>
+        <v>177.46189030473991</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -2984,7 +3081,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>6.8896491459183675</v>
+        <v>3.8896491459183671</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -2992,23 +3089,23 @@
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>6.8896499086839285</v>
+        <v>3.8896504969879047</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>1.7224124771709821</v>
+        <v>0.97241262424697616</v>
       </c>
       <c r="F11">
         <f t="shared" si="4"/>
-        <v>299.3729594904749</v>
+        <v>141.78693560933152</v>
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
-        <v>1197.4918379618996</v>
+        <v>567.14774243732609</v>
       </c>
       <c r="H11">
         <f t="shared" si="6"/>
-        <v>332.63662165608321</v>
+        <v>157.54103956592391</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -3017,7 +3114,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>6.8849243877551025</v>
+        <v>3.8849243877551021</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -3025,23 +3122,23 @@
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>6.8849255266902336</v>
+        <v>3.884926406193582</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>1.7212313816725584</v>
+        <v>0.9712316015483955</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>299.09177435095376</v>
+        <v>141.57190701592836</v>
       </c>
       <c r="G12">
         <f t="shared" si="5"/>
-        <v>1196.367097403815</v>
+        <v>566.28762806371344</v>
       </c>
       <c r="H12">
         <f t="shared" si="6"/>
-        <v>299.09177435095376</v>
+        <v>141.57190701592836</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -3050,7 +3147,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>6.8794846969387757</v>
+        <v>3.8794846969387753</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -3058,23 +3155,23 @@
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>6.8794863367576813</v>
+        <v>3.879487604826565</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>1.7198715841894203</v>
+        <v>0.96987190120664124</v>
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
-        <v>298.76817436175963</v>
+        <v>141.32447559207742</v>
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
-        <v>1195.0726974470385</v>
+        <v>565.29790236830968</v>
       </c>
       <c r="H13">
         <f t="shared" si="6"/>
-        <v>271.60743123796328</v>
+        <v>128.47679599279763</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -3083,7 +3180,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>6.8733300734693881</v>
+        <v>3.8733300734693876</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -3091,23 +3188,23 @@
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>6.8733323640196025</v>
+        <v>3.8733341381118889</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
-        <v>1.7183330910049006</v>
+        <v>0.96833353452797222</v>
       </c>
       <c r="F14">
         <f t="shared" si="4"/>
-        <v>298.4022154504168</v>
+        <v>141.04469781533828</v>
       </c>
       <c r="G14">
         <f t="shared" si="5"/>
-        <v>1193.6088618016672</v>
+        <v>564.17879126135313</v>
       </c>
       <c r="H14">
         <f t="shared" si="6"/>
-        <v>248.66851287534735</v>
+        <v>117.53724817944857</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -3116,7 +3213,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>6.8664605173469395</v>
+        <v>3.8664605173469386</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -3124,23 +3221,23 @@
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>6.8664636360274134</v>
+        <v>3.8664660558195978</v>
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
-        <v>1.7166159090068533</v>
+        <v>0.96661651395489945</v>
       </c>
       <c r="F15">
         <f t="shared" si="4"/>
-        <v>297.99396083842851</v>
+        <v>140.73263751547654</v>
       </c>
       <c r="G15">
         <f t="shared" si="5"/>
-        <v>1191.975843353714</v>
+        <v>562.93055006190616</v>
       </c>
       <c r="H15">
         <f t="shared" si="6"/>
-        <v>229.22612372186808</v>
+        <v>108.25587501190503</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -3149,7 +3246,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>6.8588760285714292</v>
+        <v>3.8588760285714283</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -3157,23 +3254,23 @@
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>6.8588801827901626</v>
+        <v>3.858883412393153</v>
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>1.7147200456975407</v>
+        <v>0.96472085309828826</v>
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>297.5434810423593</v>
+        <v>140.38836587797923</v>
       </c>
       <c r="G16">
         <f t="shared" si="5"/>
-        <v>1190.1739241694372</v>
+        <v>561.5534635119169</v>
       </c>
       <c r="H16">
         <f t="shared" si="6"/>
-        <v>212.53105788739953</v>
+        <v>100.2774041985566</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -3182,7 +3279,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>6.8505766071428571</v>
+        <v>3.8505766071428571</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -3190,23 +3287,23 @@
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>6.8505820368181718</v>
+        <v>3.8505862670921518</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>1.7126455092045429</v>
+        <v>0.96264656677303795</v>
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>297.05085387503027</v>
+        <v>140.01196144796188</v>
       </c>
       <c r="G17">
         <f t="shared" si="5"/>
-        <v>1188.2034155001211</v>
+        <v>560.04784579184752</v>
       </c>
       <c r="H17">
         <f t="shared" si="6"/>
-        <v>198.03390258335352</v>
+        <v>93.341307631974587</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -3215,7 +3312,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>6.841562253061225</v>
+        <v>3.8415622530612246</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -3223,23 +3320,23 @@
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>6.8415692331708575</v>
+        <v>3.8415746841500731</v>
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
-        <v>1.7103923082927144</v>
+        <v>0.96039367103751827</v>
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>296.51616444682782</v>
+        <v>139.60351013448701</v>
       </c>
       <c r="G18">
         <f t="shared" si="5"/>
-        <v>1186.0646577873113</v>
+        <v>558.41404053794804</v>
       </c>
       <c r="H18">
         <f t="shared" si="6"/>
-        <v>185.32260277926738</v>
+        <v>87.252193834054381</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -3248,7 +3345,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>6.8318329663265311</v>
+        <v>3.8318329663265307</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -3256,23 +3353,23 @@
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>6.8318418095088846</v>
+        <v>3.8318487329479014</v>
       </c>
       <c r="E19">
         <f t="shared" si="3"/>
-        <v>1.7079604523772212</v>
+        <v>0.95796218323697535</v>
       </c>
       <c r="F19">
         <f t="shared" si="4"/>
-        <v>295.93950516713153</v>
+        <v>139.16310521531724</v>
       </c>
       <c r="G19">
         <f t="shared" si="5"/>
-        <v>1183.7580206685261</v>
+        <v>556.65242086126898</v>
       </c>
       <c r="H19">
         <f t="shared" si="6"/>
-        <v>174.08206186301854</v>
+        <v>81.860650126657205</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -3281,7 +3378,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>6.8213887469387755</v>
+        <v>3.8213887469387755</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -3289,23 +3386,23 @@
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>6.8213998061508043</v>
+        <v>3.8214084882045225</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
-        <v>1.7053499515377011</v>
+        <v>0.95535212205113063</v>
       </c>
       <c r="F20">
         <f t="shared" si="4"/>
-        <v>295.32097574586476</v>
+        <v>138.69084734212771</v>
       </c>
       <c r="G20">
         <f t="shared" si="5"/>
-        <v>1181.283902983459</v>
+        <v>554.76338936851084</v>
       </c>
       <c r="H20">
         <f t="shared" si="6"/>
-        <v>164.06720874770264</v>
+        <v>77.050470745626498</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -3314,7 +3411,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>6.8102295948979599</v>
+        <v>3.810229594897959</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -3322,23 +3419,23 @@
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>6.8102432661343499</v>
+        <v>3.8102540301849301</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
-        <v>1.7025608165335875</v>
+        <v>0.95256350754623254</v>
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
-        <v>294.66068319517262</v>
+        <v>138.18684454620598</v>
       </c>
       <c r="G21">
         <f t="shared" si="5"/>
-        <v>1178.6427327806905</v>
+        <v>552.7473781848239</v>
       </c>
       <c r="H21">
         <f t="shared" si="6"/>
-        <v>155.08457010272244</v>
+        <v>72.72991818221368</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -3347,7 +3444,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>6.7983555102040816</v>
+        <v>3.7983555102040816</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -3355,23 +3452,23 @@
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>6.7983722352825486</v>
+        <v>3.7983854449273786</v>
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>1.6995930588206372</v>
+        <v>0.94959636123184465</v>
       </c>
       <c r="F22">
         <f t="shared" si="4"/>
-        <v>293.95874183123203</v>
+        <v>137.65121224467049</v>
       </c>
       <c r="G22">
         <f t="shared" si="5"/>
-        <v>1175.8349673249281</v>
+        <v>550.60484897868196</v>
       </c>
       <c r="H22">
         <f t="shared" si="6"/>
-        <v>146.97937091561602</v>
+        <v>68.825606122335245</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -3380,7 +3477,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>6.7857664928571433</v>
+        <v>3.7857664928571428</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -3388,23 +3485,23 @@
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>6.7857867622748724</v>
+        <v>3.7858028244907365</v>
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
-        <v>1.6964466905687181</v>
+        <v>0.94645070612268412</v>
       </c>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>293.21527327619924</v>
+        <v>137.08407324724232</v>
       </c>
       <c r="G23">
         <f t="shared" si="5"/>
-        <v>1172.861093104797</v>
+        <v>548.33629298896926</v>
       </c>
       <c r="H23">
         <f t="shared" si="6"/>
-        <v>139.62632060771392</v>
+        <v>65.278130117734435</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -3413,7 +3510,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>6.7724625428571432</v>
+        <v>3.7724625428571428</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -3421,23 +3518,23 @@
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>6.7724868987236198</v>
+        <v>3.7725062672234499</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>1.6931217246809049</v>
+        <v>0.94312656680586249</v>
       </c>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>292.4304064603013</v>
+        <v>136.48555776360834</v>
       </c>
       <c r="G24">
         <f t="shared" si="5"/>
-        <v>1169.7216258412052</v>
+        <v>545.94223105443336</v>
       </c>
       <c r="H24">
         <f t="shared" si="6"/>
-        <v>132.92291202740967</v>
+        <v>62.038889892549243</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -3446,7 +3543,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>6.7584436602040823</v>
+        <v>3.7584436602040814</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -3454,23 +3551,23 @@
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>6.7584726992557878</v>
+        <v>3.7584958780556503</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>1.6896181748139469</v>
+        <v>0.93962396951391258</v>
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>291.60427762407699</v>
+        <v>135.85580341141801</v>
       </c>
       <c r="G25">
         <f t="shared" si="5"/>
-        <v>1166.4171104963079</v>
+        <v>543.42321364567204</v>
       </c>
       <c r="H25">
         <f t="shared" si="6"/>
-        <v>126.7844685322074</v>
+        <v>59.067740613660007</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -3479,7 +3576,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>6.7437098448979595</v>
+        <v>3.7437098448979591</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -3487,23 +3584,23 @@
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>6.7437442216006627</v>
+        <v>3.7437717688161176</v>
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>1.6859360554001657</v>
+        <v>0.9359429422040294</v>
       </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>290.73703032077492</v>
+        <v>135.19495522496067</v>
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
-        <v>1162.9481212830997</v>
+        <v>540.77982089984266</v>
       </c>
       <c r="H26">
         <f t="shared" si="6"/>
-        <v>121.14042930032289</v>
+        <v>56.331231343733613</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -3512,7 +3609,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>6.7282610969387759</v>
+        <v>3.7282610969387755</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -3520,23 +3617,23 @@
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>6.7283015266834161</v>
+        <v>3.7283340585759923</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>1.682075381670854</v>
+        <v>0.93208351464399808</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>289.82881541891595</v>
+        <v>134.50316566457499</v>
       </c>
       <c r="G27">
         <f t="shared" si="5"/>
-        <v>1159.3152616756638</v>
+        <v>538.01266265829997</v>
       </c>
       <c r="H27">
         <f t="shared" si="6"/>
-        <v>115.93152616756637</v>
+        <v>53.801266265829994</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -3545,7 +3642,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>6.7120974163265306</v>
+        <v>3.7120974163265306</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -3553,23 +3650,23 @@
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>6.7121446787250019</v>
+        <v>3.7121828740213174</v>
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
-        <v>1.6780361696812505</v>
+        <v>0.92804571850532935</v>
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>288.87979110502783</v>
+        <v>133.78059462684794</v>
       </c>
       <c r="G28">
         <f t="shared" si="5"/>
-        <v>1155.5191644201113</v>
+        <v>535.12237850739177</v>
       </c>
       <c r="H28">
         <f t="shared" si="6"/>
-        <v>111.10761196347224</v>
+        <v>51.454074856479977</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -3578,7 +3675,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>6.6952188030612252</v>
+        <v>3.6952188030612243</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -3586,23 +3683,23 @@
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>6.6952737453486657</v>
+        <v>3.6953183498567199</v>
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>1.6738184363371664</v>
+        <v>0.92382958746417998</v>
       </c>
       <c r="F29">
         <f t="shared" si="4"/>
-        <v>287.89012288656102</v>
+        <v>133.02740945566592</v>
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>1151.5604915462441</v>
+        <v>532.10963782266367</v>
       </c>
       <c r="H29">
         <f t="shared" si="6"/>
-        <v>106.62597143946704</v>
+        <v>49.269410909505893</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -3611,7 +3708,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>6.6776252571428572</v>
+        <v>3.6776252571428572</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -3619,23 +3716,23 @@
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>6.6776887976934232</v>
+        <v>3.6777406292427819</v>
       </c>
       <c r="E30">
         <f t="shared" si="3"/>
-        <v>1.6694221994233558</v>
+        <v>0.91943515731069547</v>
       </c>
       <c r="F30">
         <f t="shared" si="4"/>
-        <v>286.85998359499536</v>
+        <v>132.24378495418841</v>
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>1147.4399343799814</v>
+        <v>528.97513981675365</v>
       </c>
       <c r="H30">
         <f t="shared" si="6"/>
-        <v>102.44999414106978</v>
+        <v>47.229923197924435</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -3644,7 +3741,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>6.6593167785714291</v>
+        <v>3.6593167785714287</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -3652,23 +3749,23 @@
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>6.6593899105348759</v>
+        <v>3.6594498642699183</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>1.664847477633719</v>
+        <v>0.91486246606747956</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>285.78955338914761</v>
+        <v>131.42990339782088</v>
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>1143.1582135565905</v>
+        <v>525.71961359128352</v>
       </c>
       <c r="H31">
         <f t="shared" si="6"/>
-        <v>98.548121858326766</v>
+        <v>45.32065634407617</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -3677,7 +3774,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>6.6402933673469393</v>
+        <v>3.6402933673469389</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -3685,23 +3782,23 @@
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
-        <v>6.6403771624137553</v>
+        <v>3.6404462164718918</v>
       </c>
       <c r="E32">
         <f t="shared" si="3"/>
-        <v>1.6600942906034388</v>
+        <v>0.91011155411797295</v>
       </c>
       <c r="F32">
         <f t="shared" si="4"/>
-        <v>284.6790197586904</v>
+        <v>130.58595454827301</v>
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>1138.7160790347616</v>
+        <v>522.34381819309203</v>
       </c>
       <c r="H32">
         <f t="shared" si="6"/>
-        <v>94.893006586230129</v>
+        <v>43.528651516091003</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -3710,7 +3807,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>6.6205550234693877</v>
+        <v>3.6205550234693877</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -3718,23 +3815,23 @@
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
-        <v>6.6206506357726491</v>
+        <v>3.6207298573824112</v>
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
-        <v>1.6551626589431623</v>
+        <v>0.90518246434560279</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>283.52857752789527</v>
+        <v>129.71213566879618</v>
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>1134.1143101115811</v>
+        <v>518.84854267518472</v>
       </c>
       <c r="H33">
         <f t="shared" si="6"/>
-        <v>91.460831460611374</v>
+        <v>41.842624409289087</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -3743,7 +3840,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>6.6001017469387762</v>
+        <v>3.6001017469387753</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -3751,23 +3848,23 @@
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
-        <v>6.6002104171013656</v>
+        <v>3.6003009691386523</v>
       </c>
       <c r="E34">
         <f t="shared" si="3"/>
-        <v>1.6500526042753414</v>
+        <v>0.90007524228466307</v>
       </c>
       <c r="F34">
         <f t="shared" si="4"/>
-        <v>282.33842885961235</v>
+        <v>128.80865154070563</v>
       </c>
       <c r="G34">
         <f t="shared" si="5"/>
-        <v>1129.3537154384494</v>
+        <v>515.2346061628225</v>
       </c>
       <c r="H34">
         <f t="shared" si="6"/>
-        <v>88.230759018628859</v>
+        <v>40.252703606470504</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -3776,7 +3873,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>6.5789335377551028</v>
+        <v>3.5789335377551019</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
@@ -3784,23 +3881,23 @@
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
-        <v>6.5790565970914301</v>
+        <v>3.5791597451359505</v>
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
-        <v>1.6447641492728575</v>
+        <v>0.89478993628398762</v>
       </c>
       <c r="F35">
         <f t="shared" si="4"/>
-        <v>281.10878325949972</v>
+        <v>127.87571448130352</v>
       </c>
       <c r="G35">
         <f t="shared" si="5"/>
-        <v>1124.4351330379989</v>
+        <v>511.50285792521407</v>
       </c>
       <c r="H35">
         <f t="shared" si="6"/>
-        <v>85.184479775605979</v>
+        <v>38.750216509485917</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -3809,7 +3906,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>6.5570503959183677</v>
+        <v>3.5570503959183672</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -3817,23 +3914,23 @@
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
-        <v>6.5571892708002819</v>
+        <v>3.5573063907383813</v>
       </c>
       <c r="E36">
         <f t="shared" si="3"/>
-        <v>1.6392973177000705</v>
+        <v>0.88932659768459532</v>
       </c>
       <c r="F36">
         <f t="shared" si="4"/>
-        <v>279.83985758051853</v>
+        <v>126.91354436333184</v>
       </c>
       <c r="G36">
         <f t="shared" si="5"/>
-        <v>1119.3594303220741</v>
+        <v>507.65417745332735</v>
       </c>
       <c r="H36">
         <f t="shared" si="6"/>
-        <v>82.305840464858392</v>
+        <v>37.327513048038774</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -3842,7 +3939,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>6.5344523214285717</v>
+        <v>3.5344523214285712</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -3850,23 +3947,23 @@
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
-        <v>6.5346085378257426</v>
+        <v>3.53474112405048</v>
       </c>
       <c r="E37">
         <f t="shared" si="3"/>
-        <v>1.6336521344564356</v>
+        <v>0.88368528101262001</v>
       </c>
       <c r="F37">
         <f t="shared" si="4"/>
-        <v>278.53187602770953</v>
+        <v>125.92236863609929</v>
       </c>
       <c r="G37">
         <f t="shared" si="5"/>
-        <v>1114.1275041108381</v>
+        <v>503.68947454439717</v>
       </c>
       <c r="H37">
         <f t="shared" si="6"/>
-        <v>79.580536007917004</v>
+        <v>35.977819610314086</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -3875,7 +3972,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>6.5111393142857148</v>
+        <v>3.5111393142857144</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
@@ -3883,23 +3980,23 @@
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
-        <v>6.5113145024913788</v>
+        <v>3.5114641767559385</v>
       </c>
       <c r="E38">
         <f t="shared" si="3"/>
-        <v>1.6278286256228447</v>
+        <v>0.87786604418898462</v>
       </c>
       <c r="F38">
         <f t="shared" si="4"/>
-        <v>277.18507016326714</v>
+        <v>124.90242234844162</v>
       </c>
       <c r="G38">
         <f t="shared" si="5"/>
-        <v>1108.7402806530686</v>
+        <v>499.60968939376647</v>
       </c>
       <c r="H38">
         <f t="shared" si="6"/>
-        <v>76.995852823129766</v>
+        <v>34.695117319011558</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -3908,7 +4005,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>6.4871113744897961</v>
+        <v>3.4871113744897957</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -3916,23 +4013,23 @@
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
-        <v>6.4873072740434718</v>
+        <v>3.4874757950297752</v>
       </c>
       <c r="E39">
         <f t="shared" si="3"/>
-        <v>1.621826818510868</v>
+        <v>0.87186894875744381</v>
       </c>
       <c r="F39">
         <f t="shared" si="4"/>
-        <v>275.79967891193212</v>
+        <v>123.85394817369338</v>
       </c>
       <c r="G39">
         <f t="shared" si="5"/>
-        <v>1103.1987156477285</v>
+        <v>495.41579269477353</v>
       </c>
       <c r="H39">
         <f t="shared" si="6"/>
-        <v>74.540453759981645</v>
+        <v>33.474040046944154</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -3941,7 +4038,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>6.4623685020408166</v>
+        <v>3.4623685020408161</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
@@ -3949,23 +4046,23 @@
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
-        <v>6.4625869668603029</v>
+        <v>3.4627762405312512</v>
       </c>
       <c r="E40">
         <f t="shared" si="3"/>
-        <v>1.6156467417150757</v>
+        <v>0.8656940601328128</v>
       </c>
       <c r="F40">
         <f t="shared" si="4"/>
-        <v>274.37594856672098</v>
+        <v>122.7771964368703</v>
       </c>
       <c r="G40">
         <f t="shared" si="5"/>
-        <v>1097.5037942668839</v>
+        <v>491.10878574748119</v>
       </c>
       <c r="H40">
         <f t="shared" si="6"/>
-        <v>72.20419699124237</v>
+        <v>32.309788536018502</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -3974,7 +4071,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>6.4369106969387762</v>
+        <v>3.4369106969387753</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
@@ -3982,23 +4079,23 @@
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
-        <v>6.4371537006745632</v>
+        <v>3.4373657914856208</v>
       </c>
       <c r="E41">
         <f t="shared" si="3"/>
-        <v>1.6092884251686408</v>
+        <v>0.85934144787140521</v>
       </c>
       <c r="F41">
         <f t="shared" si="4"/>
-        <v>272.91413279501455</v>
+        <v>121.67242514428345</v>
       </c>
       <c r="G41">
         <f t="shared" si="5"/>
-        <v>1091.6565311800582</v>
+        <v>486.68970057713381</v>
       </c>
       <c r="H41">
         <f t="shared" si="6"/>
-        <v>69.977982767952454</v>
+        <v>31.19805772930345</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -4007,7 +4104,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>6.410737959183674</v>
+        <v>3.4107379591836735</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
@@ -4015,23 +4112,23 @@
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
-        <v>6.4110076008097501</v>
+        <v>3.4112447438637918</v>
       </c>
       <c r="E42">
         <f t="shared" si="3"/>
-        <v>1.6027519002024375</v>
+        <v>0.85281118596594796</v>
       </c>
       <c r="F42">
         <f t="shared" si="4"/>
-        <v>271.41449264502978</v>
+        <v>120.53990001583404</v>
       </c>
       <c r="G42">
         <f t="shared" si="5"/>
-        <v>1085.6579705801191</v>
+        <v>482.15960006333614</v>
       </c>
       <c r="H42">
         <f t="shared" si="6"/>
-        <v>67.853623161257445</v>
+        <v>30.134975003958509</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -4040,7 +4137,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>6.3838502887755109</v>
+        <v>3.3838502887755104</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
@@ -4048,23 +4145,23 @@
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
-        <v>6.3841487984314753</v>
+        <v>3.3844134126700562</v>
       </c>
       <c r="E43">
         <f t="shared" si="3"/>
-        <v>1.5960371996078688</v>
+        <v>0.84610335316751406</v>
       </c>
       <c r="F43">
         <f t="shared" si="4"/>
-        <v>269.87729655269948</v>
+        <v>119.37989452026646</v>
       </c>
       <c r="G43">
         <f t="shared" si="5"/>
-        <v>1079.5091862107979</v>
+        <v>477.51957808106584</v>
       </c>
       <c r="H43">
         <f t="shared" si="6"/>
-        <v>65.823730866512079</v>
+        <v>29.117047443967433</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -4073,7 +4170,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>6.356247685714286</v>
+        <v>3.3562476857142856</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
@@ -4081,23 +4178,23 @@
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
-        <v>6.3565774308146867</v>
+        <v>3.3568721333492761</v>
       </c>
       <c r="E44">
         <f t="shared" si="3"/>
-        <v>1.5891443577036717</v>
+        <v>0.83921803333731904</v>
       </c>
       <c r="F44">
         <f t="shared" si="4"/>
-        <v>268.30282034898789</v>
+        <v>118.19268991369191</v>
       </c>
       <c r="G44">
         <f t="shared" si="5"/>
-        <v>1073.2112813959516</v>
+        <v>472.77075965476763</v>
       </c>
       <c r="H44">
         <f t="shared" si="6"/>
-        <v>63.881623892616162</v>
+        <v>28.141116646117119</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -4106,7 +4203,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>6.3279301500000003</v>
+        <v>3.3279301499999998</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
@@ -4114,23 +4211,23 @@
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
-        <v>6.3282936416279085</v>
+        <v>3.3286212633263359</v>
       </c>
       <c r="E45">
         <f t="shared" si="3"/>
-        <v>1.5820734104069771</v>
+        <v>0.83215531583158397</v>
       </c>
       <c r="F45">
         <f t="shared" si="4"/>
-        <v>266.69134726767226</v>
+        <v>116.97857528173273</v>
       </c>
       <c r="G45">
         <f t="shared" si="5"/>
-        <v>1066.765389070689</v>
+        <v>467.91430112693092</v>
       </c>
       <c r="H45">
         <f t="shared" si="6"/>
-        <v>62.021243550621456</v>
+        <v>27.204319832961101</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -4139,7 +4236,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>6.2988976816326536</v>
+        <v>3.2988976816326527</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
@@ -4147,23 +4244,23 @@
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
-        <v>6.2992975812356553</v>
+        <v>3.2996611836922667</v>
       </c>
       <c r="E46">
         <f t="shared" si="3"/>
-        <v>1.5748243953089138</v>
+        <v>0.82491529592306667</v>
       </c>
       <c r="F46">
         <f t="shared" si="4"/>
-        <v>265.04316795362155</v>
+        <v>115.73784758568215</v>
       </c>
       <c r="G46">
         <f t="shared" si="5"/>
-        <v>1060.1726718144862</v>
+        <v>462.95139034272859</v>
       </c>
       <c r="H46">
         <f t="shared" si="6"/>
-        <v>60.237083625823075</v>
+        <v>26.304056269473215</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -4172,7 +4269,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>6.2691502806122452</v>
+        <v>3.2691502806122448</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
@@ -4180,23 +4277,23 @@
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
-        <v>6.2695894070203106</v>
+        <v>3.2699923010532932</v>
       </c>
       <c r="E47">
         <f t="shared" si="3"/>
-        <v>1.5673973517550777</v>
+        <v>0.8174980752633233</v>
       </c>
       <c r="F47">
         <f t="shared" si="4"/>
-        <v>263.35858047160855</v>
+        <v>114.47081171312422</v>
       </c>
       <c r="G47">
         <f t="shared" si="5"/>
-        <v>1053.4343218864342</v>
+        <v>457.88324685249688</v>
       </c>
       <c r="H47">
         <f t="shared" si="6"/>
-        <v>58.524128993690788</v>
+        <v>25.43795815847205</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -4205,7 +4302,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>6.2386879469387759</v>
+        <v>3.2386879469387755</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
@@ -4213,23 +4310,23 @@
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
-        <v>6.2391692837248529</v>
+        <v>3.2396150495611411</v>
       </c>
       <c r="E48">
         <f t="shared" si="3"/>
-        <v>1.5597923209312132</v>
+        <v>0.80990376239028528</v>
       </c>
       <c r="F48">
         <f t="shared" si="4"/>
-        <v>261.63789031569206</v>
+        <v>113.17778053351603</v>
       </c>
       <c r="G48">
         <f t="shared" si="5"/>
-        <v>1046.5515612627682</v>
+        <v>452.71112213406411</v>
       </c>
       <c r="H48">
         <f t="shared" si="6"/>
-        <v>56.877802242541755</v>
+        <v>24.603865333373051</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -4238,7 +4335,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>6.2075106806122449</v>
+        <v>3.2075106806122449</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
@@ -4246,23 +4343,23 @@
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
-        <v>6.2080373838179241</v>
+        <v>3.2085298931453687</v>
       </c>
       <c r="E49">
         <f t="shared" si="3"/>
-        <v>1.552009345954481</v>
+        <v>0.80213247328634218</v>
       </c>
       <c r="F49">
         <f t="shared" si="4"/>
-        <v>259.88141041921142</v>
+        <v>111.85907495930056</v>
       </c>
       <c r="G49">
         <f t="shared" si="5"/>
-        <v>1039.5256416768457</v>
+        <v>447.43629983720223</v>
       </c>
       <c r="H49">
         <f t="shared" si="6"/>
-        <v>55.29391711047051</v>
+        <v>23.799803182829905</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -4271,7 +4368,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>6.1756184816326538</v>
+        <v>3.1756184816326529</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
@@ -4279,23 +4376,23 @@
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
-        <v>6.176193887882877</v>
+        <v>3.1767373279712436</v>
       </c>
       <c r="E50">
         <f t="shared" si="3"/>
-        <v>1.5440484719707193</v>
+        <v>0.79418433199281091</v>
       </c>
       <c r="F50">
         <f t="shared" si="4"/>
-        <v>258.08946116543711</v>
+        <v>110.51502401319399</v>
       </c>
       <c r="G50">
         <f t="shared" si="5"/>
-        <v>1032.3578446617485</v>
+        <v>442.06009605277598</v>
       </c>
       <c r="H50">
         <f t="shared" si="6"/>
-        <v>53.768637742799399</v>
+        <v>23.023963336082083</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -4304,7 +4401,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>6.1430113500000001</v>
+        <v>3.1430113499999996</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
@@ -4312,23 +4409,23 @@
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
-        <v>6.1436389850325543</v>
+        <v>3.1442378851498862</v>
       </c>
       <c r="E51">
         <f t="shared" si="3"/>
-        <v>1.5359097462581386</v>
+        <v>0.78605947128747156</v>
       </c>
       <c r="F51">
         <f t="shared" si="4"/>
-        <v>256.26237039892561</v>
+        <v>109.14596490237948</v>
       </c>
       <c r="G51">
         <f t="shared" si="5"/>
-        <v>1025.0494815957024</v>
+        <v>436.5838596095179</v>
       </c>
       <c r="H51">
         <f t="shared" si="6"/>
-        <v>52.298442938556242</v>
+        <v>22.27468671477132</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -4337,7 +4434,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>6.1096892857142864</v>
+        <v>3.1096892857142855</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
@@ -4345,23 +4442,23 @@
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
-        <v>6.1103728733517588</v>
+        <v>3.1110321337310718</v>
       </c>
       <c r="E52">
         <f t="shared" si="3"/>
-        <v>1.5275932183379397</v>
+        <v>0.77775803343276795</v>
       </c>
       <c r="F52">
         <f t="shared" si="4"/>
-        <v>254.40047343763285</v>
+        <v>107.75224310043849</v>
       </c>
       <c r="G52">
         <f t="shared" si="5"/>
-        <v>1017.6018937505314</v>
+        <v>431.00897240175397</v>
       </c>
       <c r="H52">
         <f t="shared" si="6"/>
-        <v>50.880094687526572</v>
+        <v>21.5504486200877</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -4370,7 +4467,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>6.0756522887755109</v>
+        <v>3.0756522887755104</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
@@ -4378,23 +4475,23 @@
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
-        <v>6.0763957603694614</v>
+        <v>3.077120684013368</v>
       </c>
       <c r="E53">
         <f t="shared" si="3"/>
-        <v>1.5190989400923653</v>
+        <v>0.76928017100334201</v>
       </c>
       <c r="F53">
         <f t="shared" si="4"/>
-        <v>252.50411308584131</v>
+        <v>106.33421243797022</v>
       </c>
       <c r="G53">
         <f t="shared" si="5"/>
-        <v>1010.0164523433652</v>
+        <v>425.33684975188089</v>
       </c>
       <c r="H53">
         <f t="shared" si="6"/>
-        <v>49.510610408988498</v>
+        <v>20.849845576072592</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -4403,7 +4500,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>6.0409003591836736</v>
+        <v>3.0409003591836736</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
@@ -4411,23 +4508,23 @@
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
-        <v>6.041707863563067</v>
+        <v>3.0425041912112065</v>
       </c>
       <c r="E54">
         <f t="shared" si="3"/>
-        <v>1.5104269658907667</v>
+        <v>0.76062604780280163</v>
       </c>
       <c r="F54">
         <f t="shared" si="4"/>
-        <v>250.57363964796502</v>
+        <v>104.89223520298202</v>
       </c>
       <c r="G54">
         <f t="shared" si="5"/>
-        <v>1002.2945585918601</v>
+        <v>419.56894081192809</v>
       </c>
       <c r="H54">
         <f t="shared" si="6"/>
-        <v>48.187238393839429</v>
+        <v>20.171583692881157</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
@@ -4436,7 +4533,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>6.0054334969387764</v>
+        <v>3.0054334969387755</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
@@ -4444,23 +4541,23 @@
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
-        <v>6.0063094108972015</v>
+        <v>3.0071833595242614</v>
       </c>
       <c r="E55">
         <f t="shared" si="3"/>
-        <v>1.5015773527243004</v>
+        <v>0.75179583988106535</v>
       </c>
       <c r="F55">
         <f t="shared" si="4"/>
-        <v>248.60941094329951</v>
+        <v>103.4266822522938</v>
       </c>
       <c r="G55">
         <f t="shared" si="5"/>
-        <v>994.43764377319803</v>
+        <v>413.70672900917521</v>
       </c>
       <c r="H55">
         <f t="shared" si="6"/>
-        <v>46.907436027037647</v>
+        <v>19.514468349489398</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
@@ -4469,7 +4566,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>5.9692517020408165</v>
+        <v>2.969251702040816</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
@@ -4477,23 +4574,23 @@
       </c>
       <c r="D56">
         <f t="shared" si="2"/>
-        <v>5.9702006413997246</v>
+        <v>2.9711589466611819</v>
       </c>
       <c r="E56">
         <f t="shared" si="3"/>
-        <v>1.4925501603499312</v>
+        <v>0.74278973666529546</v>
       </c>
       <c r="F56">
         <f t="shared" si="4"/>
-        <v>246.61179232179074</v>
+        <v>101.93793313538069</v>
       </c>
       <c r="G56">
         <f t="shared" si="5"/>
-        <v>986.44716928716298</v>
+        <v>407.75173254152276</v>
       </c>
       <c r="H56">
         <f t="shared" si="6"/>
-        <v>45.668850429961246</v>
+        <v>18.877395025070498</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
@@ -4502,7 +4599,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>5.9323549744897965</v>
+        <v>2.9323549744897957</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
@@ -4510,23 +4607,23 @@
       </c>
       <c r="D57">
         <f t="shared" si="2"/>
-        <v>5.9333818057779579</v>
+        <v>2.9344317688775994</v>
       </c>
       <c r="E57">
         <f t="shared" si="3"/>
-        <v>1.4833454514444895</v>
+        <v>0.73360794221939984</v>
       </c>
       <c r="F57">
         <f t="shared" si="4"/>
-        <v>244.58115668090539</v>
+        <v>100.42637623229487</v>
       </c>
       <c r="G57">
         <f t="shared" si="5"/>
-        <v>978.32462672362158</v>
+        <v>401.70550492917948</v>
       </c>
       <c r="H57">
         <f t="shared" si="6"/>
-        <v>44.469301214710072</v>
+        <v>18.25934113314452</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -4535,7 +4632,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>5.8947433142857149</v>
+        <v>2.8947433142857144</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
@@ -4543,23 +4640,23 @@
       </c>
       <c r="D58">
         <f t="shared" si="2"/>
-        <v>5.895853167078311</v>
+        <v>2.8970027065974682</v>
       </c>
       <c r="E58">
         <f t="shared" si="3"/>
-        <v>1.4739632917695777</v>
+        <v>0.72425067664936704</v>
       </c>
       <c r="F58">
         <f t="shared" si="4"/>
-        <v>242.51788448368865</v>
+        <v>98.892408907556586</v>
       </c>
       <c r="G58">
         <f t="shared" si="5"/>
-        <v>970.07153793475459</v>
+        <v>395.56963563022634</v>
       </c>
       <c r="H58">
         <f t="shared" si="6"/>
-        <v>43.306765086372977</v>
+        <v>17.659358733492247</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -4568,7 +4665,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>5.8564167214285723</v>
+        <v>2.8564167214285714</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
@@ -4576,23 +4673,23 @@
       </c>
       <c r="D59">
         <f t="shared" si="2"/>
-        <v>5.8576150013928912</v>
+        <v>2.8588727106976286</v>
       </c>
       <c r="E59">
         <f t="shared" si="3"/>
-        <v>1.4644037503482228</v>
+        <v>0.71471817767440715</v>
       </c>
       <c r="F59">
         <f t="shared" si="4"/>
-        <v>240.42236377810869</v>
+        <v>97.336437682202018</v>
       </c>
       <c r="G59">
         <f t="shared" si="5"/>
-        <v>961.68945511243476</v>
+        <v>389.34575072880807</v>
       </c>
       <c r="H59">
         <f t="shared" si="6"/>
-        <v>42.179362066334853</v>
+        <v>17.076568014421404</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -4601,7 +4698,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>5.8173751959183679</v>
+        <v>2.817375195918367</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
@@ -4609,23 +4706,23 @@
       </c>
       <c r="D60">
         <f t="shared" si="2"/>
-        <v>5.8186675986169343</v>
+        <v>2.820042809548172</v>
       </c>
       <c r="E60">
         <f t="shared" si="3"/>
-        <v>1.4546668996542336</v>
+        <v>0.705010702387043</v>
       </c>
       <c r="F60">
         <f t="shared" si="4"/>
-        <v>238.29499021779219</v>
+        <v>95.758878426521761</v>
       </c>
       <c r="G60">
         <f t="shared" si="5"/>
-        <v>953.17996087116876</v>
+        <v>383.03551370608704</v>
       </c>
       <c r="H60">
         <f t="shared" si="6"/>
-        <v>41.085343140998653</v>
+        <v>16.510151452848579</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -4634,7 +4731,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>5.7776187377551018</v>
+        <v>2.7776187377551018</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
@@ -4642,23 +4739,23 @@
       </c>
       <c r="D61">
         <f t="shared" si="2"/>
-        <v>5.7790112632613067</v>
+        <v>2.7805141169162275</v>
       </c>
       <c r="E61">
         <f t="shared" si="3"/>
-        <v>1.4447528158153267</v>
+        <v>0.69512852922905688</v>
       </c>
       <c r="F61">
         <f t="shared" si="4"/>
-        <v>236.13616708426773</v>
+        <v>94.16015657643706</v>
       </c>
       <c r="G61">
         <f t="shared" si="5"/>
-        <v>944.5446683370709</v>
+        <v>376.64062630574824</v>
       </c>
       <c r="H61">
         <f t="shared" si="6"/>
-        <v>40.023079166825035</v>
+        <v>15.959348572277467</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -4667,7 +4764,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>5.7371473469387757</v>
+        <v>2.7371473469387757</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
@@ -4675,23 +4772,23 @@
       </c>
       <c r="D62">
         <f t="shared" si="2"/>
-        <v>5.7386463153247407</v>
+        <v>2.7402878408586142</v>
       </c>
       <c r="E62">
         <f t="shared" si="3"/>
-        <v>1.4346615788311852</v>
+        <v>0.68507196021465355</v>
       </c>
       <c r="F62">
         <f t="shared" si="4"/>
-        <v>233.94630531084411</v>
+        <v>92.540707376946955</v>
       </c>
       <c r="G62">
         <f t="shared" si="5"/>
-        <v>935.78522124337644</v>
+        <v>370.16282950778782</v>
       </c>
       <c r="H62">
         <f t="shared" si="6"/>
-        <v>38.991050885140687</v>
+        <v>15.423451229491159</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -4700,7 +4797,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>5.6959610234693887</v>
+        <v>2.6959610234693878</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
@@ -4708,23 +4805,23 @@
       </c>
       <c r="D63">
         <f t="shared" si="2"/>
-        <v>5.6975730912308951</v>
+        <v>2.6993652937500032</v>
       </c>
       <c r="E63">
         <f t="shared" si="3"/>
-        <v>1.4243932728077238</v>
+        <v>0.67484132343750081</v>
       </c>
       <c r="F63">
         <f t="shared" si="4"/>
-        <v>231.72582350826377</v>
+        <v>90.900976156661727</v>
       </c>
       <c r="G63">
         <f t="shared" si="5"/>
-        <v>926.90329403305509</v>
+        <v>363.60390462664691</v>
       </c>
       <c r="H63">
         <f t="shared" si="6"/>
-        <v>37.987839919387504</v>
+        <v>14.901799369944547</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
@@ -4733,7 +4830,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>5.654059767346939</v>
+        <v>2.6540597673469386</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
@@ -4741,23 +4838,23 @@
       </c>
       <c r="D64">
         <f t="shared" si="2"/>
-        <v>5.6557919448358733</v>
+        <v>2.6577479036185339</v>
       </c>
       <c r="E64">
         <f t="shared" si="3"/>
-        <v>1.4139479862089683</v>
+        <v>0.66443697590463346</v>
       </c>
       <c r="F64">
         <f t="shared" si="4"/>
-        <v>229.47514799228458</v>
+        <v>89.24141863812946</v>
       </c>
       <c r="G64">
         <f t="shared" si="5"/>
-        <v>917.9005919691383</v>
+        <v>356.96567455251784</v>
       </c>
       <c r="H64">
         <f t="shared" si="6"/>
-        <v>37.012120643916866</v>
+        <v>14.393777199698299</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
@@ -4766,7 +4863,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>5.6114435785714294</v>
+        <v>2.6114435785714285</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
@@ -4774,23 +4871,23 @@
       </c>
       <c r="D65">
         <f t="shared" si="2"/>
-        <v>5.6133032485123753</v>
+        <v>2.615437226991121</v>
       </c>
       <c r="E65">
         <f t="shared" si="3"/>
-        <v>1.4033258121280938</v>
+        <v>0.65385930674778026</v>
       </c>
       <c r="F65">
         <f t="shared" si="4"/>
-        <v>227.19471281336007</v>
+        <v>87.562501289492161</v>
       </c>
       <c r="G65">
         <f t="shared" si="5"/>
-        <v>908.77885125344028</v>
+        <v>350.25000515796864</v>
       </c>
       <c r="H65">
         <f t="shared" si="6"/>
-        <v>36.062652827517475</v>
+        <v>13.89880972849082</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
@@ -4799,7 +4896,7 @@
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>5.568112457142858</v>
+        <v>2.5681124571428571</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
@@ -4807,23 +4904,23 @@
       </c>
       <c r="D66">
         <f t="shared" si="2"/>
-        <v>5.5701073943172821</v>
+        <v>2.5724349634871069</v>
       </c>
       <c r="E66">
         <f t="shared" si="3"/>
-        <v>1.3925268485793205</v>
+        <v>0.64310874087177672</v>
       </c>
       <c r="F66">
         <f t="shared" si="4"/>
-        <v>224.88495978860351</v>
+        <v>85.86470172400513</v>
       </c>
       <c r="G66">
         <f t="shared" si="5"/>
-        <v>899.53983915441404</v>
+        <v>343.45880689602052</v>
       </c>
       <c r="H66">
         <f t="shared" si="6"/>
-        <v>35.138274966969298</v>
+        <v>13.416359644375801</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -4832,7 +4929,7 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B130" si="7">IF($K$4-(0.350317*A67*A67-0.202576*A67)/9.8&gt;0, $K$4-(0.350317*A67*A67-0.202576*A67)/9.8, 0)</f>
-        <v>5.5240664030612248</v>
+        <v>2.5240664030612243</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C130" si="8">(0.0350823*A67*A67+0.00372739*A67)/9.8</f>
@@ -4840,23 +4937,23 @@
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D130" si="9">SQRT(C67*C67+B67*B67)</f>
-        <v>5.5262047952502042</v>
+        <v>2.5287429724428314</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" si="10">D67/4</f>
-        <v>1.3815511988125511</v>
+        <v>0.63218574311070785</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F130" si="11">1000000*0.0000373344395*E67*E67+ 1000*0.109504955*E67</f>
-        <v>222.54633853624193</v>
+        <v>84.148509155155168</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G130" si="12">F67*4</f>
-        <v>890.18535414496773</v>
+        <v>336.59403662062067</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H130" si="13">F67/A67</f>
-        <v>34.237898236344911</v>
+        <v>12.945924485408487</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
@@ -4865,7 +4962,7 @@
       </c>
       <c r="B68">
         <f t="shared" si="7"/>
-        <v>5.4793054163265316</v>
+        <v>2.4793054163265307</v>
       </c>
       <c r="C68">
         <f t="shared" si="8"/>
@@ -4873,23 +4970,23 @@
       </c>
       <c r="D68">
         <f t="shared" si="9"/>
-        <v>5.4815958866112711</v>
+        <v>2.4843632919028593</v>
       </c>
       <c r="E68">
         <f t="shared" si="10"/>
-        <v>1.3703989716528178</v>
+        <v>0.62109082297571483</v>
       </c>
       <c r="F68">
         <f t="shared" si="11"/>
-        <v>220.17930651278778</v>
+        <v>82.414424916568819</v>
       </c>
       <c r="G68">
         <f t="shared" si="12"/>
-        <v>880.7172260511511</v>
+        <v>329.65769966627528</v>
       </c>
       <c r="H68">
         <f t="shared" si="13"/>
-        <v>33.360500986786029</v>
+        <v>12.487034078268003</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
@@ -4898,7 +4995,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="7"/>
-        <v>5.4338294969387757</v>
+        <v>2.4338294969387753</v>
       </c>
       <c r="C69">
         <f t="shared" si="8"/>
@@ -4906,23 +5003,23 @@
       </c>
       <c r="D69">
         <f t="shared" si="9"/>
-        <v>5.4362811274673328</v>
+        <v>2.4392981603782755</v>
       </c>
       <c r="E69">
         <f t="shared" si="10"/>
-        <v>1.3590702818668332</v>
+        <v>0.60982454009456888</v>
       </c>
       <c r="F69">
         <f t="shared" si="11"/>
-        <v>217.78432905317737</v>
+        <v>80.662963057672897</v>
       </c>
       <c r="G69">
         <f t="shared" si="12"/>
-        <v>871.13731621270949</v>
+        <v>322.65185223069159</v>
       </c>
       <c r="H69">
         <f t="shared" si="13"/>
-        <v>32.505123739280201</v>
+        <v>12.039248217563118</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
@@ -4931,7 +5028,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="7"/>
-        <v>5.3876386448979598</v>
+        <v>2.3876386448979594</v>
       </c>
       <c r="C70">
         <f t="shared" si="8"/>
@@ -4939,23 +5036,23 @@
       </c>
       <c r="D70">
         <f t="shared" si="9"/>
-        <v>5.3902610022367492</v>
+        <v>2.3935500418513422</v>
       </c>
       <c r="E70">
         <f t="shared" si="10"/>
-        <v>1.3475652505591873</v>
+        <v>0.59838751046283556</v>
       </c>
       <c r="F70">
         <f t="shared" si="11"/>
-        <v>215.36187941415722</v>
+        <v>78.894651028227713</v>
       </c>
       <c r="G70">
         <f t="shared" si="12"/>
-        <v>861.44751765662886</v>
+        <v>315.57860411291085</v>
       </c>
       <c r="H70">
         <f t="shared" si="13"/>
-        <v>31.670864619729002</v>
+        <v>11.602154562974665</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
@@ -4964,7 +5061,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="7"/>
-        <v>5.3407328602040822</v>
+        <v>2.3407328602040813</v>
       </c>
       <c r="C71">
         <f t="shared" si="8"/>
@@ -4972,23 +5069,23 @@
       </c>
       <c r="D71">
         <f t="shared" si="9"/>
-        <v>5.3435360224039767</v>
+        <v>2.3471216546025935</v>
       </c>
       <c r="E71">
         <f t="shared" si="10"/>
-        <v>1.3358840056009942</v>
+        <v>0.58678041365064837</v>
       </c>
       <c r="F71">
         <f t="shared" si="11"/>
-        <v>212.91243882122228</v>
+        <v>77.110030467504558</v>
       </c>
       <c r="G71">
         <f t="shared" si="12"/>
-        <v>851.64975528488912</v>
+        <v>308.44012187001823</v>
       </c>
       <c r="H71">
         <f t="shared" si="13"/>
-        <v>30.856875191481489</v>
+        <v>11.175366734420949</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
@@ -4997,7 +5094,7 @@
       </c>
       <c r="B72">
         <f t="shared" si="7"/>
-        <v>5.2931121428571437</v>
+        <v>2.2931121428571428</v>
       </c>
       <c r="C72">
         <f t="shared" si="8"/>
@@ -5005,23 +5102,23 @@
       </c>
       <c r="D72">
         <f t="shared" si="9"/>
-        <v>5.2961067283764862</v>
+        <v>2.3000160045555829</v>
       </c>
       <c r="E72">
         <f t="shared" si="10"/>
-        <v>1.3240266820941216</v>
+        <v>0.57500400113889572</v>
       </c>
       <c r="F72">
         <f t="shared" si="11"/>
-        <v>210.43649651945179</v>
+        <v>75.309658117139648</v>
       </c>
       <c r="G72">
         <f t="shared" si="12"/>
-        <v>841.74598607780717</v>
+        <v>301.23863246855859</v>
       </c>
       <c r="H72">
         <f t="shared" si="13"/>
-        <v>30.062356645635969</v>
+        <v>10.758522588162807</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
@@ -5030,7 +5127,7 @@
       </c>
       <c r="B73">
         <f t="shared" si="7"/>
-        <v>5.2447764928571434</v>
+        <v>2.2447764928571434</v>
       </c>
       <c r="C73">
         <f t="shared" si="8"/>
@@ -5038,23 +5135,23 @@
       </c>
       <c r="D73">
         <f t="shared" si="9"/>
-        <v>5.2479736914978554</v>
+        <v>2.2522364239818984</v>
       </c>
       <c r="E73">
         <f t="shared" si="10"/>
-        <v>1.3119934228744639</v>
+        <v>0.5630591059954746</v>
       </c>
       <c r="F73">
         <f t="shared" si="11"/>
-        <v>207.93454982861999</v>
+        <v>73.494106880731593</v>
       </c>
       <c r="G73">
         <f t="shared" si="12"/>
-        <v>831.73819931447997</v>
+        <v>293.97642752292637</v>
       </c>
       <c r="H73">
         <f t="shared" si="13"/>
-        <v>29.286556313890141</v>
+        <v>10.351282659257972</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
@@ -5063,7 +5160,7 @@
       </c>
       <c r="B74">
         <f t="shared" si="7"/>
-        <v>5.1957259102040823</v>
+        <v>2.1957259102040818</v>
       </c>
       <c r="C74">
         <f t="shared" si="8"/>
@@ -5071,23 +5168,23 @@
       </c>
       <c r="D74">
         <f t="shared" si="9"/>
-        <v>5.1991375162325033</v>
+        <v>2.2037866165924034</v>
       </c>
       <c r="E74">
         <f t="shared" si="10"/>
-        <v>1.2997843790581258</v>
+        <v>0.55094665414810085</v>
       </c>
       <c r="F74">
         <f t="shared" si="11"/>
-        <v>205.40710420300607</v>
+        <v>71.663967058270146</v>
       </c>
       <c r="G74">
         <f t="shared" si="12"/>
-        <v>821.62841681202428</v>
+        <v>286.65586823308058</v>
       </c>
       <c r="H74">
         <f t="shared" si="13"/>
-        <v>28.528764472639732</v>
+        <v>9.9533287580930754</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -5096,7 +5193,7 @@
       </c>
       <c r="B75">
         <f t="shared" si="7"/>
-        <v>5.1459603948979602</v>
+        <v>2.1459603948979593</v>
       </c>
       <c r="C75">
         <f t="shared" si="8"/>
@@ -5104,23 +5201,23 @@
       </c>
       <c r="D75">
         <f t="shared" si="9"/>
-        <v>5.1495988425392705</v>
+        <v>2.1546707102696754</v>
       </c>
       <c r="E75">
         <f t="shared" si="10"/>
-        <v>1.2873997106348176</v>
+        <v>0.53866767756741885</v>
       </c>
       <c r="F75">
         <f t="shared" si="11"/>
-        <v>202.85467329637379</v>
+        <v>69.819847789751989</v>
       </c>
       <c r="G75">
         <f t="shared" si="12"/>
-        <v>811.41869318549516</v>
+        <v>279.27939115900796</v>
       </c>
       <c r="H75">
         <f t="shared" si="13"/>
-        <v>27.788311410462164</v>
+        <v>9.5643627109249305</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
@@ -5129,7 +5226,7 @@
       </c>
       <c r="B76">
         <f t="shared" si="7"/>
-        <v>5.0954799469387755</v>
+        <v>2.0954799469387755</v>
       </c>
       <c r="C76">
         <f t="shared" si="8"/>
@@ -5137,23 +5234,23 @@
       </c>
       <c r="D76">
         <f t="shared" si="9"/>
-        <v>5.0993583484530491</v>
+        <v>2.1048933189843986</v>
       </c>
       <c r="E76">
         <f t="shared" si="10"/>
-        <v>1.2748395871132623</v>
+        <v>0.52622332974609964</v>
       </c>
       <c r="F76">
         <f t="shared" si="11"/>
-        <v>200.27777903264658</v>
+        <v>67.962378750218662</v>
       </c>
       <c r="G76">
         <f t="shared" si="12"/>
-        <v>801.11111613058631</v>
+        <v>271.84951500087465</v>
       </c>
       <c r="H76">
         <f t="shared" si="13"/>
-        <v>27.064564734141427</v>
+        <v>9.1841052365160341</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
@@ -5162,7 +5259,7 @@
       </c>
       <c r="B77">
         <f t="shared" si="7"/>
-        <v>5.0442845663265317</v>
+        <v>2.0442845663265308</v>
       </c>
       <c r="C77">
         <f t="shared" si="8"/>
@@ -5170,23 +5267,23 @@
       </c>
       <c r="D77">
         <f t="shared" si="9"/>
-        <v>5.0484167528959656</v>
+        <v>2.0544596158020361</v>
       </c>
       <c r="E77">
         <f t="shared" si="10"/>
-        <v>1.2621041882239914</v>
+        <v>0.51361490395050902</v>
       </c>
       <c r="F77">
         <f t="shared" si="11"/>
-        <v>197.67695168286772</v>
+        <v>66.092212148404712</v>
       </c>
       <c r="G77">
         <f t="shared" si="12"/>
-        <v>790.7078067314709</v>
+        <v>264.36884859361885</v>
       </c>
       <c r="H77">
         <f t="shared" si="13"/>
-        <v>26.356926891049032</v>
+        <v>8.8122949531206292</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
@@ -5195,7 +5292,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="7"/>
-        <v>4.9923742530612252</v>
+        <v>1.992374253061225</v>
       </c>
       <c r="C78">
         <f t="shared" si="8"/>
@@ -5203,23 +5300,23 @@
       </c>
       <c r="D78">
         <f t="shared" si="9"/>
-        <v>4.9967748187420939</v>
+        <v>2.0033754193479898</v>
       </c>
       <c r="E78">
         <f t="shared" si="10"/>
-        <v>1.2491937046855235</v>
+        <v>0.50084385483699745</v>
       </c>
       <c r="F78">
         <f t="shared" si="11"/>
-        <v>195.05272994910001</v>
+        <v>64.210025093828435</v>
       </c>
       <c r="G78">
         <f t="shared" si="12"/>
-        <v>780.21091979640005</v>
+        <v>256.84010037531374</v>
       </c>
       <c r="H78">
         <f t="shared" si="13"/>
-        <v>25.664832888039477</v>
+        <v>8.4486875123458471</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
@@ -5228,7 +5325,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="7"/>
-        <v>4.9397490071428578</v>
+        <v>1.9397490071428569</v>
       </c>
       <c r="C79">
         <f t="shared" si="8"/>
@@ -5236,23 +5333,23 @@
       </c>
       <c r="D79">
         <f t="shared" si="9"/>
-        <v>4.9444333561627216</v>
+        <v>1.9516472966900051</v>
       </c>
       <c r="E79">
         <f t="shared" si="10"/>
-        <v>1.2361083390406804</v>
+        <v>0.48791182417250129</v>
       </c>
       <c r="F79">
         <f t="shared" si="11"/>
-        <v>192.40566105600709</v>
+        <v>62.316522413325266</v>
       </c>
       <c r="G79">
         <f t="shared" si="12"/>
-        <v>769.62264422402836</v>
+        <v>249.26608965330107</v>
       </c>
       <c r="H79">
         <f t="shared" si="13"/>
-        <v>24.987748189091828</v>
+        <v>8.0930548588734119</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
@@ -5261,7 +5358,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="7"/>
-        <v>4.8864088285714296</v>
+        <v>1.8864088285714287</v>
       </c>
       <c r="C80">
         <f t="shared" si="8"/>
@@ -5269,23 +5366,23 @@
       </c>
       <c r="D80">
         <f t="shared" si="9"/>
-        <v>4.8913932262823669</v>
+        <v>1.8992826863562051</v>
       </c>
       <c r="E80">
         <f t="shared" si="10"/>
-        <v>1.2228483065705917</v>
+        <v>0.47482067158905128</v>
       </c>
       <c r="F80">
         <f t="shared" si="11"/>
-        <v>189.73630085094106</v>
+        <v>60.412440018818856</v>
       </c>
       <c r="G80">
         <f t="shared" si="12"/>
-        <v>758.94520340376425</v>
+        <v>241.64976007527542</v>
       </c>
       <c r="H80">
         <f t="shared" si="13"/>
-        <v>24.325166775761677</v>
+        <v>7.7451846177972898</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
@@ -5294,7 +5391,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="7"/>
-        <v>4.8323537173469386</v>
+        <v>1.8323537173469386</v>
       </c>
       <c r="C81">
         <f t="shared" si="8"/>
@@ -5302,23 +5399,23 @@
       </c>
       <c r="D81">
         <f t="shared" si="9"/>
-        <v>4.837655345179626</v>
+        <v>1.8462900461908416</v>
       </c>
       <c r="E81">
         <f t="shared" si="10"/>
-        <v>1.2094138362949065</v>
+        <v>0.4615725115477104</v>
       </c>
       <c r="F81">
         <f t="shared" si="11"/>
-        <v>187.04521391347086</v>
+        <v>58.498548955055284</v>
       </c>
       <c r="G81">
         <f t="shared" si="12"/>
-        <v>748.18085565388344</v>
+        <v>233.99419582022114</v>
       </c>
       <c r="H81">
         <f t="shared" si="13"/>
-        <v>23.67660935613555</v>
+        <v>7.4048796145639599</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
@@ -5327,7 +5424,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="7"/>
-        <v>4.7775836734693886</v>
+        <v>1.7775836734693882</v>
       </c>
       <c r="C82">
         <f t="shared" si="8"/>
@@ -5335,23 +5432,23 @@
       </c>
       <c r="D82">
         <f t="shared" si="9"/>
-        <v>4.7832206882712054</v>
+        <v>1.7926790320325974</v>
       </c>
       <c r="E82">
         <f t="shared" si="10"/>
-        <v>1.1958051720678013</v>
+        <v>0.44816975800814934</v>
       </c>
       <c r="F82">
         <f t="shared" si="11"/>
-        <v>184.33297367540058</v>
+        <v>56.575660291143059</v>
       </c>
       <c r="G82">
         <f t="shared" si="12"/>
-        <v>737.33189470160232</v>
+        <v>226.30264116457224</v>
       </c>
       <c r="H82">
         <f t="shared" si="13"/>
-        <v>23.041621709425073</v>
+        <v>7.0719575363928824</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
@@ -5360,7 +5457,7 @@
       </c>
       <c r="B83">
         <f t="shared" si="7"/>
-        <v>4.7220986969387759</v>
+        <v>1.7220986969387759</v>
       </c>
       <c r="C83">
         <f t="shared" si="8"/>
@@ -5368,23 +5465,23 @@
       </c>
       <c r="D83">
         <f t="shared" si="9"/>
-        <v>4.7280902951224002</v>
+        <v>1.7384607148848574</v>
       </c>
       <c r="E83">
         <f t="shared" si="10"/>
-        <v>1.1820225737806</v>
+        <v>0.43461517872121436</v>
       </c>
       <c r="F83">
         <f t="shared" si="11"/>
-        <v>181.60016255246208</v>
+        <v>54.644631065858235</v>
       </c>
       <c r="G83">
         <f t="shared" si="12"/>
-        <v>726.40065020984832</v>
+        <v>218.57852426343294</v>
       </c>
       <c r="H83">
         <f t="shared" si="13"/>
-        <v>22.419773154624949</v>
+        <v>6.746250748871387</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
@@ -5393,7 +5490,7 @@
       </c>
       <c r="B84">
         <f t="shared" si="7"/>
-        <v>4.6658987877551032</v>
+        <v>1.6658987877551028</v>
       </c>
       <c r="C84">
         <f t="shared" si="8"/>
@@ -5401,23 +5498,23 @@
       </c>
       <c r="D84">
         <f t="shared" si="9"/>
-        <v>4.6722652747330358</v>
+        <v>1.6836478464766762</v>
       </c>
       <c r="E84">
         <f t="shared" si="10"/>
-        <v>1.1680663186832589</v>
+        <v>0.42091196161916905</v>
       </c>
       <c r="F84">
         <f t="shared" si="11"/>
-        <v>178.84737208902433</v>
+        <v>52.706371557704912</v>
       </c>
       <c r="G84">
         <f t="shared" si="12"/>
-        <v>715.38948835609733</v>
+        <v>210.82548623081965</v>
       </c>
       <c r="H84">
         <f t="shared" si="13"/>
-        <v>21.810655132807849</v>
+        <v>6.4276062875249895</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
@@ -5426,7 +5523,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="7"/>
-        <v>4.6089839459183679</v>
+        <v>1.608983945918367</v>
       </c>
       <c r="C85">
         <f t="shared" si="8"/>
@@ -5434,23 +5531,23 @@
       </c>
       <c r="D85">
         <f t="shared" si="9"/>
-        <v>4.6157468113542679</v>
+        <v>1.6282551860862851</v>
       </c>
       <c r="E85">
         <f t="shared" si="10"/>
-        <v>1.153936702838567</v>
+        <v>0.40706379652157126</v>
       </c>
       <c r="F85">
         <f t="shared" si="11"/>
-        <v>176.07520311733555</v>
+        <v>50.761854232113521</v>
       </c>
       <c r="G85">
         <f t="shared" si="12"/>
-        <v>704.30081246934219</v>
+        <v>203.04741692845408</v>
       </c>
       <c r="H85">
         <f t="shared" si="13"/>
-        <v>21.213879893654884</v>
+        <v>6.1158860520618692</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
@@ -5459,7 +5556,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="7"/>
-        <v>4.5513541714285717</v>
+        <v>1.5513541714285712</v>
       </c>
       <c r="C86">
         <f t="shared" si="8"/>
@@ -5467,23 +5564,23 @@
       </c>
       <c r="D86">
         <f t="shared" si="9"/>
-        <v>4.5585361708992505</v>
+        <v>1.5722999054968381</v>
       </c>
       <c r="E86">
         <f t="shared" si="10"/>
-        <v>1.1396340427248126</v>
+        <v>0.39307497637420952</v>
       </c>
       <c r="F86">
         <f t="shared" si="11"/>
-        <v>173.28426593302314</v>
+        <v>48.812124827606091</v>
       </c>
       <c r="G86">
         <f t="shared" si="12"/>
-        <v>693.13706373209254</v>
+        <v>195.24849931042436</v>
       </c>
       <c r="H86">
         <f t="shared" si="13"/>
-        <v>20.62907927774085</v>
+        <v>5.8109672413816771</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
@@ -5492,7 +5589,7 @@
       </c>
       <c r="B87">
         <f t="shared" si="7"/>
-        <v>4.4930094642857146</v>
+        <v>1.4930094642857146</v>
       </c>
       <c r="C87">
         <f t="shared" si="8"/>
@@ -5500,23 +5597,23 @@
       </c>
       <c r="D87">
         <f t="shared" si="9"/>
-        <v>4.5006347080192191</v>
+        <v>1.5158020943754345</v>
       </c>
       <c r="E87">
         <f t="shared" si="10"/>
-        <v>1.1251586770048048</v>
+        <v>0.37895052359385861</v>
       </c>
       <c r="F87">
         <f t="shared" si="11"/>
-        <v>170.47518048881017</v>
+        <v>46.858316191172996</v>
       </c>
       <c r="G87">
         <f t="shared" si="12"/>
-        <v>681.90072195524067</v>
+        <v>187.43326476469198</v>
       </c>
       <c r="H87">
         <f t="shared" si="13"/>
-        <v>20.055903586918845</v>
+        <v>5.5127430813144702</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
@@ -5525,7 +5622,7 @@
       </c>
       <c r="B88">
         <f t="shared" si="7"/>
-        <v>4.4339498244897957</v>
+        <v>1.4339498244897957</v>
       </c>
       <c r="C88">
         <f t="shared" si="8"/>
@@ -5533,23 +5630,23 @@
       </c>
       <c r="D88">
         <f t="shared" si="9"/>
-        <v>4.4420438739266119</v>
+        <v>1.4587853957831391</v>
       </c>
       <c r="E88">
         <f t="shared" si="10"/>
-        <v>1.110510968481653</v>
+        <v>0.36469634894578479</v>
       </c>
       <c r="F88">
         <f t="shared" si="11"/>
-        <v>167.64857660868302</v>
+        <v>44.901665676146948</v>
       </c>
       <c r="G88">
         <f t="shared" si="12"/>
-        <v>670.59430643473206</v>
+        <v>179.60666270458779</v>
       </c>
       <c r="H88">
         <f t="shared" si="13"/>
-        <v>19.494020535893373</v>
+        <v>5.2211239158310407</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
@@ -5558,7 +5655,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="7"/>
-        <v>4.3741752520408177</v>
+        <v>1.3741752520408168</v>
       </c>
       <c r="C89">
         <f t="shared" si="8"/>
@@ -5566,23 +5663,23 @@
       </c>
       <c r="D89">
         <f t="shared" si="9"/>
-        <v>4.3827652250583791</v>
+        <v>1.4012778117618641</v>
       </c>
       <c r="E89">
         <f t="shared" si="10"/>
-        <v>1.0956913062645948</v>
+        <v>0.35031945294046601</v>
       </c>
       <c r="F89">
         <f t="shared" si="11"/>
-        <v>164.8050942250604</v>
+        <v>42.943537196141911</v>
       </c>
       <c r="G89">
         <f t="shared" si="12"/>
-        <v>659.2203769002416</v>
+        <v>171.77414878456764</v>
       </c>
       <c r="H89">
         <f t="shared" si="13"/>
-        <v>18.943114278742577</v>
+        <v>4.9360387581772311</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
@@ -5591,7 +5688,7 @@
       </c>
       <c r="B90">
         <f t="shared" si="7"/>
-        <v>4.3136857469387753</v>
+        <v>1.3136857469387748</v>
       </c>
       <c r="C90">
         <f t="shared" si="8"/>
@@ -5599,23 +5696,23 @@
       </c>
       <c r="D90">
         <f t="shared" si="9"/>
-        <v>4.3228004326860967</v>
+        <v>1.3433127332078916</v>
       </c>
       <c r="E90">
         <f t="shared" si="10"/>
-        <v>1.0807001081715242</v>
+        <v>0.33582818330197289</v>
       </c>
       <c r="F90">
         <f t="shared" si="11"/>
-        <v>161.94538364188176</v>
+        <v>40.985449419116435</v>
       </c>
       <c r="G90">
         <f t="shared" si="12"/>
-        <v>647.78153456752705</v>
+        <v>163.94179767646574</v>
       </c>
       <c r="H90">
         <f t="shared" si="13"/>
-        <v>18.402884504759289</v>
+        <v>4.6574374339905038</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
@@ -5624,7 +5721,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="7"/>
-        <v>4.2524813091836737</v>
+        <v>1.2524813091836733</v>
       </c>
       <c r="C91">
         <f t="shared" si="8"/>
@@ -5632,23 +5729,23 @@
       </c>
       <c r="D91">
         <f t="shared" si="9"/>
-        <v>4.2621512935952284</v>
+        <v>1.2849302682999693</v>
       </c>
       <c r="E91">
         <f t="shared" si="10"/>
-        <v>1.0655378233988071</v>
+        <v>0.32123256707499231</v>
       </c>
       <c r="F91">
         <f t="shared" si="11"/>
-        <v>159.07010582696574</v>
+        <v>39.029112134738448</v>
       </c>
       <c r="G91">
         <f t="shared" si="12"/>
-        <v>636.28042330786297</v>
+        <v>156.11644853895379</v>
       </c>
       <c r="H91">
         <f t="shared" si="13"/>
-        <v>17.873045598535477</v>
+        <v>4.3852934982852183</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
@@ -5657,7 +5754,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="7"/>
-        <v>4.1905619387755113</v>
+        <v>1.1905619387755104</v>
       </c>
       <c r="C92">
         <f t="shared" si="8"/>
@@ -5665,23 +5762,23 @@
       </c>
       <c r="D92">
         <f t="shared" si="9"/>
-        <v>4.2008197419740485</v>
+        <v>1.2261789722164718</v>
       </c>
       <c r="E92">
         <f t="shared" si="10"/>
-        <v>1.0502049354935121</v>
+        <v>0.30654474305411794</v>
       </c>
       <c r="F92">
         <f t="shared" si="11"/>
-        <v>156.17993273748374</v>
+        <v>37.076473607535185</v>
       </c>
       <c r="G92">
         <f t="shared" si="12"/>
-        <v>624.71973094993496</v>
+        <v>148.30589443014074</v>
       </c>
       <c r="H92">
         <f t="shared" si="13"/>
-        <v>17.353325859720414</v>
+        <v>4.1196081786150209</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
@@ -5690,7 +5787,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="7"/>
-        <v>4.1279276357142862</v>
+        <v>1.1279276357142862</v>
       </c>
       <c r="C93">
         <f t="shared" si="8"/>
@@ -5698,23 +5795,23 @@
       </c>
       <c r="D93">
         <f t="shared" si="9"/>
-        <v>4.1388078626743212</v>
+        <v>1.1671181216351101</v>
       </c>
       <c r="E93">
         <f t="shared" si="10"/>
-        <v>1.0347019656685803</v>
+        <v>0.29177953040877752</v>
       </c>
       <c r="F93">
         <f t="shared" si="11"/>
-        <v>153.27554768298776</v>
+        <v>35.129782844140252</v>
       </c>
       <c r="G93">
         <f t="shared" si="12"/>
-        <v>613.10219073195105</v>
+        <v>140.51913137656101</v>
       </c>
       <c r="H93">
         <f t="shared" si="13"/>
-        <v>16.843466778350304</v>
+        <v>3.8604156971582695</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
@@ -5723,7 +5820,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="7"/>
-        <v>4.0645784000000011</v>
+        <v>1.0645784000000007</v>
       </c>
       <c r="C94">
         <f t="shared" si="8"/>
@@ -5731,23 +5828,23 @@
       </c>
       <c r="D94">
         <f t="shared" si="9"/>
-        <v>4.0761179060308184</v>
+        <v>1.1078207363400685</v>
       </c>
       <c r="E94">
         <f t="shared" si="10"/>
-        <v>1.0190294765077046</v>
+        <v>0.27695518408501713</v>
       </c>
       <c r="F94">
         <f t="shared" si="11"/>
-        <v>150.35764573111288</v>
+        <v>33.191672313532102</v>
       </c>
       <c r="G94">
         <f t="shared" si="12"/>
-        <v>601.43058292445153</v>
+        <v>132.76668925412841</v>
       </c>
       <c r="H94">
         <f t="shared" si="13"/>
-        <v>16.343222362077487</v>
+        <v>3.6077904688621851</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
@@ -5756,7 +5853,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="7"/>
-        <v>4.0005142316326534</v>
+        <v>1.000514231632653</v>
       </c>
       <c r="C95">
         <f t="shared" si="8"/>
@@ -5764,23 +5861,23 @@
       </c>
       <c r="D95">
         <f t="shared" si="9"/>
-        <v>4.0127523044564093</v>
+        <v>1.0483776357421533</v>
       </c>
       <c r="E95">
         <f t="shared" si="10"/>
-        <v>1.0031880761141023</v>
+        <v>0.26209440893553831</v>
       </c>
       <c r="F95">
         <f t="shared" si="11"/>
-        <v>147.42693416188848</v>
+        <v>31.265268999298005</v>
       </c>
       <c r="G95">
         <f t="shared" si="12"/>
-        <v>589.70773664755393</v>
+        <v>125.06107599719202</v>
       </c>
       <c r="H95">
         <f t="shared" si="13"/>
-        <v>15.852358512031019</v>
+        <v>3.3618568816449463</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
@@ -5789,7 +5886,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="7"/>
-        <v>3.9357351306122457</v>
+        <v>0.93573513061224523</v>
       </c>
       <c r="C96">
         <f t="shared" si="8"/>
@@ -5797,23 +5894,23 @@
       </c>
       <c r="D96">
         <f t="shared" si="9"/>
-        <v>3.9487136910643952</v>
+        <v>0.98890294282397795</v>
       </c>
       <c r="E96">
         <f t="shared" si="10"/>
-        <v>0.9871784227660988</v>
+        <v>0.24722573570599449</v>
       </c>
       <c r="F96">
         <f t="shared" si="11"/>
-        <v>144.48413297754774</v>
+        <v>29.354345076951624</v>
       </c>
       <c r="G96">
         <f t="shared" si="12"/>
-        <v>577.93653191019098</v>
+        <v>117.4173803078065</v>
       </c>
       <c r="H96">
         <f t="shared" si="13"/>
-        <v>15.370652444419973</v>
+        <v>3.1228026677608112</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
@@ -5822,7 +5919,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="7"/>
-        <v>3.8702410969387766</v>
+        <v>0.87024109693877616</v>
       </c>
       <c r="C97">
         <f t="shared" si="8"/>
@@ -5830,23 +5927,23 @@
       </c>
       <c r="D97">
         <f t="shared" si="9"/>
-        <v>3.8840049206109684</v>
+        <v>0.92954162988945954</v>
       </c>
       <c r="E97">
         <f t="shared" si="10"/>
-        <v>0.97100123015274209</v>
+        <v>0.23238540747236489</v>
       </c>
       <c r="F97">
         <f t="shared" si="11"/>
-        <v>141.52997547585323</v>
+        <v>27.463524488172666</v>
       </c>
       <c r="G97">
         <f t="shared" si="12"/>
-        <v>566.11990190341294</v>
+        <v>109.85409795269067</v>
       </c>
       <c r="H97">
         <f t="shared" si="13"/>
-        <v>14.897892155352972</v>
+        <v>2.8908973145444912</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
@@ -5855,7 +5952,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="7"/>
-        <v>3.8040321306122453</v>
+        <v>0.80403213061224488</v>
       </c>
       <c r="C98">
         <f t="shared" si="8"/>
@@ -5863,23 +5960,23 @@
       </c>
       <c r="D98">
         <f t="shared" si="9"/>
-        <v>3.8186290930998901</v>
+        <v>0.87047996358067747</v>
       </c>
       <c r="E98">
         <f t="shared" si="10"/>
-        <v>0.95465727327497252</v>
+        <v>0.21761999089516937</v>
       </c>
       <c r="F98">
         <f t="shared" si="11"/>
-        <v>138.56520889630445</v>
+        <v>25.598568886082226</v>
       </c>
       <c r="G98">
         <f t="shared" si="12"/>
-        <v>554.26083558521782</v>
+        <v>102.39427554432891</v>
       </c>
       <c r="H98">
         <f t="shared" si="13"/>
-        <v>14.433875926698381</v>
+        <v>2.6665175923002322</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
@@ -5888,7 +5985,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="7"/>
-        <v>3.737108231632654</v>
+        <v>0.7371082316326536</v>
       </c>
       <c r="C99">
         <f t="shared" si="8"/>
@@ -5896,23 +5993,23 @@
       </c>
       <c r="D99">
         <f t="shared" si="9"/>
-        <v>3.752589580449778</v>
+        <v>0.81196007876269083</v>
       </c>
       <c r="E99">
         <f t="shared" si="10"/>
-        <v>0.93814739511244449</v>
+        <v>0.20299001969067271</v>
       </c>
       <c r="F99">
         <f t="shared" si="11"/>
-        <v>135.59059515018777</v>
+        <v>23.766776613393045</v>
       </c>
       <c r="G99">
         <f t="shared" si="12"/>
-        <v>542.36238060075107</v>
+        <v>95.06710645357218</v>
       </c>
       <c r="H99">
         <f t="shared" si="13"/>
-        <v>13.978411871153378</v>
+        <v>2.4501831560199019</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
@@ -5921,7 +6018,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="7"/>
-        <v>3.6694694000000001</v>
+        <v>0.66946939999999966</v>
       </c>
       <c r="C100">
         <f t="shared" si="8"/>
@@ -5929,23 +6026,23 @@
       </c>
       <c r="D100">
         <f t="shared" si="9"/>
-        <v>3.6858900566942587</v>
+        <v>0.7543004110018795</v>
       </c>
       <c r="E100">
         <f t="shared" si="10"/>
-        <v>0.92147251417356468</v>
+        <v>0.18857510275046988</v>
       </c>
       <c r="F100">
         <f t="shared" si="11"/>
-        <v>132.60691164734277</v>
+        <v>21.977542066814813</v>
       </c>
       <c r="G100">
         <f t="shared" si="12"/>
-        <v>530.42764658937108</v>
+        <v>87.910168267259252</v>
       </c>
       <c r="H100">
         <f t="shared" si="13"/>
-        <v>13.531317515034976</v>
+        <v>2.2426063333484501</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
@@ -5954,7 +6051,7 @@
       </c>
       <c r="B101">
         <f t="shared" si="7"/>
-        <v>3.6011156357142857</v>
+        <v>0.60111563571428528</v>
       </c>
       <c r="C101">
         <f t="shared" si="8"/>
@@ -5962,23 +6059,23 @@
       </c>
       <c r="D101">
         <f t="shared" si="9"/>
-        <v>3.6185345322689595</v>
+        <v>0.69792431318676795</v>
       </c>
       <c r="E101">
         <f t="shared" si="10"/>
-        <v>0.90463363306723987</v>
+        <v>0.17448107829669199</v>
       </c>
       <c r="F101">
         <f t="shared" si="11"/>
-        <v>129.6149522348116</v>
+        <v>20.243139112498088</v>
       </c>
       <c r="G101">
         <f t="shared" si="12"/>
-        <v>518.45980893924639</v>
+        <v>80.972556449992354</v>
       </c>
       <c r="H101">
         <f t="shared" si="13"/>
-        <v>13.092419417657737</v>
+        <v>2.0447615265149586</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
@@ -5987,7 +6084,7 @@
       </c>
       <c r="B102">
         <f t="shared" si="7"/>
-        <v>3.5320469387755105</v>
+        <v>0.53204693877551001</v>
       </c>
       <c r="C102">
         <f t="shared" si="8"/>
@@ -5995,23 +6092,23 @@
       </c>
       <c r="D102">
         <f t="shared" si="9"/>
-        <v>3.5505273930399035</v>
+        <v>0.64339967055763181</v>
       </c>
       <c r="E102">
         <f t="shared" si="10"/>
-        <v>0.88763184825997588</v>
+        <v>0.16084991763940795</v>
       </c>
       <c r="F102">
         <f t="shared" si="11"/>
-        <v>126.61552826528921</v>
+        <v>18.579805596542865</v>
       </c>
       <c r="G102">
         <f t="shared" si="12"/>
-        <v>506.46211306115686</v>
+        <v>74.319222386171461</v>
       </c>
       <c r="H102">
         <f t="shared" si="13"/>
-        <v>12.661552826528922</v>
+        <v>1.8579805596542864</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
@@ -6020,7 +6117,7 @@
       </c>
       <c r="B103">
         <f t="shared" si="7"/>
-        <v>3.4622633091836743</v>
+        <v>0.46226330918367387</v>
       </c>
       <c r="C103">
         <f t="shared" si="8"/>
@@ -6028,23 +6125,23 @@
       </c>
       <c r="D103">
         <f t="shared" si="9"/>
-        <v>3.4818734448494912</v>
+        <v>0.59149203785513338</v>
       </c>
       <c r="E103">
         <f t="shared" si="10"/>
-        <v>0.87046836121237281</v>
+        <v>0.14787300946378334</v>
       </c>
       <c r="F103">
         <f t="shared" si="11"/>
-        <v>123.60946981662497</v>
+        <v>17.009198040266131</v>
       </c>
       <c r="G103">
         <f t="shared" si="12"/>
-        <v>494.43787926649986</v>
+        <v>68.036792161064525</v>
       </c>
       <c r="H103">
         <f t="shared" si="13"/>
-        <v>12.238561367982671</v>
+        <v>1.6840790138877357</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
@@ -6053,7 +6150,7 @@
       </c>
       <c r="B104">
         <f t="shared" si="7"/>
-        <v>3.3917647469387773</v>
+        <v>0.39176474693877683</v>
       </c>
       <c r="C104">
         <f t="shared" si="8"/>
@@ -6061,23 +6158,23 @@
       </c>
       <c r="D104">
         <f t="shared" si="9"/>
-        <v>3.4125779645034595</v>
+        <v>0.54323096577966901</v>
       </c>
       <c r="E104">
         <f t="shared" si="10"/>
-        <v>0.85314449112586488</v>
+        <v>0.13580774144491725</v>
       </c>
       <c r="F104">
         <f t="shared" si="11"/>
-        <v>120.59762708765379</v>
+        <v>15.560207409188404</v>
       </c>
       <c r="G104">
         <f t="shared" si="12"/>
-        <v>482.39050835061516</v>
+        <v>62.240829636753617</v>
       </c>
       <c r="H104">
         <f t="shared" si="13"/>
-        <v>11.823296773299392</v>
+        <v>1.5255105303125887</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
@@ -6086,7 +6183,7 @@
       </c>
       <c r="B105">
         <f t="shared" si="7"/>
-        <v>3.3205512520408162</v>
+        <v>0.3205512520408158</v>
       </c>
       <c r="C105">
         <f t="shared" si="8"/>
@@ -6094,23 +6191,23 @@
       </c>
       <c r="D105">
         <f t="shared" si="9"/>
-        <v>3.3426467583013402</v>
+        <v>0.49997983813105767</v>
       </c>
       <c r="E105">
         <f t="shared" si="10"/>
-        <v>0.83566168957533504</v>
+        <v>0.12499495953276442</v>
       </c>
       <c r="F105">
         <f t="shared" si="11"/>
-        <v>117.58087200053996</v>
+        <v>14.270870991243454</v>
       </c>
       <c r="G105">
         <f t="shared" si="12"/>
-        <v>470.32348800215982</v>
+        <v>57.083483964973816</v>
       </c>
       <c r="H105">
         <f t="shared" si="13"/>
-        <v>11.415618640829122</v>
+        <v>1.3855214554605295</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
@@ -6119,7 +6216,7 @@
       </c>
       <c r="B106">
         <f t="shared" si="7"/>
-        <v>3.248622824489797</v>
+        <v>0.24862282448979656</v>
       </c>
       <c r="C106">
         <f t="shared" si="8"/>
@@ -6127,23 +6224,23 @@
       </c>
       <c r="D106">
         <f t="shared" si="9"/>
-        <v>3.2720862294316948</v>
+        <v>0.46347744917929273</v>
       </c>
       <c r="E106">
         <f t="shared" si="10"/>
-        <v>0.8180215573579237</v>
+        <v>0.11586936229482318</v>
       </c>
       <c r="F106">
         <f t="shared" si="11"/>
-        <v>114.56010004580519</v>
+        <v>13.189510628806614</v>
       </c>
       <c r="G106">
         <f t="shared" si="12"/>
-        <v>458.24040018322074</v>
+        <v>52.758042515226457</v>
       </c>
       <c r="H106">
         <f t="shared" si="13"/>
-        <v>11.015394235173575</v>
+        <v>1.2682221758467898</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
@@ -6152,7 +6249,7 @@
       </c>
       <c r="B107">
         <f t="shared" si="7"/>
-        <v>3.1759794642857146</v>
+        <v>0.1759794642857142</v>
       </c>
       <c r="C107">
         <f t="shared" si="8"/>
@@ -6160,23 +6257,23 @@
       </c>
       <c r="D107">
         <f t="shared" si="9"/>
-        <v>3.2009034558215128</v>
+        <v>0.43578222517194931</v>
       </c>
       <c r="E107">
         <f t="shared" si="10"/>
-        <v>0.8002258639553782</v>
+        <v>0.10894555629298733</v>
       </c>
       <c r="F107">
         <f t="shared" si="11"/>
-        <v>111.53623241355223</v>
+        <v>12.373205713364433</v>
       </c>
       <c r="G107">
         <f t="shared" si="12"/>
-        <v>446.14492965420891</v>
+        <v>49.492822853457731</v>
       </c>
       <c r="H107">
         <f t="shared" si="13"/>
-        <v>10.622498325100212</v>
+        <v>1.1784005441299459</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
@@ -6185,7 +6282,7 @@
       </c>
       <c r="B108">
         <f t="shared" si="7"/>
-        <v>3.1026211714285727</v>
+        <v>0.1026211714285723</v>
       </c>
       <c r="C108">
         <f t="shared" si="8"/>
@@ -6193,23 +6290,23 @@
       </c>
       <c r="D108">
         <f t="shared" si="9"/>
-        <v>3.1291062803594785</v>
+        <v>0.41902158084482455</v>
       </c>
       <c r="E108">
         <f t="shared" si="10"/>
-        <v>0.78227657008986962</v>
+        <v>0.10475539521120614</v>
       </c>
       <c r="F108">
         <f t="shared" si="11"/>
-        <v>108.51021846343869</v>
+        <v>11.880931509508848</v>
       </c>
       <c r="G108">
         <f t="shared" si="12"/>
-        <v>434.04087385375476</v>
+        <v>47.523726038035392</v>
       </c>
       <c r="H108">
         <f t="shared" si="13"/>
-        <v>10.236813062588556</v>
+        <v>1.1208425952366838</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
@@ -6218,7 +6315,7 @@
       </c>
       <c r="B109">
         <f t="shared" si="7"/>
-        <v>3.0285479459183691</v>
+        <v>2.8547945918368622E-2</v>
       </c>
       <c r="C109">
         <f t="shared" si="8"/>
@@ -6226,23 +6323,23 @@
       </c>
       <c r="D109">
         <f t="shared" si="9"/>
-        <v>3.056703415821052</v>
+        <v>0.41490733517482431</v>
       </c>
       <c r="E109">
         <f t="shared" si="10"/>
-        <v>0.764175853955263</v>
+        <v>0.10372683379370608</v>
       </c>
       <c r="F109">
         <f t="shared" si="11"/>
-        <v>105.48303859713107</v>
+        <v>11.760293060893702</v>
       </c>
       <c r="G109">
         <f t="shared" si="12"/>
-        <v>421.93215438852428</v>
+        <v>47.041172243574806</v>
       </c>
       <c r="H109">
         <f t="shared" si="13"/>
-        <v>9.8582279062739318</v>
+        <v>1.099092809429318</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
@@ -6251,7 +6348,7 @@
       </c>
       <c r="B110">
         <f t="shared" si="7"/>
-        <v>2.9537597877551018</v>
+        <v>0</v>
       </c>
       <c r="C110">
         <f t="shared" si="8"/>
@@ -6259,23 +6356,23 @@
       </c>
       <c r="D110">
         <f t="shared" si="9"/>
-        <v>2.9837045673306903</v>
+        <v>0.42165870244897957</v>
       </c>
       <c r="E110">
         <f t="shared" si="10"/>
-        <v>0.74592614183267258</v>
+        <v>0.10541467561224489</v>
       </c>
       <c r="F110">
         <f t="shared" si="11"/>
-        <v>102.4557076108596</v>
+        <v>11.958299077748825</v>
       </c>
       <c r="G110">
         <f t="shared" si="12"/>
-        <v>409.82283044343842</v>
+        <v>47.833196310995298</v>
       </c>
       <c r="H110">
         <f t="shared" si="13"/>
-        <v>9.4866395935981114</v>
+        <v>1.1072499146063726</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
@@ -6284,7 +6381,7 @@
       </c>
       <c r="B111">
         <f t="shared" si="7"/>
-        <v>2.8782566969387755</v>
+        <v>0</v>
       </c>
       <c r="C111">
         <f t="shared" si="8"/>
@@ -6292,23 +6389,23 @@
       </c>
       <c r="D111">
         <f t="shared" si="9"/>
-        <v>2.9101205758295627</v>
+        <v>0.42946496061224482</v>
       </c>
       <c r="E111">
         <f t="shared" si="10"/>
-        <v>0.72753014395739068</v>
+        <v>0.1073662401530612</v>
       </c>
       <c r="F111">
         <f t="shared" si="11"/>
-        <v>99.429278623025027</v>
+        <v>12.187508403412192</v>
       </c>
       <c r="G111">
         <f t="shared" si="12"/>
-        <v>397.71711449210011</v>
+        <v>48.750033613648768</v>
       </c>
       <c r="H111">
         <f t="shared" si="13"/>
-        <v>9.1219521672500026</v>
+        <v>1.1181200370102928</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
@@ -6317,7 +6414,7 @@
       </c>
       <c r="B112">
         <f t="shared" si="7"/>
-        <v>2.8020386734693883</v>
+        <v>0</v>
       </c>
       <c r="C112">
         <f t="shared" si="8"/>
@@ -6325,23 +6422,23 @@
       </c>
       <c r="D112">
         <f t="shared" si="9"/>
-        <v>2.8359635868110109</v>
+        <v>0.43734281530612235</v>
       </c>
       <c r="E112">
         <f t="shared" si="10"/>
-        <v>0.70899089670275273</v>
+        <v>0.10933570382653059</v>
       </c>
       <c r="F112">
         <f t="shared" si="11"/>
-        <v>96.404847693540518</v>
+        <v>12.419108273094528</v>
       </c>
       <c r="G112">
         <f t="shared" si="12"/>
-        <v>385.61939077416207</v>
+        <v>49.676433092378112</v>
       </c>
       <c r="H112">
         <f t="shared" si="13"/>
-        <v>8.7640770630491378</v>
+        <v>1.1290098430085935</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
@@ -6350,7 +6447,7 @@
       </c>
       <c r="B113">
         <f t="shared" si="7"/>
-        <v>2.7251057173469393</v>
+        <v>0</v>
       </c>
       <c r="C113">
         <f t="shared" si="8"/>
@@ -6358,23 +6455,23 @@
       </c>
       <c r="D113">
         <f t="shared" si="9"/>
-        <v>2.7612472495864884</v>
+        <v>0.44529226653061216</v>
       </c>
       <c r="E113">
         <f t="shared" si="10"/>
-        <v>0.69031181239662209</v>
+        <v>0.11132306663265304</v>
       </c>
       <c r="F113">
         <f t="shared" si="11"/>
-        <v>93.383559278983697</v>
+        <v>12.653106583408704</v>
       </c>
       <c r="G113">
         <f t="shared" si="12"/>
-        <v>373.53423711593479</v>
+        <v>50.612426333634815</v>
       </c>
       <c r="H113">
         <f t="shared" si="13"/>
-        <v>8.4129332683769107</v>
+        <v>1.1399195120188022</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
@@ -6383,7 +6480,7 @@
       </c>
       <c r="B114">
         <f t="shared" si="7"/>
-        <v>2.6474578285714303</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <f t="shared" si="8"/>
@@ -6391,23 +6488,23 @@
       </c>
       <c r="D114">
         <f t="shared" si="9"/>
-        <v>2.6859869536118102</v>
+        <v>0.45331331428571425</v>
       </c>
       <c r="E114">
         <f t="shared" si="10"/>
-        <v>0.67149673840295254</v>
+        <v>0.11332832857142856</v>
       </c>
       <c r="F114">
         <f t="shared" si="11"/>
-        <v>90.366612702320595</v>
+        <v>12.889511302734604</v>
       </c>
       <c r="G114">
         <f t="shared" si="12"/>
-        <v>361.46645080928238</v>
+        <v>51.558045210938417</v>
       </c>
       <c r="H114">
         <f t="shared" si="13"/>
-        <v>8.0684475627071972</v>
+        <v>1.1508492234584469</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
@@ -6416,7 +6513,7 @@
       </c>
       <c r="B115">
         <f t="shared" si="7"/>
-        <v>2.5690950071428578</v>
+        <v>0</v>
       </c>
       <c r="C115">
         <f t="shared" si="8"/>
@@ -6424,23 +6521,23 @@
       </c>
       <c r="D115">
         <f t="shared" si="9"/>
-        <v>2.6102001100167742</v>
+        <v>0.46140595857142852</v>
       </c>
       <c r="E115">
         <f t="shared" si="10"/>
-        <v>0.65255002750419355</v>
+        <v>0.11535148964285713</v>
       </c>
       <c r="F115">
         <f t="shared" si="11"/>
-        <v>87.355269860127549</v>
+        <v>13.128330471219115</v>
       </c>
       <c r="G115">
         <f t="shared" si="12"/>
-        <v>349.4210794405102</v>
+        <v>52.513321884876461</v>
       </c>
       <c r="H115">
         <f t="shared" si="13"/>
-        <v>7.7305548548785437</v>
+        <v>1.1617991567450543</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
@@ -6449,7 +6546,7 @@
       </c>
       <c r="B116">
         <f t="shared" si="7"/>
-        <v>2.4900172530612252</v>
+        <v>0</v>
       </c>
       <c r="C116">
         <f t="shared" si="8"/>
@@ -6457,23 +6554,23 @@
       </c>
       <c r="D116">
         <f t="shared" si="9"/>
-        <v>2.533906488546021</v>
+        <v>0.46957019938775502</v>
       </c>
       <c r="E116">
         <f t="shared" si="10"/>
-        <v>0.63347662213650524</v>
+        <v>0.11739254984693875</v>
       </c>
       <c r="F116">
         <f t="shared" si="11"/>
-        <v>84.350864446764888</v>
+        <v>13.369572200776151</v>
       </c>
       <c r="G116">
         <f t="shared" si="12"/>
-        <v>337.40345778705955</v>
+        <v>53.478288803104604</v>
       </c>
       <c r="H116">
         <f t="shared" si="13"/>
-        <v>7.3991986356811301</v>
+        <v>1.1727694912961535</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
@@ -6482,7 +6579,7 @@
       </c>
       <c r="B117">
         <f t="shared" si="7"/>
-        <v>2.4102245663265318</v>
+        <v>0</v>
       </c>
       <c r="C117">
         <f t="shared" si="8"/>
@@ -6490,23 +6587,23 @@
       </c>
       <c r="D117">
         <f t="shared" si="9"/>
-        <v>2.4571286227757865</v>
+        <v>0.47780603673469374</v>
       </c>
       <c r="E117">
         <f t="shared" si="10"/>
-        <v>0.61428215569394662</v>
+        <v>0.11945150918367343</v>
       </c>
       <c r="F117">
         <f t="shared" si="11"/>
-        <v>81.35481304768733</v>
+        <v>13.613244675086621</v>
       </c>
       <c r="G117">
         <f t="shared" si="12"/>
-        <v>325.41925219074932</v>
+        <v>54.452978700346485</v>
       </c>
       <c r="H117">
         <f t="shared" si="13"/>
-        <v>7.0743315693641158</v>
+        <v>1.1837604065292715</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
@@ -6515,7 +6612,7 @@
       </c>
       <c r="B118">
         <f t="shared" si="7"/>
-        <v>2.3297169469387766</v>
+        <v>0</v>
       </c>
       <c r="C118">
         <f t="shared" si="8"/>
@@ -6523,23 +6620,23 @@
       </c>
       <c r="D118">
         <f t="shared" si="9"/>
-        <v>2.379892299908636</v>
+        <v>0.4861134706122448</v>
       </c>
       <c r="E118">
         <f t="shared" si="10"/>
-        <v>0.59497307497715901</v>
+        <v>0.1215283676530612</v>
       </c>
       <c r="F118">
         <f t="shared" si="11"/>
-        <v>78.36862854818159</v>
+        <v>13.859356149598462</v>
       </c>
       <c r="G118">
         <f t="shared" si="12"/>
-        <v>313.47451419272636</v>
+        <v>55.437424598393847</v>
       </c>
       <c r="H118">
         <f t="shared" si="13"/>
-        <v>6.7559162541535853</v>
+        <v>1.1947720818619363</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
@@ -6548,7 +6645,7 @@
       </c>
       <c r="B119">
         <f t="shared" si="7"/>
-        <v>2.2484943948979614</v>
+        <v>0</v>
       </c>
       <c r="C119">
         <f t="shared" si="8"/>
@@ -6556,23 +6653,23 @@
       </c>
       <c r="D119">
         <f t="shared" si="9"/>
-        <v>2.3022271559194518</v>
+        <v>0.49449250102040809</v>
       </c>
       <c r="E119">
         <f t="shared" si="10"/>
-        <v>0.57555678897986295</v>
+        <v>0.12362312525510202</v>
       </c>
       <c r="F119">
         <f t="shared" si="11"/>
-        <v>75.393936426225025</v>
+        <v>14.107914951526602</v>
       </c>
       <c r="G119">
         <f t="shared" si="12"/>
-        <v>301.5757457049001</v>
+        <v>56.43165980610641</v>
       </c>
       <c r="H119">
         <f t="shared" si="13"/>
-        <v>6.4439261902756435</v>
+        <v>1.2058046967116756</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
@@ -6581,7 +6678,7 @@
       </c>
       <c r="B120">
         <f t="shared" si="7"/>
-        <v>2.1665569102040809</v>
+        <v>0</v>
       </c>
       <c r="C120">
         <f t="shared" si="8"/>
@@ -6589,23 +6686,23 @@
       </c>
       <c r="D120">
         <f t="shared" si="9"/>
-        <v>2.2241674026732841</v>
+        <v>0.50294312795918361</v>
       </c>
       <c r="E120">
         <f t="shared" si="10"/>
-        <v>0.55604185066832101</v>
+        <v>0.1257357819897959</v>
       </c>
       <c r="F120">
         <f t="shared" si="11"/>
-        <v>72.432494658237516</v>
+        <v>14.358929479852998</v>
       </c>
       <c r="G120">
         <f t="shared" si="12"/>
-        <v>289.72997863295006</v>
+        <v>57.435717919411992</v>
       </c>
       <c r="H120">
         <f t="shared" si="13"/>
-        <v>6.1383470049353823</v>
+        <v>1.2168584304960166</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
@@ -6614,7 +6711,7 @@
       </c>
       <c r="B121">
         <f t="shared" si="7"/>
-        <v>2.083904492857144</v>
+        <v>0</v>
       </c>
       <c r="C121">
         <f t="shared" si="8"/>
@@ -6622,23 +6719,23 @@
       </c>
       <c r="D121">
         <f t="shared" si="9"/>
-        <v>2.14575272132232</v>
+        <v>0.5114653514285713</v>
       </c>
       <c r="E121">
         <f t="shared" si="10"/>
-        <v>0.53643818033057999</v>
+        <v>0.12786633785714283</v>
       </c>
       <c r="F121">
         <f t="shared" si="11"/>
-        <v>69.486218176930336</v>
+        <v>14.612408205326604</v>
       </c>
       <c r="G121">
         <f t="shared" si="12"/>
-        <v>277.94487270772134</v>
+        <v>58.449632821306416</v>
       </c>
       <c r="H121">
         <f t="shared" si="13"/>
-        <v>5.8391779980613725</v>
+        <v>1.2279334626324876</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
@@ -6647,7 +6744,7 @@
       </c>
       <c r="B122">
         <f t="shared" si="7"/>
-        <v>2.0005371428571435</v>
+        <v>0</v>
       </c>
       <c r="C122">
         <f t="shared" si="8"/>
@@ -6655,23 +6752,23 @@
       </c>
       <c r="D122">
         <f t="shared" si="9"/>
-        <v>2.0670293664430592</v>
+        <v>0.52005917142857139</v>
       </c>
       <c r="E122">
         <f t="shared" si="10"/>
-        <v>0.51675734161076481</v>
+        <v>0.13001479285714285</v>
       </c>
       <c r="F122">
         <f t="shared" si="11"/>
-        <v>66.557209098428785</v>
+        <v>14.8683596704634</v>
       </c>
       <c r="G122">
         <f t="shared" si="12"/>
-        <v>266.22883639371514</v>
+        <v>59.473438681853601</v>
       </c>
       <c r="H122">
         <f t="shared" si="13"/>
-        <v>5.5464340915357324</v>
+        <v>1.2390299725386167</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
@@ -6680,7 +6777,7 @@
       </c>
       <c r="B123">
         <f t="shared" si="7"/>
-        <v>1.9164548602040821</v>
+        <v>0</v>
       </c>
       <c r="C123">
         <f t="shared" si="8"/>
@@ -6688,23 +6785,23 @@
       </c>
       <c r="D123">
         <f t="shared" si="9"/>
-        <v>1.9880515388471336</v>
+        <v>0.52872458795918353</v>
       </c>
       <c r="E123">
         <f t="shared" si="10"/>
-        <v>0.4970128847117834</v>
+        <v>0.13218114698979588</v>
       </c>
       <c r="F123">
         <f t="shared" si="11"/>
-        <v>63.647794304669226</v>
+        <v>15.126792489546361</v>
       </c>
       <c r="G123">
         <f t="shared" si="12"/>
-        <v>254.5911772186769</v>
+        <v>60.507169958185443</v>
       </c>
       <c r="H123">
         <f t="shared" si="13"/>
-        <v>5.2601482896420846</v>
+        <v>1.2501481396319307</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
@@ -6713,7 +6810,7 @@
       </c>
       <c r="B124">
         <f t="shared" si="7"/>
-        <v>1.8316576448979616</v>
+        <v>0</v>
       </c>
       <c r="C124">
         <f t="shared" si="8"/>
@@ -6721,23 +6818,23 @@
       </c>
       <c r="D124">
         <f t="shared" si="9"/>
-        <v>1.9088831029386182</v>
+        <v>0.53746160102040808</v>
       </c>
       <c r="E124">
         <f t="shared" si="10"/>
-        <v>0.47722077573465455</v>
+        <v>0.13436540025510202</v>
       </c>
       <c r="F124">
         <f t="shared" si="11"/>
-        <v>60.760572458182722</v>
+        <v>15.387715348625488</v>
       </c>
       <c r="G124">
         <f t="shared" si="12"/>
-        <v>243.04228983273089</v>
+        <v>61.55086139450195</v>
       </c>
       <c r="H124">
         <f t="shared" si="13"/>
-        <v>4.980374791654322</v>
+        <v>1.2612881433299581</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
@@ -6746,7 +6843,7 @@
       </c>
       <c r="B125">
         <f t="shared" si="7"/>
-        <v>1.7461454969387757</v>
+        <v>0</v>
       </c>
       <c r="C125">
         <f t="shared" si="8"/>
@@ -6754,23 +6851,23 @@
       </c>
       <c r="D125">
         <f t="shared" si="9"/>
-        <v>1.8295997484373214</v>
+        <v>0.54627021061224479</v>
       </c>
       <c r="E125">
         <f t="shared" si="10"/>
-        <v>0.45739993710933036</v>
+        <v>0.1365675526530612</v>
       </c>
       <c r="F125">
         <f t="shared" si="11"/>
-        <v>57.898473181947885</v>
+        <v>15.651137005517782</v>
       </c>
       <c r="G125">
         <f t="shared" si="12"/>
-        <v>231.59389272779154</v>
+        <v>62.604548022071128</v>
       </c>
       <c r="H125">
         <f t="shared" si="13"/>
-        <v>4.7071929416217788</v>
+        <v>1.2724501630502261</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
@@ -6779,7 +6876,7 @@
       </c>
       <c r="B126">
         <f t="shared" si="7"/>
-        <v>1.6599184163265317</v>
+        <v>0</v>
       </c>
       <c r="C126">
         <f t="shared" si="8"/>
@@ -6787,23 +6884,23 @@
       </c>
       <c r="D126">
         <f t="shared" si="9"/>
-        <v>1.7502917282729429</v>
+        <v>0.55515041673469379</v>
       </c>
       <c r="E126">
         <f t="shared" si="10"/>
-        <v>0.43757293206823572</v>
+        <v>0.13878760418367345</v>
       </c>
       <c r="F126">
         <f t="shared" si="11"/>
-        <v>55.064832012635208</v>
+        <v>15.917066289807259</v>
       </c>
       <c r="G126">
         <f t="shared" si="12"/>
-        <v>220.25932805054083</v>
+        <v>63.668265159229037</v>
       </c>
       <c r="H126">
         <f t="shared" si="13"/>
-        <v>4.440712259083484</v>
+        <v>1.2836343782102628</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
@@ -6812,7 +6909,7 @@
       </c>
       <c r="B127">
         <f t="shared" si="7"/>
-        <v>1.572976403061225</v>
+        <v>0</v>
       </c>
       <c r="C127">
         <f t="shared" si="8"/>
@@ -6820,23 +6917,23 @@
       </c>
       <c r="D127">
         <f t="shared" si="9"/>
-        <v>1.6710673470885666</v>
+        <v>0.56410221938775507</v>
       </c>
       <c r="E127">
         <f t="shared" si="10"/>
-        <v>0.41776683677214166</v>
+        <v>0.14102555484693877</v>
       </c>
       <c r="F127">
         <f t="shared" si="11"/>
-        <v>52.263485902711366</v>
+        <v>16.18551210284495</v>
       </c>
       <c r="G127">
         <f t="shared" si="12"/>
-        <v>209.05394361084547</v>
+        <v>64.742048411379798</v>
       </c>
       <c r="H127">
         <f t="shared" si="13"/>
-        <v>4.1810788722169097</v>
+        <v>1.2948409682275959</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
@@ -6845,7 +6942,7 @@
       </c>
       <c r="B128">
         <f t="shared" si="7"/>
-        <v>1.4853194571428583</v>
+        <v>0</v>
       </c>
       <c r="C128">
         <f t="shared" si="8"/>
@@ -6853,23 +6950,23 @@
       </c>
       <c r="D128">
         <f t="shared" si="9"/>
-        <v>1.5920574312599522</v>
+        <v>0.57312561857142841</v>
       </c>
       <c r="E128">
         <f t="shared" si="10"/>
-        <v>0.39801435781498806</v>
+        <v>0.1432814046428571</v>
       </c>
       <c r="F128">
         <f t="shared" si="11"/>
-        <v>49.498895592754657</v>
+        <v>16.456483417748881</v>
       </c>
       <c r="G128">
         <f t="shared" si="12"/>
-        <v>197.99558237101863</v>
+        <v>65.825933670995525</v>
       </c>
       <c r="H128">
         <f t="shared" si="13"/>
-        <v>3.9284837772027505</v>
+        <v>1.3060701125197525</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
@@ -6878,7 +6975,7 @@
       </c>
       <c r="B129">
         <f t="shared" si="7"/>
-        <v>1.3969475785714298</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <f t="shared" si="8"/>
@@ -6886,23 +6983,23 @@
       </c>
       <c r="D129">
         <f t="shared" si="9"/>
-        <v>1.5134210851497396</v>
+        <v>0.58222061428571414</v>
       </c>
       <c r="E129">
         <f t="shared" si="10"/>
-        <v>0.3783552712874349</v>
+        <v>0.14555515357142854</v>
       </c>
       <c r="F129">
         <f t="shared" si="11"/>
-        <v>46.77630319604441</v>
+        <v>16.729989279404123</v>
       </c>
       <c r="G129">
         <f t="shared" si="12"/>
-        <v>187.10521278417764</v>
+        <v>66.919957117616491</v>
       </c>
       <c r="H129">
         <f t="shared" si="13"/>
-        <v>3.683173480003497</v>
+        <v>1.3173219905042617</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
@@ -6911,7 +7008,7 @@
       </c>
       <c r="B130">
         <f t="shared" si="7"/>
-        <v>1.3078607673469396</v>
+        <v>0</v>
       </c>
       <c r="C130">
         <f t="shared" si="8"/>
@@ -6919,23 +7016,23 @@
       </c>
       <c r="D130">
         <f t="shared" si="9"/>
-        <v>1.4353531324428168</v>
+        <v>0.59138720653061216</v>
       </c>
       <c r="E130">
         <f t="shared" si="10"/>
-        <v>0.3588382831107042</v>
+        <v>0.14784680163265304</v>
       </c>
       <c r="F130">
         <f t="shared" si="11"/>
-        <v>44.101935914334604</v>
+        <v>17.006038804462719</v>
       </c>
       <c r="G130">
         <f t="shared" si="12"/>
-        <v>176.40774365733841</v>
+        <v>68.024155217850875</v>
       </c>
       <c r="H130">
         <f t="shared" si="13"/>
-        <v>3.4454637433073909</v>
+        <v>1.3285967815986499</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
@@ -6944,7 +7041,7 @@
       </c>
       <c r="B131">
         <f t="shared" ref="B131:B194" si="14">IF($K$4-(0.350317*A131*A131-0.202576*A131)/9.8&gt;0, $K$4-(0.350317*A131*A131-0.202576*A131)/9.8, 0)</f>
-        <v>1.2180590234693884</v>
+        <v>0</v>
       </c>
       <c r="C131">
         <f t="shared" ref="C131:C194" si="15">(0.0350823*A131*A131+0.00372739*A131)/9.8</f>
@@ -6952,23 +7049,23 @@
       </c>
       <c r="D131">
         <f t="shared" ref="D131:D194" si="16">SQRT(C131*C131+B131*B131)</f>
-        <v>1.3580937560204878</v>
+        <v>0.60062539530612236</v>
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E194" si="17">D131/4</f>
-        <v>0.33952343900512194</v>
+        <v>0.15015634882653059</v>
       </c>
       <c r="F131">
         <f t="shared" ref="F131:F194" si="18">1000000*0.0000373344395*E131*E131+ 1000*0.109504955*E131</f>
-        <v>41.483269941350628</v>
+        <v>17.284641181343748</v>
       </c>
       <c r="G131">
         <f t="shared" ref="G131:G194" si="19">F131*4</f>
-        <v>165.93307976540251</v>
+        <v>69.138564725374991</v>
       </c>
       <c r="H131">
         <f t="shared" ref="H131:H194" si="20">F131/A131</f>
-        <v>3.2157573597946221</v>
+        <v>1.3398946652204455</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
@@ -6977,7 +7074,7 @@
       </c>
       <c r="B132">
         <f t="shared" si="14"/>
-        <v>1.1275423469387755</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <f t="shared" si="15"/>
@@ -6985,23 +7082,23 @@
       </c>
       <c r="D132">
         <f t="shared" si="16"/>
-        <v>1.2819409770690278</v>
+        <v>0.60993518061224483</v>
       </c>
       <c r="E132">
         <f t="shared" si="17"/>
-        <v>0.32048524426725694</v>
+        <v>0.15248379515306121</v>
       </c>
       <c r="F132">
         <f t="shared" si="18"/>
-        <v>38.929372093844449</v>
+        <v>17.565805670233296</v>
       </c>
       <c r="G132">
         <f t="shared" si="19"/>
-        <v>155.7174883753778</v>
+        <v>70.263222680933183</v>
       </c>
       <c r="H132">
         <f t="shared" si="20"/>
-        <v>2.9945670841418806</v>
+        <v>1.3512158207871765</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
@@ -7010,7 +7107,7 @@
       </c>
       <c r="B133">
         <f t="shared" si="14"/>
-        <v>1.0363107377551035</v>
+        <v>0</v>
       </c>
       <c r="C133">
         <f t="shared" si="15"/>
@@ -7018,23 +7115,23 @@
       </c>
       <c r="D133">
         <f t="shared" si="16"/>
-        <v>1.2072667268297208</v>
+        <v>0.61931656244897948</v>
       </c>
       <c r="E133">
         <f t="shared" si="17"/>
-        <v>0.3018166817074302</v>
+        <v>0.15482914061224487</v>
       </c>
       <c r="F133">
         <f t="shared" si="18"/>
-        <v>36.451339795660843</v>
+        <v>17.849541603084443</v>
       </c>
       <c r="G133">
         <f t="shared" si="19"/>
-        <v>145.80535918264337</v>
+        <v>71.398166412337773</v>
       </c>
       <c r="H133">
         <f t="shared" si="20"/>
-        <v>2.7825450225695301</v>
+        <v>1.3625604277163696</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
@@ -7043,7 +7140,7 @@
       </c>
       <c r="B134">
         <f t="shared" si="14"/>
-        <v>0.94436419591836884</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <f t="shared" si="15"/>
@@ -7051,23 +7148,23 @@
       </c>
       <c r="D134">
         <f t="shared" si="16"/>
-        <v>1.1345372933451421</v>
+        <v>0.6287695408163263</v>
       </c>
       <c r="E134">
         <f t="shared" si="17"/>
-        <v>0.28363432333628552</v>
+        <v>0.15719238520408158</v>
       </c>
       <c r="F134">
         <f t="shared" si="18"/>
-        <v>34.062860832745166</v>
+        <v>18.135858383617304</v>
       </c>
       <c r="G134">
         <f t="shared" si="19"/>
-        <v>136.25144333098066</v>
+        <v>72.543433534469216</v>
       </c>
       <c r="H134">
         <f t="shared" si="20"/>
-        <v>2.5805197600564522</v>
+        <v>1.3739286654255534</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
@@ -7076,7 +7173,7 @@
       </c>
       <c r="B135">
         <f t="shared" si="14"/>
-        <v>0.8517027214285724</v>
+        <v>0</v>
       </c>
       <c r="C135">
         <f t="shared" si="15"/>
@@ -7084,23 +7181,23 @@
       </c>
       <c r="D135">
         <f t="shared" si="16"/>
-        <v>1.0643387166895313</v>
+        <v>0.63829411571428574</v>
       </c>
       <c r="E135">
         <f t="shared" si="17"/>
-        <v>0.26608467917238282</v>
+        <v>0.15957352892857143</v>
       </c>
       <c r="F135">
         <f t="shared" si="18"/>
-        <v>31.78090857903328</v>
+        <v>18.424765487319004</v>
       </c>
       <c r="G135">
         <f t="shared" si="19"/>
-        <v>127.12363431613312</v>
+        <v>73.699061949276015</v>
       </c>
       <c r="H135">
         <f t="shared" si="20"/>
-        <v>2.3895419984235549</v>
+        <v>1.3853207133322558</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
@@ -7109,7 +7206,7 @@
       </c>
       <c r="B136">
         <f t="shared" si="14"/>
-        <v>0.75832631428571418</v>
+        <v>0</v>
       </c>
       <c r="C136">
         <f t="shared" si="15"/>
@@ -7117,23 +7214,23 @@
       </c>
       <c r="D136">
         <f t="shared" si="16"/>
-        <v>0.99740694960091869</v>
+        <v>0.64789028714285712</v>
       </c>
       <c r="E136">
         <f t="shared" si="17"/>
-        <v>0.24935173740022967</v>
+        <v>0.16197257178571428</v>
       </c>
       <c r="F136">
         <f t="shared" si="18"/>
-        <v>29.626567681117407</v>
+        <v>18.716272461443651</v>
       </c>
       <c r="G136">
         <f t="shared" si="19"/>
-        <v>118.50627072446963</v>
+        <v>74.865089845774605</v>
       </c>
       <c r="H136">
         <f t="shared" si="20"/>
-        <v>2.2109378866505529</v>
+        <v>1.3967367508540038</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
@@ -7142,7 +7239,7 @@
       </c>
       <c r="B137">
         <f t="shared" si="14"/>
-        <v>0.66423497448979685</v>
+        <v>0</v>
       </c>
       <c r="C137">
         <f t="shared" si="15"/>
@@ -7150,23 +7247,23 @@
       </c>
       <c r="D137">
         <f t="shared" si="16"/>
-        <v>0.93466073907329583</v>
+        <v>0.65755805510204079</v>
       </c>
       <c r="E137">
         <f t="shared" si="17"/>
-        <v>0.23366518476832396</v>
+        <v>0.1643895137755102</v>
       </c>
       <c r="F137">
         <f t="shared" si="18"/>
-        <v>27.625934232563935</v>
+        <v>19.010388925012393</v>
       </c>
       <c r="G137">
         <f t="shared" si="19"/>
-        <v>110.50373693025574</v>
+        <v>76.041555700049571</v>
       </c>
       <c r="H137">
         <f t="shared" si="20"/>
-        <v>2.0463654987084396</v>
+        <v>1.4081769574083254</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
@@ -7175,7 +7272,7 @@
       </c>
       <c r="B138">
         <f t="shared" si="14"/>
-        <v>0.56942870204081775</v>
+        <v>0</v>
       </c>
       <c r="C138">
         <f t="shared" si="15"/>
@@ -7183,23 +7280,23 @@
       </c>
       <c r="D138">
         <f t="shared" si="16"/>
-        <v>0.87723137934174122</v>
+        <v>0.66729741959183653</v>
       </c>
       <c r="E138">
         <f t="shared" si="17"/>
-        <v>0.21930784483543531</v>
+        <v>0.16682435489795913</v>
       </c>
       <c r="F138">
         <f t="shared" si="18"/>
-        <v>25.810930298737684</v>
+        <v>19.307124568813375</v>
       </c>
       <c r="G138">
         <f t="shared" si="19"/>
-        <v>103.24372119495074</v>
+        <v>77.2284982752535</v>
       </c>
       <c r="H138">
         <f t="shared" si="20"/>
-        <v>1.8978625219660064</v>
+        <v>1.4196415124127482</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
@@ -7208,7 +7305,7 @@
       </c>
       <c r="B139">
         <f t="shared" si="14"/>
-        <v>0.47390749693877776</v>
+        <v>0</v>
       </c>
       <c r="C139">
         <f t="shared" si="15"/>
@@ -7216,23 +7313,23 @@
       </c>
       <c r="D139">
         <f t="shared" si="16"/>
-        <v>0.82647690515229399</v>
+        <v>0.67710838061224465</v>
       </c>
       <c r="E139">
         <f t="shared" si="17"/>
-        <v>0.2066192262880735</v>
+        <v>0.16927709515306116</v>
       </c>
       <c r="F139">
         <f t="shared" si="18"/>
-        <v>24.219692475146655</v>
+        <v>19.606489155401768</v>
       </c>
       <c r="G139">
         <f t="shared" si="19"/>
-        <v>96.878769900586619</v>
+        <v>78.425956621607071</v>
       </c>
       <c r="H139">
         <f t="shared" si="20"/>
-        <v>1.767860764609245</v>
+        <v>1.4311305952848006</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
@@ -7241,7 +7338,7 @@
       </c>
       <c r="B140">
         <f t="shared" si="14"/>
-        <v>0.37767135918367423</v>
+        <v>0</v>
       </c>
       <c r="C140">
         <f t="shared" si="15"/>
@@ -7249,23 +7346,23 @@
       </c>
       <c r="D140">
         <f t="shared" si="16"/>
-        <v>0.78395931314455802</v>
+        <v>0.68699093816326529</v>
       </c>
       <c r="E140">
         <f t="shared" si="17"/>
-        <v>0.19598982828613951</v>
+        <v>0.17174773454081632</v>
       </c>
       <c r="F140">
         <f t="shared" si="18"/>
-        <v>22.895948294573785</v>
+        <v>19.908492519099742</v>
       </c>
       <c r="G140">
         <f t="shared" si="19"/>
-        <v>91.583793178295139</v>
+        <v>79.633970076398967</v>
       </c>
       <c r="H140">
         <f t="shared" si="20"/>
-        <v>1.659126688012593</v>
+        <v>1.4426443854420101</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
@@ -7274,7 +7371,7 @@
       </c>
       <c r="B141">
         <f t="shared" si="14"/>
-        <v>0.2807202887755107</v>
+        <v>0</v>
       </c>
       <c r="C141">
         <f t="shared" si="15"/>
@@ -7282,23 +7379,23 @@
       </c>
       <c r="D141">
         <f t="shared" si="16"/>
-        <v>0.75135633499322763</v>
+        <v>0.69694509224489787</v>
       </c>
       <c r="E141">
         <f t="shared" si="17"/>
-        <v>0.18783908374830691</v>
+        <v>0.17423627306122447</v>
       </c>
       <c r="F141">
         <f t="shared" si="18"/>
-        <v>21.886600907535211</v>
+        <v>20.213144565996465</v>
       </c>
       <c r="G141">
         <f t="shared" si="19"/>
-        <v>87.546403630140844</v>
+        <v>80.852578263985862</v>
       </c>
       <c r="H141">
         <f t="shared" si="20"/>
-        <v>1.5745756048586483</v>
+        <v>1.4541830623019039</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
@@ -7307,7 +7404,7 @@
       </c>
       <c r="B142">
         <f t="shared" si="14"/>
-        <v>0.18305428571428628</v>
+        <v>0</v>
       </c>
       <c r="C142">
         <f t="shared" si="15"/>
@@ -7315,23 +7412,23 @@
       </c>
       <c r="D142">
         <f t="shared" si="16"/>
-        <v>0.73028531696077947</v>
+        <v>0.70697084285714262</v>
       </c>
       <c r="E142">
         <f t="shared" si="17"/>
-        <v>0.18257132924019487</v>
+        <v>0.17674271071428566</v>
       </c>
       <c r="F142">
         <f t="shared" si="18"/>
-        <v>21.23690756686598</v>
+        <v>20.520455273948137</v>
       </c>
       <c r="G142">
         <f t="shared" si="19"/>
-        <v>84.947630267463921</v>
+        <v>82.081821095792549</v>
       </c>
       <c r="H142">
         <f t="shared" si="20"/>
-        <v>1.5169219690618558</v>
+        <v>1.4657468052820097</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
@@ -7340,7 +7437,7 @@
       </c>
       <c r="B143">
         <f t="shared" si="14"/>
-        <v>8.4673350000000092E-2</v>
+        <v>0</v>
       </c>
       <c r="C143">
         <f t="shared" si="15"/>
@@ -7348,23 +7445,23 @@
       </c>
       <c r="D143">
         <f t="shared" si="16"/>
-        <v>0.72205011274155928</v>
+        <v>0.71706818999999988</v>
       </c>
       <c r="E143">
         <f t="shared" si="17"/>
-        <v>0.18051252818538982</v>
+        <v>0.17926704749999997</v>
       </c>
       <c r="F143">
         <f t="shared" si="18"/>
-        <v>20.983550505790454</v>
+        <v>20.830434692577978</v>
       </c>
       <c r="G143">
         <f t="shared" si="19"/>
-        <v>83.934202023161816</v>
+        <v>83.32173877031191</v>
       </c>
       <c r="H143">
         <f t="shared" si="20"/>
-        <v>1.4881950713326564</v>
+        <v>1.4773357937998566</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
@@ -12784,25 +12881,25 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -12978,7 +13075,7 @@
         <v>5.9495520350389493E-4</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M7">
         <v>137.19999999999999</v>
@@ -13013,7 +13110,7 @@
         <v>8.0979739519635482E-4</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M8">
         <v>39</v>
@@ -41830,7 +41927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EE314E-FAFB-4234-86ED-065F873685C7}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
@@ -41843,27 +41940,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>6.9</v>
@@ -41884,7 +41981,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <f>B2-F2*3/1024</f>
@@ -41906,7 +42003,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B61" si="1">B3-F3*3/1024</f>
@@ -41928,7 +42025,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
@@ -41950,7 +42047,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
@@ -41972,7 +42069,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
@@ -41994,7 +42091,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
@@ -42016,7 +42113,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
@@ -42038,7 +42135,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
@@ -42060,7 +42157,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
@@ -42082,7 +42179,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
@@ -42104,7 +42201,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
@@ -42126,7 +42223,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
@@ -42148,7 +42245,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
@@ -42170,7 +42267,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
@@ -42192,7 +42289,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
@@ -42214,7 +42311,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
@@ -42236,7 +42333,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
@@ -42258,7 +42355,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
@@ -42280,7 +42377,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
@@ -42302,7 +42399,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
@@ -42324,7 +42421,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
@@ -42346,7 +42443,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
@@ -42368,7 +42465,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
@@ -42390,7 +42487,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
@@ -42412,7 +42509,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
@@ -42434,7 +42531,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
@@ -42456,7 +42553,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
@@ -42478,7 +42575,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
@@ -42500,7 +42597,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
@@ -42522,7 +42619,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
@@ -42544,7 +42641,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
@@ -42566,7 +42663,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
@@ -42588,7 +42685,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
@@ -42610,7 +42707,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
@@ -42632,7 +42729,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
@@ -42654,7 +42751,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
@@ -42676,7 +42773,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
@@ -42698,7 +42795,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
@@ -42720,7 +42817,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
@@ -42742,7 +42839,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
@@ -42764,7 +42861,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
@@ -42786,7 +42883,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B44">
         <f t="shared" si="1"/>
@@ -42808,7 +42905,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
@@ -42830,7 +42927,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
@@ -42852,7 +42949,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
@@ -42874,7 +42971,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
@@ -42896,7 +42993,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B49">
         <f t="shared" si="1"/>
@@ -42918,7 +43015,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
@@ -42940,7 +43037,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
@@ -42962,7 +43059,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B52">
         <f t="shared" si="1"/>
@@ -42984,7 +43081,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
@@ -43006,7 +43103,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
@@ -43028,7 +43125,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
@@ -43050,7 +43147,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B56">
         <f t="shared" si="1"/>
@@ -43072,7 +43169,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B57">
         <f t="shared" si="1"/>
@@ -43094,7 +43191,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B58">
         <f t="shared" si="1"/>
@@ -43116,7 +43213,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B59">
         <f t="shared" si="1"/>
@@ -43138,7 +43235,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B60">
         <f t="shared" si="1"/>
@@ -43160,7 +43257,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B61">
         <f t="shared" si="1"/>
@@ -43182,7 +43279,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D63">
         <f>SUM(D2:D61)</f>
@@ -43191,7 +43288,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D64">
         <f>SUM(E2:E61)/3600</f>
@@ -43200,7 +43297,7 @@
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D65">
         <f>3600*D64/D63</f>
@@ -43215,253 +43312,211 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893ADDC9-523C-47B1-8967-17603EEDB938}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.36328125" customWidth="1"/>
     <col min="2" max="2" width="9.26953125" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" customWidth="1"/>
-    <col min="4" max="4" width="28.26953125" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2100</v>
+      </c>
+      <c r="D5">
+        <f>B5*C5/3600</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+      <c r="C6">
+        <v>2560</v>
+      </c>
+      <c r="D6">
+        <f>B6*C6/3600</f>
+        <v>1.0666666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B7">
+        <v>282</v>
+      </c>
+      <c r="C7">
+        <v>85</v>
+      </c>
+      <c r="D7">
+        <f>B7*C7/3600</f>
+        <v>6.6583333333333332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>1.5</v>
+      </c>
+      <c r="C8">
+        <v>2560</v>
+      </c>
+      <c r="D8">
+        <f>B8*C8/3600</f>
+        <v>1.0666666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B9">
+        <v>210</v>
+      </c>
+      <c r="C9">
+        <v>488</v>
+      </c>
+      <c r="D9">
+        <f>B9*C9/3600</f>
+        <v>28.466666666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>1.5</v>
+      </c>
+      <c r="C10">
+        <v>2560</v>
+      </c>
+      <c r="D10">
+        <f>B10*C10/3600</f>
+        <v>1.0666666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B11">
+        <v>46.7</v>
+      </c>
+      <c r="C11">
+        <v>47.833199999999998</v>
+      </c>
+      <c r="D11">
+        <f>B11*C11/3600</f>
+        <v>0.62050290000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>1.5</v>
+      </c>
+      <c r="C12">
+        <v>2560</v>
+      </c>
+      <c r="D12">
+        <f>B12*C12/3600</f>
+        <v>1.0666666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>10.02</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>10.02</v>
-      </c>
-      <c r="F2">
-        <v>2100</v>
-      </c>
-      <c r="G2">
-        <f>B2*F2/3600</f>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3">
-        <v>0.8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>3320</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G6" si="0">B3*F3/3600</f>
-        <v>0.73777777777777775</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>270</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>3.23</v>
-      </c>
-      <c r="E4">
-        <f>SQRT(D4*D4+C4*C4)</f>
-        <v>3.23</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5">
-        <v>0.8</v>
-      </c>
-      <c r="E5">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>3320</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.73777777777777775</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>140</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E6" si="1">SQRT(D6*D6+C6*C6)</f>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>700</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>27.222222222222221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7">
-        <v>0.8</v>
-      </c>
-      <c r="E7">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>3320</v>
-      </c>
-      <c r="G7">
-        <f>B7*F7/3600</f>
-        <v>0.73777777777777775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>3.23</v>
-      </c>
-      <c r="E8">
-        <f>SQRT(D8*D8+C8*C8)</f>
-        <v>3.23</v>
-      </c>
-      <c r="F8">
-        <v>451</v>
-      </c>
-      <c r="G8">
-        <f>B8*F8/3600</f>
-        <v>2.1297222222222221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9">
-        <v>0.8</v>
-      </c>
-      <c r="F9">
-        <v>3320</v>
-      </c>
-      <c r="G9">
-        <f>B9*F9/3600</f>
-        <v>0.73777777777777775</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10">
+      <c r="B13">
         <v>5</v>
       </c>
-      <c r="C10">
-        <v>3.5</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f>SQRT(D10*D10+C10*C10)</f>
-        <v>3.5</v>
-      </c>
-      <c r="F10">
+      <c r="C13">
         <v>500</v>
       </c>
-      <c r="G10">
-        <f>B10*F10/3600</f>
+      <c r="D13">
+        <f>B13*C13/3600</f>
         <v>0.69444444444444442</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G12">
-        <f>SUM(G2:G10)</f>
-        <v>42.247499999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <f>SUM(B2:B10)</f>
-        <v>438.20000000000005</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16">
+        <f>SUM(B5:B13)</f>
+        <v>552.70000000000005</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="4">
+        <f>SUM(D5:D13)</f>
+        <v>42.456614011111114</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Power & Propulsion System/Power Consumption.xlsx
+++ b/Power & Propulsion System/Power Consumption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Videos\UAS_Challenge\Power &amp; Propulsion System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17157551-241B-4668-AF78-23B31047DCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD0D438-C852-4280-B0B2-46B816CCAB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="806" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="806" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Motors" sheetId="3" r:id="rId1"/>
@@ -463,6 +463,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -472,7 +473,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,10 +807,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
@@ -832,8 +832,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3">
         <v>47.39</v>
       </c>
@@ -853,8 +853,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
       <c r="C4">
         <v>47.36</v>
       </c>
@@ -874,8 +874,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
       <c r="C5">
         <v>47.34</v>
       </c>
@@ -895,8 +895,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6">
         <v>47.31</v>
       </c>
@@ -916,8 +916,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7">
         <v>47.28</v>
       </c>
@@ -937,8 +937,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
       <c r="C8">
         <v>47.24</v>
       </c>
@@ -958,8 +958,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
       <c r="C9">
         <v>47.21</v>
       </c>
@@ -979,8 +979,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
       <c r="C10">
         <v>47.17</v>
       </c>
@@ -1000,8 +1000,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
       <c r="C11">
         <v>47.08</v>
       </c>
@@ -1021,8 +1021,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
       <c r="C12">
         <v>47.03</v>
       </c>
@@ -1042,8 +1042,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C13">
@@ -1065,8 +1065,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
       <c r="C14">
         <v>47.37</v>
       </c>
@@ -1086,8 +1086,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
       <c r="C15">
         <v>47.34</v>
       </c>
@@ -1107,8 +1107,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
       <c r="C16">
         <v>47.3</v>
       </c>
@@ -1128,8 +1128,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="C17">
         <v>47.27</v>
       </c>
@@ -1149,8 +1149,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
       <c r="C18">
         <v>47.23</v>
       </c>
@@ -1170,8 +1170,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
       <c r="C19">
         <v>47.19</v>
       </c>
@@ -1191,8 +1191,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
       <c r="C20">
         <v>47.15</v>
       </c>
@@ -1212,8 +1212,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="C21">
         <v>47.1</v>
       </c>
@@ -1233,8 +1233,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
       <c r="C22">
         <v>46.99</v>
       </c>
@@ -1254,8 +1254,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
       <c r="C23">
         <v>46.94</v>
       </c>
@@ -1275,10 +1275,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24">
@@ -1300,8 +1300,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
       <c r="C25">
         <v>23.43</v>
       </c>
@@ -1321,8 +1321,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
       <c r="C26">
         <v>23.38</v>
       </c>
@@ -1342,8 +1342,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
       <c r="C27">
         <v>23.33</v>
       </c>
@@ -1363,8 +1363,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
       <c r="C28">
         <v>23.27</v>
       </c>
@@ -1384,8 +1384,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
       <c r="C29">
         <v>23.21</v>
       </c>
@@ -1405,8 +1405,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
       <c r="C30">
         <v>23.15</v>
       </c>
@@ -1426,8 +1426,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
       <c r="C31">
         <v>23.08</v>
       </c>
@@ -1447,8 +1447,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
       <c r="C32">
         <v>23</v>
       </c>
@@ -1468,8 +1468,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
       <c r="C33">
         <v>22.82</v>
       </c>
@@ -1489,8 +1489,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
       <c r="C34">
         <v>22.72</v>
       </c>
@@ -1510,8 +1510,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1" t="s">
+      <c r="A35" s="3"/>
+      <c r="B35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C35">
@@ -1533,8 +1533,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
       <c r="C36">
         <v>23.39</v>
       </c>
@@ -1554,8 +1554,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
       <c r="C37">
         <v>23.33</v>
       </c>
@@ -1575,8 +1575,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
       <c r="C38">
         <v>23.26</v>
       </c>
@@ -1596,8 +1596,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
       <c r="C39">
         <v>23.19</v>
       </c>
@@ -1617,8 +1617,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
       <c r="C40">
         <v>23.11</v>
       </c>
@@ -1638,8 +1638,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
       <c r="C41">
         <v>23.04</v>
       </c>
@@ -1659,8 +1659,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
       <c r="C42">
         <v>22.95</v>
       </c>
@@ -1680,8 +1680,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
       <c r="C43">
         <v>22.86</v>
       </c>
@@ -1701,8 +1701,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
       <c r="C44">
         <v>22.63</v>
       </c>
@@ -1722,8 +1722,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
       <c r="C45">
         <v>22.51</v>
       </c>
@@ -1743,10 +1743,10 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C46">
@@ -1768,8 +1768,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
       <c r="C47">
         <v>23.44</v>
       </c>
@@ -1789,8 +1789,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
       <c r="C48">
         <v>23.4</v>
       </c>
@@ -1810,8 +1810,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
       <c r="C49">
         <v>23.35</v>
       </c>
@@ -1831,8 +1831,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
       <c r="C50">
         <v>23.3</v>
       </c>
@@ -1852,8 +1852,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
       <c r="C51">
         <v>23.25</v>
       </c>
@@ -1873,8 +1873,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
       <c r="C52">
         <v>23.19</v>
       </c>
@@ -1894,8 +1894,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
       <c r="C53">
         <v>23.13</v>
       </c>
@@ -1915,8 +1915,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
       <c r="C54">
         <v>23.06</v>
       </c>
@@ -1936,8 +1936,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
       <c r="C55">
         <v>22.9</v>
       </c>
@@ -1957,8 +1957,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
       <c r="C56">
         <v>22.81</v>
       </c>
@@ -1978,8 +1978,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1" t="s">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C57">
@@ -2001,8 +2001,8 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
       <c r="C58">
         <v>23.41</v>
       </c>
@@ -2022,8 +2022,8 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
       <c r="C59">
         <v>23.36</v>
       </c>
@@ -2043,8 +2043,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
       <c r="C60">
         <v>23.31</v>
       </c>
@@ -2064,8 +2064,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
       <c r="C61">
         <v>23.25</v>
       </c>
@@ -2085,8 +2085,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="1"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="3"/>
       <c r="C62">
         <v>23.19</v>
       </c>
@@ -2106,8 +2106,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
       <c r="C63">
         <v>23.13</v>
       </c>
@@ -2127,8 +2127,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="1"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="3"/>
       <c r="C64">
         <v>23.05</v>
       </c>
@@ -2148,8 +2148,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="1"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="3"/>
       <c r="C65">
         <v>22.96</v>
       </c>
@@ -2169,8 +2169,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="1"/>
-      <c r="B66" s="2"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
       <c r="C66">
         <v>22.77</v>
       </c>
@@ -2190,8 +2190,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="1"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="3"/>
       <c r="C67">
         <v>22.67</v>
       </c>
@@ -2211,8 +2211,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1" t="s">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C68">
@@ -2234,8 +2234,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="1"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="2"/>
+      <c r="B69" s="3"/>
       <c r="C69">
         <v>23.39</v>
       </c>
@@ -2255,8 +2255,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="1"/>
-      <c r="B70" s="2"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="3"/>
       <c r="C70">
         <v>23.33</v>
       </c>
@@ -2276,8 +2276,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="1"/>
-      <c r="B71" s="2"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="3"/>
       <c r="C71">
         <v>23.26</v>
       </c>
@@ -2297,8 +2297,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="1"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="3"/>
       <c r="C72">
         <v>23.2</v>
       </c>
@@ -2318,8 +2318,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="1"/>
-      <c r="B73" s="2"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="3"/>
       <c r="C73">
         <v>23.13</v>
       </c>
@@ -2339,8 +2339,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="1"/>
-      <c r="B74" s="2"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="3"/>
       <c r="C74">
         <v>23.05</v>
       </c>
@@ -2360,8 +2360,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="1"/>
-      <c r="B75" s="2"/>
+      <c r="A75" s="2"/>
+      <c r="B75" s="3"/>
       <c r="C75">
         <v>22.97</v>
       </c>
@@ -2381,8 +2381,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="1"/>
-      <c r="B76" s="2"/>
+      <c r="A76" s="2"/>
+      <c r="B76" s="3"/>
       <c r="C76">
         <v>22.87</v>
       </c>
@@ -2402,8 +2402,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="1"/>
-      <c r="B77" s="2"/>
+      <c r="A77" s="2"/>
+      <c r="B77" s="3"/>
       <c r="C77">
         <v>22.65</v>
       </c>
@@ -2423,8 +2423,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="1"/>
-      <c r="B78" s="2"/>
+      <c r="A78" s="2"/>
+      <c r="B78" s="3"/>
       <c r="C78">
         <v>22.53</v>
       </c>
@@ -2444,10 +2444,10 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C79">
@@ -2469,8 +2469,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="1"/>
-      <c r="B80" s="2"/>
+      <c r="A80" s="2"/>
+      <c r="B80" s="3"/>
       <c r="C80">
         <v>15.43</v>
       </c>
@@ -2490,8 +2490,8 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="1"/>
-      <c r="B81" s="2"/>
+      <c r="A81" s="2"/>
+      <c r="B81" s="3"/>
       <c r="C81">
         <v>15.21</v>
       </c>
@@ -2511,8 +2511,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="1"/>
-      <c r="B82" s="2"/>
+      <c r="A82" s="2"/>
+      <c r="B82" s="3"/>
       <c r="C82">
         <v>14.93</v>
       </c>
@@ -2532,8 +2532,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="1"/>
-      <c r="B83" s="2"/>
+      <c r="A83" s="2"/>
+      <c r="B83" s="3"/>
       <c r="C83">
         <v>14.68</v>
       </c>
@@ -2553,8 +2553,8 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="1"/>
-      <c r="B84" s="2"/>
+      <c r="A84" s="2"/>
+      <c r="B84" s="3"/>
       <c r="C84">
         <v>14.47</v>
       </c>
@@ -2575,18 +2575,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A24:A45"/>
+    <mergeCell ref="B24:B34"/>
+    <mergeCell ref="B35:B45"/>
     <mergeCell ref="B46:B56"/>
     <mergeCell ref="B57:B67"/>
     <mergeCell ref="B68:B78"/>
     <mergeCell ref="A46:A78"/>
     <mergeCell ref="A79:A84"/>
     <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="A24:A45"/>
-    <mergeCell ref="B24:B34"/>
-    <mergeCell ref="B35:B45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2594,10 +2594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCE7B62-FB69-4347-8AA6-5823B55756E6}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2656,11 +2656,11 @@
         <v>0.56971285000000005</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">0.350317*A3*A3-0.202576*A3</f>
+        <f t="shared" ref="D3:D20" si="0">0.350317*A3*A3-0.202576*A3</f>
         <v>4.7947679999999995</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E6" si="1">0.0350823*A3*A3+0.00372739*A3</f>
+        <f t="shared" ref="E3:E20" si="1">0.0350823*A3*A3+0.00372739*A3</f>
         <v>0.57622635999999994</v>
       </c>
     </row>
@@ -2719,6 +2719,188 @@
       <c r="E6">
         <f t="shared" si="1"/>
         <v>9.0407070399999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>136.07527999999999</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>14.1074678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>196.92076799999998</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>20.29686216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>268.97640000000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>27.608890119999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>352.24217599999997</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>36.04355168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>446.718096</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>45.600846840000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>552.40416000000005</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>56.280775600000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>669.30036799999993</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>68.083337959999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>797.40671999999995</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>81.008533919999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>936.72321600000009</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>95.056363480000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1087.2498559999999</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>110.22682663999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1248.9866399999999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>126.51992339999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1421.9335679999999</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>143.93565375999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>68</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1606.0906400000001</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>162.47401771999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>72</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1801.457856</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>182.13501528</v>
       </c>
     </row>
   </sheetData>
@@ -2730,7 +2912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC55B06D-1837-44EB-A9AC-10712F976789}">
   <dimension ref="A1:K306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
@@ -43314,7 +43496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893ADDC9-523C-47B1-8967-17603EEDB938}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -43327,24 +43509,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -43371,7 +43553,7 @@
         <v>2100</v>
       </c>
       <c r="D5">
-        <f>B5*C5/3600</f>
+        <f t="shared" ref="D5:D13" si="0">B5*C5/3600</f>
         <v>1.75</v>
       </c>
     </row>
@@ -43386,7 +43568,7 @@
         <v>2560</v>
       </c>
       <c r="D6">
-        <f>B6*C6/3600</f>
+        <f t="shared" si="0"/>
         <v>1.0666666666666667</v>
       </c>
     </row>
@@ -43401,7 +43583,7 @@
         <v>85</v>
       </c>
       <c r="D7">
-        <f>B7*C7/3600</f>
+        <f t="shared" si="0"/>
         <v>6.6583333333333332</v>
       </c>
     </row>
@@ -43416,7 +43598,7 @@
         <v>2560</v>
       </c>
       <c r="D8">
-        <f>B8*C8/3600</f>
+        <f t="shared" si="0"/>
         <v>1.0666666666666667</v>
       </c>
     </row>
@@ -43431,7 +43613,7 @@
         <v>488</v>
       </c>
       <c r="D9">
-        <f>B9*C9/3600</f>
+        <f t="shared" si="0"/>
         <v>28.466666666666665</v>
       </c>
     </row>
@@ -43446,7 +43628,7 @@
         <v>2560</v>
       </c>
       <c r="D10">
-        <f>B10*C10/3600</f>
+        <f t="shared" si="0"/>
         <v>1.0666666666666667</v>
       </c>
     </row>
@@ -43461,7 +43643,7 @@
         <v>47.833199999999998</v>
       </c>
       <c r="D11">
-        <f>B11*C11/3600</f>
+        <f t="shared" si="0"/>
         <v>0.62050290000000008</v>
       </c>
     </row>
@@ -43476,7 +43658,7 @@
         <v>2560</v>
       </c>
       <c r="D12">
-        <f>B12*C12/3600</f>
+        <f t="shared" si="0"/>
         <v>1.0666666666666667</v>
       </c>
     </row>
@@ -43491,7 +43673,7 @@
         <v>500</v>
       </c>
       <c r="D13">
-        <f>B13*C13/3600</f>
+        <f t="shared" si="0"/>
         <v>0.69444444444444442</v>
       </c>
     </row>
@@ -43503,10 +43685,10 @@
         <f>SUM(B5:B13)</f>
         <v>552.70000000000005</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="1">
         <f>SUM(D5:D13)</f>
         <v>42.456614011111114</v>
       </c>
